--- a/escenarios_montecarlo/escenario_003.xlsx
+++ b/escenarios_montecarlo/escenario_003.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>16.00839506235691</v>
+        <v>16.7275023271436</v>
       </c>
       <c r="D2" t="n">
-        <v>30.56311286853231</v>
+        <v>27.29525939277501</v>
       </c>
       <c r="E2" t="n">
-        <v>19.78691278717837</v>
+        <v>38.05019176461839</v>
       </c>
       <c r="F2" t="n">
-        <v>17.96745455314541</v>
+        <v>21.92993067838865</v>
       </c>
       <c r="G2" t="n">
-        <v>7.874659589354721</v>
+        <v>24.70342233994738</v>
       </c>
       <c r="H2" t="n">
-        <v>54.43545341533262</v>
+        <v>33.02670498573804</v>
       </c>
       <c r="I2" t="n">
-        <v>22.62832033381497</v>
+        <v>58.72885051197727</v>
       </c>
       <c r="J2" t="n">
-        <v>17.53063217788216</v>
+        <v>72.73423875865726</v>
       </c>
       <c r="K2" t="n">
-        <v>92.88978610297818</v>
+        <v>80.59378958483582</v>
       </c>
       <c r="L2" t="n">
-        <v>10.48431861391196</v>
+        <v>41.33235580582466</v>
       </c>
       <c r="M2" t="n">
-        <v>37.10722269979185</v>
+        <v>40.89718201039712</v>
       </c>
       <c r="N2" t="n">
-        <v>54.58378711554242</v>
+        <v>59.40043914875084</v>
       </c>
       <c r="O2" t="n">
-        <v>24.01730047901848</v>
+        <v>102.964556696688</v>
       </c>
       <c r="P2" t="n">
-        <v>90.75910737771449</v>
+        <v>34.06941825721574</v>
       </c>
       <c r="Q2" t="n">
-        <v>56.13558137219615</v>
+        <v>92.07067660558717</v>
       </c>
       <c r="R2" t="n">
-        <v>74.99569487630208</v>
+        <v>52.73226524750788</v>
       </c>
       <c r="S2" t="n">
-        <v>86.01233471864848</v>
+        <v>27.1454428701183</v>
       </c>
       <c r="T2" t="n">
-        <v>83.54222132964703</v>
+        <v>20.39367723199512</v>
       </c>
       <c r="U2" t="n">
-        <v>28.96595200863273</v>
+        <v>143.6670312277141</v>
       </c>
       <c r="V2" t="n">
-        <v>57.45255523647366</v>
+        <v>65.40383225420129</v>
       </c>
       <c r="W2" t="n">
-        <v>128.9930603833612</v>
+        <v>101.8785734830261</v>
       </c>
       <c r="X2" t="n">
-        <v>75.18575490777181</v>
+        <v>32.26424435397595</v>
       </c>
       <c r="Y2" t="n">
-        <v>73.10137835415713</v>
+        <v>35.51358740895969</v>
       </c>
       <c r="Z2" t="n">
-        <v>127.1174460600862</v>
+        <v>49.90136910214645</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.09772784592433</v>
+        <v>86.37779280181829</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.1972879567138</v>
+        <v>119.0972822749304</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.50385426621972</v>
+        <v>146.5965691619805</v>
       </c>
       <c r="AD2" t="n">
-        <v>48.95025258401232</v>
+        <v>88.96516449390361</v>
       </c>
       <c r="AE2" t="n">
-        <v>109.86184964226</v>
+        <v>93.17385959529591</v>
       </c>
       <c r="AF2" t="n">
-        <v>112.4153674202023</v>
+        <v>63.71014625742537</v>
       </c>
       <c r="AG2" t="n">
-        <v>80.76866895305234</v>
+        <v>180.0924508236817</v>
       </c>
       <c r="AH2" t="n">
-        <v>104.3216909971519</v>
+        <v>52.8824509975868</v>
       </c>
       <c r="AI2" t="n">
-        <v>78.45738202737611</v>
+        <v>53.7574557711599</v>
       </c>
       <c r="AJ2" t="n">
-        <v>42.22938037851108</v>
+        <v>46.62310273344079</v>
       </c>
       <c r="AK2" t="n">
-        <v>60.09027205649886</v>
+        <v>60.86907150919004</v>
       </c>
       <c r="AL2" t="n">
-        <v>49.72762956824707</v>
+        <v>38.07452372635166</v>
       </c>
       <c r="AM2" t="n">
-        <v>59.01321144601189</v>
+        <v>67.06727104641121</v>
       </c>
       <c r="AN2" t="n">
-        <v>22.95743973319168</v>
+        <v>41.03831098798961</v>
       </c>
       <c r="AO2" t="n">
-        <v>27.50238540202561</v>
+        <v>62.14711385011589</v>
       </c>
       <c r="AP2" t="n">
-        <v>35.47333398341981</v>
+        <v>16.22367481144387</v>
       </c>
       <c r="AQ2" t="n">
-        <v>18.54451649487723</v>
+        <v>17.12559593447312</v>
       </c>
       <c r="AR2" t="n">
-        <v>16.90132661573738</v>
+        <v>22.65892916624862</v>
       </c>
       <c r="AS2" t="n">
-        <v>22.61635073859687</v>
+        <v>16.6327282746319</v>
       </c>
       <c r="AT2" t="n">
-        <v>19.78934166954059</v>
+        <v>28.14094515264386</v>
       </c>
       <c r="AU2" t="n">
-        <v>43.69396534123827</v>
+        <v>44.84576574241548</v>
       </c>
       <c r="AV2" t="n">
-        <v>16.78256117642855</v>
+        <v>39.24164796044172</v>
       </c>
       <c r="AW2" t="n">
-        <v>36.61643193559961</v>
+        <v>17.12449700536033</v>
       </c>
       <c r="AX2" t="n">
-        <v>17.94344293524796</v>
+        <v>19.37502051976196</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.649663833158898</v>
+        <v>0.1001387511089689</v>
       </c>
       <c r="D3" t="n">
-        <v>3.658868024830137</v>
+        <v>3.796971447667459</v>
       </c>
       <c r="E3" t="n">
-        <v>4.916326915856549</v>
+        <v>25.1239151730804</v>
       </c>
       <c r="F3" t="n">
-        <v>4.347482540033368</v>
+        <v>0.3263868448243266</v>
       </c>
       <c r="G3" t="n">
-        <v>2.456772675976374</v>
+        <v>6.224715797737694</v>
       </c>
       <c r="H3" t="n">
-        <v>7.375069917912037</v>
+        <v>8.5209157361233</v>
       </c>
       <c r="I3" t="n">
-        <v>2.379562193928106</v>
+        <v>1.843495264222124</v>
       </c>
       <c r="J3" t="n">
-        <v>3.589026454348484</v>
+        <v>0.4027834347713818</v>
       </c>
       <c r="K3" t="n">
-        <v>1.958571023153528</v>
+        <v>10.80227622923102</v>
       </c>
       <c r="L3" t="n">
-        <v>3.554347172861125</v>
+        <v>7.546401901743437</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9118194931710922</v>
+        <v>22.64605061162864</v>
       </c>
       <c r="N3" t="n">
-        <v>5.942631119132881</v>
+        <v>2.06398572359713</v>
       </c>
       <c r="O3" t="n">
-        <v>5.21719316456175</v>
+        <v>5.129730386517852</v>
       </c>
       <c r="P3" t="n">
-        <v>2.554826564792514</v>
+        <v>4.942898672400199</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.57529139758009</v>
+        <v>10.8066756181876</v>
       </c>
       <c r="R3" t="n">
-        <v>2.674096681742274</v>
+        <v>22.59002448804374</v>
       </c>
       <c r="S3" t="n">
-        <v>4.192076698062586</v>
+        <v>4.698120975302299</v>
       </c>
       <c r="T3" t="n">
-        <v>4.239852563942918</v>
+        <v>3.0300924152741</v>
       </c>
       <c r="U3" t="n">
-        <v>4.609904240766073</v>
+        <v>8.406328746333326</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7335999290765783</v>
+        <v>6.388807028383326</v>
       </c>
       <c r="W3" t="n">
-        <v>2.146275797458683</v>
+        <v>2.260932869651096</v>
       </c>
       <c r="X3" t="n">
-        <v>2.999941690332473</v>
+        <v>3.14182307176138</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.36872266032967</v>
+        <v>8.942502325667324</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.761075336279101</v>
+        <v>4.305201787324607</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.281121533062955</v>
+        <v>4.705652831784853</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.049668497205403</v>
+        <v>3.029193497408461</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.731891395936766</v>
+        <v>6.330131902657401</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.05963264086315</v>
+        <v>2.963137703216805</v>
       </c>
       <c r="AE3" t="n">
-        <v>6.408950676331508</v>
+        <v>12.03984827588079</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.365487740211269</v>
+        <v>5.717924133010779</v>
       </c>
       <c r="AG3" t="n">
-        <v>6.279647495243138</v>
+        <v>8.502997717438944</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.25200909724793</v>
+        <v>7.199294993869355</v>
       </c>
       <c r="AI3" t="n">
-        <v>5.669239904923936</v>
+        <v>9.077895359431102</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4.741646223308291</v>
+        <v>5.201785500528238</v>
       </c>
       <c r="AK3" t="n">
-        <v>5.267517557453879</v>
+        <v>5.285700466776619</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.573581166626911</v>
+        <v>4.324250560900863</v>
       </c>
       <c r="AM3" t="n">
-        <v>5.288276006345775</v>
+        <v>2.621157418614456</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.057600748669357</v>
+        <v>2.255695799277302</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.014906438312719</v>
+        <v>6.247212408054206</v>
       </c>
       <c r="AP3" t="n">
-        <v>3.314390304425201</v>
+        <v>4.605657516133665</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.845228780754167</v>
+        <v>3.424810047803716</v>
       </c>
       <c r="AR3" t="n">
-        <v>5.156994502138058</v>
+        <v>6.089658501820106</v>
       </c>
       <c r="AS3" t="n">
-        <v>6.897397420867529</v>
+        <v>3.122641692306985</v>
       </c>
       <c r="AT3" t="n">
-        <v>5.399413662790598</v>
+        <v>1.83554049924339</v>
       </c>
       <c r="AU3" t="n">
-        <v>3.320946877503122</v>
+        <v>2.820670391295405</v>
       </c>
       <c r="AV3" t="n">
-        <v>2.387062980815864</v>
+        <v>3.815973666660317</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.03327247605723067</v>
+        <v>1.960562623704357</v>
       </c>
       <c r="AX3" t="n">
-        <v>5.10914061179093</v>
+        <v>2.893942412655328</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>12.74487602122422</v>
+        <v>14.47225730063385</v>
       </c>
       <c r="D4" t="n">
-        <v>25.19758753611156</v>
+        <v>16.16844885638063</v>
       </c>
       <c r="E4" t="n">
-        <v>6.838784439587672</v>
+        <v>5.521288566168762</v>
       </c>
       <c r="F4" t="n">
-        <v>54.12941570736405</v>
+        <v>7.689677904259643</v>
       </c>
       <c r="G4" t="n">
-        <v>9.69642037786951</v>
+        <v>21.95259482843758</v>
       </c>
       <c r="H4" t="n">
-        <v>7.867057855240864</v>
+        <v>10.52296744326099</v>
       </c>
       <c r="I4" t="n">
-        <v>32.89541977337571</v>
+        <v>16.45239031200972</v>
       </c>
       <c r="J4" t="n">
-        <v>73.50949463723586</v>
+        <v>19.902064700382</v>
       </c>
       <c r="K4" t="n">
-        <v>9.546328009016548</v>
+        <v>12.39072587564499</v>
       </c>
       <c r="L4" t="n">
-        <v>48.80239842984712</v>
+        <v>46.234628877381</v>
       </c>
       <c r="M4" t="n">
-        <v>134.7608701831299</v>
+        <v>29.93281597195217</v>
       </c>
       <c r="N4" t="n">
-        <v>80.23903020110716</v>
+        <v>60.87327244901472</v>
       </c>
       <c r="O4" t="n">
-        <v>24.1874759180126</v>
+        <v>231.6698395170352</v>
       </c>
       <c r="P4" t="n">
-        <v>39.86565776263178</v>
+        <v>90.07045221911325</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.82036257688572</v>
+        <v>55.65261693419737</v>
       </c>
       <c r="R4" t="n">
-        <v>51.70652916385632</v>
+        <v>102.3069591215832</v>
       </c>
       <c r="S4" t="n">
-        <v>94.92415501673909</v>
+        <v>35.21196703083378</v>
       </c>
       <c r="T4" t="n">
-        <v>36.27476486665916</v>
+        <v>93.51046251413918</v>
       </c>
       <c r="U4" t="n">
-        <v>91.68209328249947</v>
+        <v>45.5170696343919</v>
       </c>
       <c r="V4" t="n">
-        <v>31.77585633521782</v>
+        <v>46.05436092520603</v>
       </c>
       <c r="W4" t="n">
-        <v>73.76450234206608</v>
+        <v>50.18845715978838</v>
       </c>
       <c r="X4" t="n">
-        <v>75.28522497836761</v>
+        <v>71.0517918665871</v>
       </c>
       <c r="Y4" t="n">
-        <v>103.8000678099505</v>
+        <v>73.37976758208359</v>
       </c>
       <c r="Z4" t="n">
-        <v>62.78389588289262</v>
+        <v>61.21347031875948</v>
       </c>
       <c r="AA4" t="n">
-        <v>41.3408543225126</v>
+        <v>68.02302604540759</v>
       </c>
       <c r="AB4" t="n">
-        <v>67.0982440829663</v>
+        <v>90.59914361170135</v>
       </c>
       <c r="AC4" t="n">
-        <v>31.15654340205784</v>
+        <v>99.78526192133884</v>
       </c>
       <c r="AD4" t="n">
-        <v>109.0763046934183</v>
+        <v>70.00525930152673</v>
       </c>
       <c r="AE4" t="n">
-        <v>49.1012383396223</v>
+        <v>63.74761328309767</v>
       </c>
       <c r="AF4" t="n">
-        <v>34.46008781399014</v>
+        <v>34.20259797310143</v>
       </c>
       <c r="AG4" t="n">
-        <v>54.68676318529647</v>
+        <v>48.86046700214617</v>
       </c>
       <c r="AH4" t="n">
-        <v>81.30411540911687</v>
+        <v>32.74715986545163</v>
       </c>
       <c r="AI4" t="n">
-        <v>23.93021961396864</v>
+        <v>107.2950198706216</v>
       </c>
       <c r="AJ4" t="n">
-        <v>42.80624470035253</v>
+        <v>147.4466868641958</v>
       </c>
       <c r="AK4" t="n">
-        <v>15.0463209501555</v>
+        <v>21.04110903585103</v>
       </c>
       <c r="AL4" t="n">
-        <v>19.76086821111168</v>
+        <v>26.13462798428722</v>
       </c>
       <c r="AM4" t="n">
-        <v>24.46659631964998</v>
+        <v>64.73301110637854</v>
       </c>
       <c r="AN4" t="n">
-        <v>22.00958832624662</v>
+        <v>16.77632226669761</v>
       </c>
       <c r="AO4" t="n">
-        <v>17.66966950135292</v>
+        <v>20.57053175348283</v>
       </c>
       <c r="AP4" t="n">
-        <v>13.49680793238254</v>
+        <v>17.96461075626702</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29.1610553633218</v>
+        <v>23.44605460674329</v>
       </c>
       <c r="AR4" t="n">
-        <v>31.313901179941</v>
+        <v>17.97671096478075</v>
       </c>
       <c r="AS4" t="n">
-        <v>11.10237288135593</v>
+        <v>12.00927486775639</v>
       </c>
       <c r="AT4" t="n">
-        <v>6.726036250652009</v>
+        <v>11.16801999810169</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.676177491870741</v>
+        <v>6.017048849027333</v>
       </c>
       <c r="AV4" t="n">
-        <v>15.70295329908779</v>
+        <v>11.74753574117807</v>
       </c>
       <c r="AW4" t="n">
-        <v>10.9081365507223</v>
+        <v>15.70005884806391</v>
       </c>
       <c r="AX4" t="n">
-        <v>10.60212610603926</v>
+        <v>8.245461676523828</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>14.09319801574051</v>
+        <v>7.07008611603739</v>
       </c>
       <c r="D5" t="n">
-        <v>9.245023554716552</v>
+        <v>19.24753539761973</v>
       </c>
       <c r="E5" t="n">
-        <v>55.97194531847407</v>
+        <v>13.35581508073597</v>
       </c>
       <c r="F5" t="n">
-        <v>33.65818542707115</v>
+        <v>69.90779450449683</v>
       </c>
       <c r="G5" t="n">
-        <v>15.9450708349831</v>
+        <v>15.18795477584707</v>
       </c>
       <c r="H5" t="n">
-        <v>1.584196346555289</v>
+        <v>2.688605842566855</v>
       </c>
       <c r="I5" t="n">
-        <v>22.75208648635834</v>
+        <v>6.78701723844314</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>47.64387996976779</v>
       </c>
       <c r="K5" t="n">
-        <v>89.59024802059875</v>
+        <v>25.24878685779542</v>
       </c>
       <c r="L5" t="n">
-        <v>33.30530644832229</v>
+        <v>37.15671304325188</v>
       </c>
       <c r="M5" t="n">
-        <v>57.55511217179446</v>
+        <v>6.480264441432272</v>
       </c>
       <c r="N5" t="n">
-        <v>76.25056085936157</v>
+        <v>423.7288730159337</v>
       </c>
       <c r="O5" t="n">
-        <v>74.30906219300172</v>
+        <v>72.32326881880233</v>
       </c>
       <c r="P5" t="n">
-        <v>64.65524260820023</v>
+        <v>56.0849304514069</v>
       </c>
       <c r="Q5" t="n">
-        <v>145.9040060594699</v>
+        <v>57.21263655073664</v>
       </c>
       <c r="R5" t="n">
-        <v>19.85479293251499</v>
+        <v>96.98331571777985</v>
       </c>
       <c r="S5" t="n">
-        <v>21.45087535794529</v>
+        <v>32.78183769933982</v>
       </c>
       <c r="T5" t="n">
-        <v>59.01284817514893</v>
+        <v>44.05738452392998</v>
       </c>
       <c r="U5" t="n">
-        <v>90.23020283291582</v>
+        <v>15.22572615215983</v>
       </c>
       <c r="V5" t="n">
-        <v>32.47407219202013</v>
+        <v>162.2942468765127</v>
       </c>
       <c r="W5" t="n">
-        <v>14.28725610226634</v>
+        <v>23.23630892170408</v>
       </c>
       <c r="X5" t="n">
-        <v>51.33717375193699</v>
+        <v>64.77357420630943</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.39202695387654</v>
+        <v>61.94479976706365</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.34077836735726</v>
+        <v>151.2801796184429</v>
       </c>
       <c r="AA5" t="n">
-        <v>52.78279997403098</v>
+        <v>20.43254231923425</v>
       </c>
       <c r="AB5" t="n">
-        <v>53.71418146386977</v>
+        <v>11.67405268698774</v>
       </c>
       <c r="AC5" t="n">
-        <v>16.45998913093969</v>
+        <v>37.62824624492084</v>
       </c>
       <c r="AD5" t="n">
-        <v>11.33139444851196</v>
+        <v>27.30623945357721</v>
       </c>
       <c r="AE5" t="n">
-        <v>16.55011180528244</v>
+        <v>22.15508994790798</v>
       </c>
       <c r="AF5" t="n">
-        <v>123.1520796592699</v>
+        <v>24.93953008657307</v>
       </c>
       <c r="AG5" t="n">
-        <v>29.92521288814945</v>
+        <v>6.725754843824341</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.97647244360273</v>
+        <v>10.81121323007348</v>
       </c>
       <c r="AI5" t="n">
-        <v>16.98554954588458</v>
+        <v>62.56729255957089</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2.116298072908306</v>
+        <v>14.84040711530226</v>
       </c>
       <c r="AK5" t="n">
-        <v>12.06332162484617</v>
+        <v>28.18981303657656</v>
       </c>
       <c r="AL5" t="n">
-        <v>14.07957181997923</v>
+        <v>12.1047762181476</v>
       </c>
       <c r="AM5" t="n">
-        <v>28.31357595833162</v>
+        <v>4.858011438741688</v>
       </c>
       <c r="AN5" t="n">
-        <v>26.03021799998853</v>
+        <v>5.962504730432484</v>
       </c>
       <c r="AO5" t="n">
-        <v>27.36205981195592</v>
+        <v>6.966512760931751</v>
       </c>
       <c r="AP5" t="n">
-        <v>20.24044897651693</v>
+        <v>25.3328100986605</v>
       </c>
       <c r="AQ5" t="n">
-        <v>30.39478081570678</v>
+        <v>24.26018023703055</v>
       </c>
       <c r="AR5" t="n">
-        <v>26.12539707486351</v>
+        <v>31.12500887964615</v>
       </c>
       <c r="AS5" t="n">
-        <v>11.47316833555838</v>
+        <v>31.03038307613759</v>
       </c>
       <c r="AT5" t="n">
-        <v>20.47311514276406</v>
+        <v>48.60256308394171</v>
       </c>
       <c r="AU5" t="n">
-        <v>25.26745885977559</v>
+        <v>32.32391203839163</v>
       </c>
       <c r="AV5" t="n">
-        <v>53.9147633818375</v>
+        <v>7.590740762718434</v>
       </c>
       <c r="AW5" t="n">
-        <v>20.45981969516485</v>
+        <v>84.11816677826044</v>
       </c>
       <c r="AX5" t="n">
-        <v>22.43283314525872</v>
+        <v>41.96152921976387</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.55732176860367</v>
+        <v>1.847246904085552</v>
       </c>
       <c r="D6" t="n">
-        <v>11.03381610551734</v>
+        <v>2.065453468410298</v>
       </c>
       <c r="E6" t="n">
-        <v>16.99507730687355</v>
+        <v>3.34482150787228</v>
       </c>
       <c r="F6" t="n">
-        <v>10.14835437958789</v>
+        <v>15.1538229677097</v>
       </c>
       <c r="G6" t="n">
-        <v>3.867942394903895</v>
+        <v>10.4062641103637</v>
       </c>
       <c r="H6" t="n">
-        <v>34.77860810548374</v>
+        <v>36.94547417292215</v>
       </c>
       <c r="I6" t="n">
-        <v>75.29951722701674</v>
+        <v>1.437522397317881</v>
       </c>
       <c r="J6" t="n">
-        <v>2.045726205276465</v>
+        <v>16.13387916654077</v>
       </c>
       <c r="K6" t="n">
-        <v>5.407828041850676</v>
+        <v>38.39653151455119</v>
       </c>
       <c r="L6" t="n">
-        <v>18.23721484531161</v>
+        <v>16.5013728302094</v>
       </c>
       <c r="M6" t="n">
-        <v>14.2023816</v>
+        <v>78.56808188362183</v>
       </c>
       <c r="N6" t="n">
-        <v>28.84605874037441</v>
+        <v>12.03813165948738</v>
       </c>
       <c r="O6" t="n">
-        <v>65.21785557575431</v>
+        <v>151.4270968878163</v>
       </c>
       <c r="P6" t="n">
-        <v>32.34686546716006</v>
+        <v>14.69775060271704</v>
       </c>
       <c r="Q6" t="n">
-        <v>69.38516491964978</v>
+        <v>17.85093883188018</v>
       </c>
       <c r="R6" t="n">
-        <v>13.74201289906177</v>
+        <v>29.05100448323707</v>
       </c>
       <c r="S6" t="n">
-        <v>39.83604993575862</v>
+        <v>16.58233803495269</v>
       </c>
       <c r="T6" t="n">
-        <v>13.23863186399459</v>
+        <v>21.44054876153385</v>
       </c>
       <c r="U6" t="n">
-        <v>11.40932880552927</v>
+        <v>6.697849918028389</v>
       </c>
       <c r="V6" t="n">
-        <v>12.08144219076264</v>
+        <v>27.59328052101464</v>
       </c>
       <c r="W6" t="n">
-        <v>25.318768</v>
+        <v>18.00624412732426</v>
       </c>
       <c r="X6" t="n">
-        <v>90.84401877484888</v>
+        <v>27.55503432763612</v>
       </c>
       <c r="Y6" t="n">
-        <v>30.31694231075816</v>
+        <v>21.66058858682523</v>
       </c>
       <c r="Z6" t="n">
-        <v>26.87437543763428</v>
+        <v>20.32472277256417</v>
       </c>
       <c r="AA6" t="n">
-        <v>15.48543179582297</v>
+        <v>14.75045029157139</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.922895635586467</v>
+        <v>15.23768414203958</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.31445870360272</v>
+        <v>23.98811274110143</v>
       </c>
       <c r="AD6" t="n">
-        <v>16.38606798101104</v>
+        <v>18.87978547966619</v>
       </c>
       <c r="AE6" t="n">
-        <v>11.77198339158228</v>
+        <v>14.91854814107645</v>
       </c>
       <c r="AF6" t="n">
-        <v>31.45875</v>
+        <v>17.79026648972894</v>
       </c>
       <c r="AG6" t="n">
-        <v>4.113729729729729</v>
+        <v>12.0287979661455</v>
       </c>
       <c r="AH6" t="n">
-        <v>10.95190145166569</v>
+        <v>10.13130884820392</v>
       </c>
       <c r="AI6" t="n">
-        <v>3.483859996295754</v>
+        <v>10.66299580493825</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8.981033899037209</v>
+        <v>7.544364162246111</v>
       </c>
       <c r="AK6" t="n">
-        <v>13.03812364939466</v>
+        <v>2.723207868959216</v>
       </c>
       <c r="AL6" t="n">
-        <v>5.685159839098559</v>
+        <v>6.869963418955112</v>
       </c>
       <c r="AM6" t="n">
-        <v>13.52345600430597</v>
+        <v>4.229087174392037</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.524331172261568</v>
+        <v>2.216261598202791</v>
       </c>
       <c r="AO6" t="n">
-        <v>11.94625</v>
+        <v>6.052695021523488</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.161652703817558</v>
+        <v>1.296739941504006</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.270721122871795</v>
+        <v>1.358287301947398</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.289208502948188</v>
+        <v>3.443509914999022</v>
       </c>
       <c r="AS6" t="n">
-        <v>7.738571428571428</v>
+        <v>1.204440965823579</v>
       </c>
       <c r="AT6" t="n">
-        <v>4.403939537344069</v>
+        <v>1.797306162511586</v>
       </c>
       <c r="AU6" t="n">
-        <v>3.032936536102916</v>
+        <v>0.2786845950514498</v>
       </c>
       <c r="AV6" t="n">
-        <v>3.002755030106264</v>
+        <v>3.409281542905784</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.066278191000493</v>
+        <v>0.9293281851360558</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.867509327194162</v>
+        <v>3.775225654064926</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>9.33</v>
+        <v>2.553239612448233</v>
       </c>
       <c r="D7" t="n">
-        <v>8.77</v>
+        <v>1.888099833022877</v>
       </c>
       <c r="E7" t="n">
-        <v>9.33</v>
+        <v>4.828176473189707</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>5.675317386897763</v>
       </c>
       <c r="G7" t="n">
-        <v>22.86825543297943</v>
+        <v>4.853789853950435</v>
       </c>
       <c r="H7" t="n">
-        <v>1.77</v>
+        <v>7.756917860113192</v>
       </c>
       <c r="I7" t="n">
-        <v>29.68</v>
+        <v>12.38816603158115</v>
       </c>
       <c r="J7" t="n">
-        <v>15.03</v>
+        <v>14.44594855845641</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>26.82371580708103</v>
       </c>
       <c r="L7" t="n">
-        <v>50.3</v>
+        <v>9.279868977573779</v>
       </c>
       <c r="M7" t="n">
-        <v>47.37</v>
+        <v>19.59829178575304</v>
       </c>
       <c r="N7" t="n">
-        <v>39.56</v>
+        <v>55.51183298842241</v>
       </c>
       <c r="O7" t="n">
-        <v>81.89</v>
+        <v>11.71635887515634</v>
       </c>
       <c r="P7" t="n">
-        <v>44.9</v>
+        <v>13.72048982741752</v>
       </c>
       <c r="Q7" t="n">
-        <v>31.83</v>
+        <v>25.03509037643092</v>
       </c>
       <c r="R7" t="n">
-        <v>32.23</v>
+        <v>39.27180872266597</v>
       </c>
       <c r="S7" t="n">
-        <v>7.738136715274744</v>
+        <v>6.22223290935733</v>
       </c>
       <c r="T7" t="n">
-        <v>30.65</v>
+        <v>7.195287331740545</v>
       </c>
       <c r="U7" t="n">
-        <v>35.77</v>
+        <v>368.7341582327484</v>
       </c>
       <c r="V7" t="n">
-        <v>14.06</v>
+        <v>53.10297189629928</v>
       </c>
       <c r="W7" t="n">
-        <v>9.33</v>
+        <v>8.639494329872329</v>
       </c>
       <c r="X7" t="n">
-        <v>8.605262771900051</v>
+        <v>22.42360128875863</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.96</v>
+        <v>12.16762375404316</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.93</v>
+        <v>152.245280417998</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.61</v>
+        <v>3.644166794755395</v>
       </c>
       <c r="AB7" t="n">
-        <v>17.18196790041631</v>
+        <v>22.36164282303507</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.05</v>
+        <v>11.06624075805516</v>
       </c>
       <c r="AD7" t="n">
-        <v>26.665</v>
+        <v>15.62939362415353</v>
       </c>
       <c r="AE7" t="n">
-        <v>9.029999999999999</v>
+        <v>22.24875498206778</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.73</v>
+        <v>9.435930630408894</v>
       </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>6.905258931665589</v>
       </c>
       <c r="AH7" t="n">
-        <v>2</v>
+        <v>1.928641934917374</v>
       </c>
       <c r="AI7" t="n">
-        <v>5.879125033756412</v>
+        <v>1.832780583543361</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.0160611158344297</v>
+        <v>6.606653123005023</v>
       </c>
       <c r="AK7" t="n">
-        <v>9.83</v>
+        <v>18.00293885204036</v>
       </c>
       <c r="AL7" t="n">
-        <v>4.71</v>
+        <v>0.3433325991716272</v>
       </c>
       <c r="AM7" t="n">
-        <v>3.823828914285715</v>
+        <v>17.5440231235444</v>
       </c>
       <c r="AN7" t="n">
-        <v>16.83</v>
+        <v>4.769843624624554</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.74</v>
+        <v>9.259984493249299</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.41</v>
+        <v>10.47327237795371</v>
       </c>
       <c r="AQ7" t="n">
-        <v>11.12</v>
+        <v>2.395898273913511</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.13</v>
+        <v>11.72602503682683</v>
       </c>
       <c r="AS7" t="n">
-        <v>13.45</v>
+        <v>16.67706789854533</v>
       </c>
       <c r="AT7" t="n">
-        <v>4.24</v>
+        <v>4.367309237608921</v>
       </c>
       <c r="AU7" t="n">
-        <v>10.99</v>
+        <v>12.75936686881951</v>
       </c>
       <c r="AV7" t="n">
-        <v>3.77759680876609</v>
+        <v>6.18784284229939</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.787046542000001</v>
+        <v>3.667557375320626</v>
       </c>
       <c r="AX7" t="n">
-        <v>7.53</v>
+        <v>10.86579414288182</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>15.44311023066146</v>
+        <v>21.23194176982438</v>
       </c>
       <c r="D8" t="n">
-        <v>28.47647975505718</v>
+        <v>15.84402699479548</v>
       </c>
       <c r="E8" t="n">
-        <v>35.5414401116085</v>
+        <v>12.41457114051961</v>
       </c>
       <c r="F8" t="n">
-        <v>12.43513384396051</v>
+        <v>44.21723013034566</v>
       </c>
       <c r="G8" t="n">
-        <v>29.33880899027412</v>
+        <v>16.53232944089428</v>
       </c>
       <c r="H8" t="n">
-        <v>31.89967387719851</v>
+        <v>32.21874125159567</v>
       </c>
       <c r="I8" t="n">
-        <v>27.88987872373065</v>
+        <v>41.94907429417751</v>
       </c>
       <c r="J8" t="n">
-        <v>21.31809956076732</v>
+        <v>12.92379939516436</v>
       </c>
       <c r="K8" t="n">
-        <v>29.91465984340478</v>
+        <v>169.684356414723</v>
       </c>
       <c r="L8" t="n">
-        <v>16.09849468636494</v>
+        <v>100.041163583218</v>
       </c>
       <c r="M8" t="n">
-        <v>33.26651815690624</v>
+        <v>124.9469617019779</v>
       </c>
       <c r="N8" t="n">
-        <v>59.97996080427672</v>
+        <v>69.10903840176452</v>
       </c>
       <c r="O8" t="n">
-        <v>41.0328201227117</v>
+        <v>30.66931006139217</v>
       </c>
       <c r="P8" t="n">
-        <v>76.08003245388218</v>
+        <v>73.70469540925819</v>
       </c>
       <c r="Q8" t="n">
-        <v>80.71046358847346</v>
+        <v>196.866571367285</v>
       </c>
       <c r="R8" t="n">
-        <v>33.54973167757358</v>
+        <v>53.15770267065611</v>
       </c>
       <c r="S8" t="n">
-        <v>43.84619498499794</v>
+        <v>38.97640715965677</v>
       </c>
       <c r="T8" t="n">
-        <v>68.21449175687546</v>
+        <v>77.72718087324958</v>
       </c>
       <c r="U8" t="n">
-        <v>42.02222880802499</v>
+        <v>59.71922390338492</v>
       </c>
       <c r="V8" t="n">
-        <v>174.7819444936817</v>
+        <v>85.98744584453493</v>
       </c>
       <c r="W8" t="n">
-        <v>32.40667701411891</v>
+        <v>82.2019613362681</v>
       </c>
       <c r="X8" t="n">
-        <v>33.54258010911282</v>
+        <v>64.22838202905373</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.73460026775242</v>
+        <v>47.38516825027173</v>
       </c>
       <c r="Z8" t="n">
-        <v>70.95180319621743</v>
+        <v>83.52589558929756</v>
       </c>
       <c r="AA8" t="n">
-        <v>101.2775299749396</v>
+        <v>66.9370396744135</v>
       </c>
       <c r="AB8" t="n">
-        <v>43.68688817155879</v>
+        <v>109.0422350402312</v>
       </c>
       <c r="AC8" t="n">
-        <v>74.67832004109252</v>
+        <v>128.0855873225379</v>
       </c>
       <c r="AD8" t="n">
-        <v>69.77895937514158</v>
+        <v>121.5597974400888</v>
       </c>
       <c r="AE8" t="n">
-        <v>53.64571591288995</v>
+        <v>115.6970998575329</v>
       </c>
       <c r="AF8" t="n">
-        <v>32.65282007260839</v>
+        <v>176.7702793176278</v>
       </c>
       <c r="AG8" t="n">
-        <v>24.98557482250724</v>
+        <v>63.5639203940562</v>
       </c>
       <c r="AH8" t="n">
-        <v>90.75318439225005</v>
+        <v>148.0384652278547</v>
       </c>
       <c r="AI8" t="n">
-        <v>89.38831272435789</v>
+        <v>73.20899367685547</v>
       </c>
       <c r="AJ8" t="n">
-        <v>41.06934793201036</v>
+        <v>147.2884536202857</v>
       </c>
       <c r="AK8" t="n">
-        <v>65.5152376460951</v>
+        <v>51.20038998700586</v>
       </c>
       <c r="AL8" t="n">
-        <v>36.53404477196508</v>
+        <v>71.5329478206973</v>
       </c>
       <c r="AM8" t="n">
-        <v>28.62422731481</v>
+        <v>43.73089184477379</v>
       </c>
       <c r="AN8" t="n">
-        <v>36.86199999999999</v>
+        <v>17.32749265523316</v>
       </c>
       <c r="AO8" t="n">
-        <v>22.92069395461183</v>
+        <v>22.51473676548092</v>
       </c>
       <c r="AP8" t="n">
-        <v>22.36330512450368</v>
+        <v>19.73398109531866</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34.60098017668413</v>
+        <v>41.38439867490747</v>
       </c>
       <c r="AR8" t="n">
-        <v>46.70805919463658</v>
+        <v>22.74911409986351</v>
       </c>
       <c r="AS8" t="n">
-        <v>23.31943588241873</v>
+        <v>25.31509127618274</v>
       </c>
       <c r="AT8" t="n">
-        <v>12.31594154535442</v>
+        <v>28.89360302472022</v>
       </c>
       <c r="AU8" t="n">
-        <v>14.04822978898223</v>
+        <v>25.16300826541776</v>
       </c>
       <c r="AV8" t="n">
-        <v>33.29988920555645</v>
+        <v>24.20922854796194</v>
       </c>
       <c r="AW8" t="n">
-        <v>22.75653010582943</v>
+        <v>12.10361770416654</v>
       </c>
       <c r="AX8" t="n">
-        <v>24.13027902077614</v>
+        <v>16.78764852208453</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1.908672467995067</v>
+        <v>1.426883653999394</v>
       </c>
       <c r="D9" t="n">
-        <v>2.277808178658582</v>
+        <v>0.1729919616990666</v>
       </c>
       <c r="E9" t="n">
-        <v>3.196709426942772</v>
+        <v>7.445064085873563</v>
       </c>
       <c r="F9" t="n">
-        <v>2.784423779475257</v>
+        <v>2.442215697507491</v>
       </c>
       <c r="G9" t="n">
-        <v>2.610729809404809</v>
+        <v>0.2959510126956598</v>
       </c>
       <c r="H9" t="n">
-        <v>2.122784673765063</v>
+        <v>1.917491321174455</v>
       </c>
       <c r="I9" t="n">
-        <v>1.2550671</v>
+        <v>7.456919536673901</v>
       </c>
       <c r="J9" t="n">
-        <v>1.686473318896088</v>
+        <v>4.970071155671532</v>
       </c>
       <c r="K9" t="n">
-        <v>4.16795297598502</v>
+        <v>2.366498812550313</v>
       </c>
       <c r="L9" t="n">
-        <v>3.560305767226336</v>
+        <v>0.7865304952925991</v>
       </c>
       <c r="M9" t="n">
-        <v>2.42670153701044</v>
+        <v>2.518906944786511</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8377030179748005</v>
+        <v>1.808564267348102</v>
       </c>
       <c r="O9" t="n">
-        <v>2.222146860517386</v>
+        <v>3.63830140003002</v>
       </c>
       <c r="P9" t="n">
-        <v>2.002985312412433</v>
+        <v>2.151851923622981</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.795492299263314</v>
+        <v>1.679568061652075</v>
       </c>
       <c r="R9" t="n">
-        <v>2.803591633462394</v>
+        <v>8.577357441447782</v>
       </c>
       <c r="S9" t="n">
-        <v>3.981893323074929</v>
+        <v>1.305630338573798</v>
       </c>
       <c r="T9" t="n">
-        <v>5.340502139790622</v>
+        <v>3.978869367358211</v>
       </c>
       <c r="U9" t="n">
-        <v>2.4371401761308</v>
+        <v>3.234141864776619</v>
       </c>
       <c r="V9" t="n">
-        <v>4.095267389341782</v>
+        <v>5.642972678032157</v>
       </c>
       <c r="W9" t="n">
-        <v>0.6325828619780076</v>
+        <v>2.695413173371541</v>
       </c>
       <c r="X9" t="n">
-        <v>11.70204539462708</v>
+        <v>2.252290962108283</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.510720921677987</v>
+        <v>2.076632732656369</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.037704140181513</v>
+        <v>4.954994868572609</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.248678807377951</v>
+        <v>2.945343545544209</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.8115541728799169</v>
+        <v>5.538394359394278</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.361887822816668</v>
+        <v>4.120570422988087</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.421460049509284</v>
+        <v>5.526414650270914</v>
       </c>
       <c r="AE9" t="n">
-        <v>3.089648751917565</v>
+        <v>9.930108429069477</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.693562432365149</v>
+        <v>10.88192943402612</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.592494734826728</v>
+        <v>7.657048643681028</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.725337238701284</v>
+        <v>5.564157336648572</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.60086619398554</v>
+        <v>4.348141249029175</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6.258060395089825</v>
+        <v>3.525159733592774</v>
       </c>
       <c r="AK9" t="n">
-        <v>4.357497532314923</v>
+        <v>13.02173847981604</v>
       </c>
       <c r="AL9" t="n">
-        <v>8.651962202091307</v>
+        <v>4.613542517624958</v>
       </c>
       <c r="AM9" t="n">
-        <v>4.316918227285791</v>
+        <v>3.527494698804884</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.957719135059344</v>
+        <v>3.754600204076331</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.945679266694023</v>
+        <v>8.567593868887677</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.913387634867585</v>
+        <v>3.684055912488396</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.987106816220859</v>
+        <v>6.016408299591457</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.3585106741450477</v>
+        <v>11.58309879883566</v>
       </c>
       <c r="AS9" t="n">
-        <v>3.453164626204733</v>
+        <v>0.7863879208066361</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.044673442484062</v>
+        <v>1.126212740141989</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.840293833444866</v>
+        <v>0.9467623745459872</v>
       </c>
       <c r="AV9" t="n">
-        <v>7.673480552216148</v>
+        <v>1.969054896947509</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.305533136318156</v>
+        <v>18.40416318923705</v>
       </c>
       <c r="AX9" t="n">
-        <v>5.902605357503042</v>
+        <v>7.745631579571608</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>8.962234623524422</v>
+        <v>8.79135940239896</v>
       </c>
       <c r="D10" t="n">
-        <v>10.05228974600188</v>
+        <v>24.71009672261621</v>
       </c>
       <c r="E10" t="n">
-        <v>15.02356495468278</v>
+        <v>8.537212443453976</v>
       </c>
       <c r="F10" t="n">
-        <v>16.21276833095887</v>
+        <v>3.794329270505618</v>
       </c>
       <c r="G10" t="n">
-        <v>8.51155897931352</v>
+        <v>13.97717673710082</v>
       </c>
       <c r="H10" t="n">
-        <v>12.25062645121226</v>
+        <v>9.828014626298913</v>
       </c>
       <c r="I10" t="n">
-        <v>19.99656311838017</v>
+        <v>178.8573313200973</v>
       </c>
       <c r="J10" t="n">
-        <v>5.345724893109002</v>
+        <v>16.82245487873107</v>
       </c>
       <c r="K10" t="n">
-        <v>9.286477290837878</v>
+        <v>9.213295181054924</v>
       </c>
       <c r="L10" t="n">
-        <v>37.95025265744143</v>
+        <v>32.76339477860824</v>
       </c>
       <c r="M10" t="n">
-        <v>128.975887162898</v>
+        <v>42.48505229825732</v>
       </c>
       <c r="N10" t="n">
-        <v>148.9968931950922</v>
+        <v>46.59109349463527</v>
       </c>
       <c r="O10" t="n">
-        <v>64.96215748449954</v>
+        <v>34.8515955793636</v>
       </c>
       <c r="P10" t="n">
-        <v>30.55504128387329</v>
+        <v>66.09047564565269</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.76694237614566</v>
+        <v>25.42804293586939</v>
       </c>
       <c r="R10" t="n">
-        <v>31.27500548553673</v>
+        <v>146.0111327396379</v>
       </c>
       <c r="S10" t="n">
-        <v>136.2677297204157</v>
+        <v>32.54966079522036</v>
       </c>
       <c r="T10" t="n">
-        <v>80.39058902829692</v>
+        <v>37.0034762390502</v>
       </c>
       <c r="U10" t="n">
-        <v>71.61616568355386</v>
+        <v>34.68147412382239</v>
       </c>
       <c r="V10" t="n">
-        <v>63.87329496478269</v>
+        <v>103.1882682781911</v>
       </c>
       <c r="W10" t="n">
-        <v>53.25546438087166</v>
+        <v>71.02165385225102</v>
       </c>
       <c r="X10" t="n">
-        <v>90.20306729120037</v>
+        <v>69.28991204575571</v>
       </c>
       <c r="Y10" t="n">
-        <v>60.0297710631873</v>
+        <v>56.25806344902291</v>
       </c>
       <c r="Z10" t="n">
-        <v>95.29570272836875</v>
+        <v>70.33104219449133</v>
       </c>
       <c r="AA10" t="n">
-        <v>89.18669661912294</v>
+        <v>93.90349587174583</v>
       </c>
       <c r="AB10" t="n">
-        <v>30.61220347387765</v>
+        <v>62.53386488279374</v>
       </c>
       <c r="AC10" t="n">
-        <v>88.12481322329062</v>
+        <v>108.1163123020094</v>
       </c>
       <c r="AD10" t="n">
-        <v>102.7430947439737</v>
+        <v>61.46755919477607</v>
       </c>
       <c r="AE10" t="n">
-        <v>90.90050359119472</v>
+        <v>61.90731096573012</v>
       </c>
       <c r="AF10" t="n">
-        <v>103.3424546179679</v>
+        <v>75.63658516487838</v>
       </c>
       <c r="AG10" t="n">
-        <v>121.2612772099953</v>
+        <v>34.24111663307539</v>
       </c>
       <c r="AH10" t="n">
-        <v>73.46945326868416</v>
+        <v>38.86134937327281</v>
       </c>
       <c r="AI10" t="n">
-        <v>49.75596187842263</v>
+        <v>45.25016993928296</v>
       </c>
       <c r="AJ10" t="n">
-        <v>106.5663717705349</v>
+        <v>113.2880358789104</v>
       </c>
       <c r="AK10" t="n">
-        <v>35.9861284256046</v>
+        <v>65.43117604703185</v>
       </c>
       <c r="AL10" t="n">
-        <v>19.66559603816505</v>
+        <v>16.93165000073589</v>
       </c>
       <c r="AM10" t="n">
-        <v>12.00409238877693</v>
+        <v>19.45043544962083</v>
       </c>
       <c r="AN10" t="n">
-        <v>29.45569875572584</v>
+        <v>14.91088150135362</v>
       </c>
       <c r="AO10" t="n">
-        <v>22.4181344349639</v>
+        <v>22.42776773264336</v>
       </c>
       <c r="AP10" t="n">
-        <v>40.11521362249204</v>
+        <v>27.65394403849708</v>
       </c>
       <c r="AQ10" t="n">
-        <v>8.958310751465014</v>
+        <v>17.83916297733883</v>
       </c>
       <c r="AR10" t="n">
-        <v>14.69873277513656</v>
+        <v>11.5143673361525</v>
       </c>
       <c r="AS10" t="n">
-        <v>7.666169492055223</v>
+        <v>10.87618041262822</v>
       </c>
       <c r="AT10" t="n">
-        <v>10.82885958145083</v>
+        <v>5.843373291473218</v>
       </c>
       <c r="AU10" t="n">
-        <v>11.48235804897904</v>
+        <v>8.007216601095491</v>
       </c>
       <c r="AV10" t="n">
-        <v>9.915202697445212</v>
+        <v>14.66046574693989</v>
       </c>
       <c r="AW10" t="n">
-        <v>16.85167410661001</v>
+        <v>6.285866734305642</v>
       </c>
       <c r="AX10" t="n">
-        <v>10.43551650627741</v>
+        <v>7.577689374350406</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>17.65650647501912</v>
+        <v>16.09690774549518</v>
       </c>
       <c r="D11" t="n">
-        <v>4.058329066204506</v>
+        <v>11.66988221352232</v>
       </c>
       <c r="E11" t="n">
-        <v>25.50517309457621</v>
+        <v>18.29664131814098</v>
       </c>
       <c r="F11" t="n">
-        <v>20.59425436542036</v>
+        <v>8.549417699110782</v>
       </c>
       <c r="G11" t="n">
-        <v>15.48374008291824</v>
+        <v>26.03413045786996</v>
       </c>
       <c r="H11" t="n">
-        <v>8.898209636346778</v>
+        <v>6.153913334316481</v>
       </c>
       <c r="I11" t="n">
-        <v>1.771618590802674</v>
+        <v>23.77468132113577</v>
       </c>
       <c r="J11" t="n">
-        <v>5.035823420275513</v>
+        <v>54.48244351500026</v>
       </c>
       <c r="K11" t="n">
-        <v>41.96177777478711</v>
+        <v>6.466653149687438</v>
       </c>
       <c r="L11" t="n">
-        <v>11.21725484169834</v>
+        <v>18.55043223775129</v>
       </c>
       <c r="M11" t="n">
-        <v>72.93402465630666</v>
+        <v>15.33754398329711</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>12.41522428741391</v>
       </c>
       <c r="O11" t="n">
-        <v>40.70346582187867</v>
+        <v>137.0713958312553</v>
       </c>
       <c r="P11" t="n">
-        <v>94.76224579056915</v>
+        <v>115.3290722334606</v>
       </c>
       <c r="Q11" t="n">
-        <v>32.895911485553</v>
+        <v>61.90965010921922</v>
       </c>
       <c r="R11" t="n">
-        <v>45.85747734586704</v>
+        <v>111.4885450490309</v>
       </c>
       <c r="S11" t="n">
-        <v>42.58231748952456</v>
+        <v>87.31013184197315</v>
       </c>
       <c r="T11" t="n">
-        <v>96.2550399628616</v>
+        <v>21.84590638985156</v>
       </c>
       <c r="U11" t="n">
-        <v>49.32033082966727</v>
+        <v>44.22443253684057</v>
       </c>
       <c r="V11" t="n">
-        <v>32.7198425881347</v>
+        <v>48.02079976721065</v>
       </c>
       <c r="W11" t="n">
-        <v>62.28300528513677</v>
+        <v>72.03930499429173</v>
       </c>
       <c r="X11" t="n">
-        <v>48.19110315567472</v>
+        <v>57.50479063124445</v>
       </c>
       <c r="Y11" t="n">
-        <v>62.55156583414705</v>
+        <v>156.1992417859987</v>
       </c>
       <c r="Z11" t="n">
-        <v>54.96737873450824</v>
+        <v>54.12642093446097</v>
       </c>
       <c r="AA11" t="n">
-        <v>38.95861002502858</v>
+        <v>114.128686335447</v>
       </c>
       <c r="AB11" t="n">
-        <v>38.07450981313326</v>
+        <v>31.32671454408944</v>
       </c>
       <c r="AC11" t="n">
-        <v>15.91930724319063</v>
+        <v>29.03035956081719</v>
       </c>
       <c r="AD11" t="n">
-        <v>31.55831726427789</v>
+        <v>33.25504007940467</v>
       </c>
       <c r="AE11" t="n">
-        <v>25.05751374615262</v>
+        <v>54.21183250664804</v>
       </c>
       <c r="AF11" t="n">
-        <v>31.17787376480987</v>
+        <v>7.605078029506043</v>
       </c>
       <c r="AG11" t="n">
-        <v>151.2808920479104</v>
+        <v>2.272467635004648</v>
       </c>
       <c r="AH11" t="n">
-        <v>47.0267164142011</v>
+        <v>16.07878270063163</v>
       </c>
       <c r="AI11" t="n">
-        <v>49.25251895713464</v>
+        <v>36.61922224429033</v>
       </c>
       <c r="AJ11" t="n">
-        <v>27.06924484648725</v>
+        <v>11.24027271989635</v>
       </c>
       <c r="AK11" t="n">
-        <v>23.30133720322988</v>
+        <v>24.45984866064887</v>
       </c>
       <c r="AL11" t="n">
-        <v>6.529557015816024</v>
+        <v>7.557226154802012</v>
       </c>
       <c r="AM11" t="n">
-        <v>30.73603143355355</v>
+        <v>47.95969827833181</v>
       </c>
       <c r="AN11" t="n">
-        <v>36.03325960302521</v>
+        <v>41.16958044985047</v>
       </c>
       <c r="AO11" t="n">
-        <v>19.06931234815834</v>
+        <v>21.71166393204015</v>
       </c>
       <c r="AP11" t="n">
-        <v>25.40310722204933</v>
+        <v>31.02974906706778</v>
       </c>
       <c r="AQ11" t="n">
-        <v>11.51635771853552</v>
+        <v>20.01336714376924</v>
       </c>
       <c r="AR11" t="n">
-        <v>25.57839118235256</v>
+        <v>10.99916194131533</v>
       </c>
       <c r="AS11" t="n">
-        <v>33.88927039679292</v>
+        <v>12.08913938498348</v>
       </c>
       <c r="AT11" t="n">
-        <v>38.19525615091091</v>
+        <v>21.54936564535543</v>
       </c>
       <c r="AU11" t="n">
-        <v>21.72365712350662</v>
+        <v>12.19407737346541</v>
       </c>
       <c r="AV11" t="n">
-        <v>20.05107681968755</v>
+        <v>31.62113824717797</v>
       </c>
       <c r="AW11" t="n">
-        <v>25.63669668176845</v>
+        <v>28.43528066152135</v>
       </c>
       <c r="AX11" t="n">
-        <v>35.6687444436244</v>
+        <v>29.75152595322205</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>1.082443919096401</v>
+        <v>1.794015271246242</v>
       </c>
       <c r="D12" t="n">
-        <v>3.115363947923913</v>
+        <v>9.483221597174518</v>
       </c>
       <c r="E12" t="n">
-        <v>13.46509161115177</v>
+        <v>5.46454038326243</v>
       </c>
       <c r="F12" t="n">
-        <v>5.647418691700723</v>
+        <v>3.483042112747722</v>
       </c>
       <c r="G12" t="n">
-        <v>3.867942394903895</v>
+        <v>3.317589629364531</v>
       </c>
       <c r="H12" t="n">
-        <v>5.207188607747274</v>
+        <v>7.991594508367231</v>
       </c>
       <c r="I12" t="n">
-        <v>4.484030722865136</v>
+        <v>5.537831746019894</v>
       </c>
       <c r="J12" t="n">
-        <v>8.607431564584648</v>
+        <v>3.293343375213641</v>
       </c>
       <c r="K12" t="n">
-        <v>99.5614862916007</v>
+        <v>35.53356229999277</v>
       </c>
       <c r="L12" t="n">
-        <v>41.76097285881832</v>
+        <v>4.057066144265607</v>
       </c>
       <c r="M12" t="n">
-        <v>29.03455920372761</v>
+        <v>20.05166966353908</v>
       </c>
       <c r="N12" t="n">
-        <v>37.96550836342577</v>
+        <v>23.27475560605532</v>
       </c>
       <c r="O12" t="n">
-        <v>32.78761539245821</v>
+        <v>10.28697336285826</v>
       </c>
       <c r="P12" t="n">
-        <v>15.74915511617208</v>
+        <v>72.54833699414372</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.41098077763666</v>
+        <v>68.71184660642365</v>
       </c>
       <c r="R12" t="n">
-        <v>8.708848229633226</v>
+        <v>19.48753395295675</v>
       </c>
       <c r="S12" t="n">
-        <v>19.59891382406418</v>
+        <v>7.564716286335553</v>
       </c>
       <c r="T12" t="n">
-        <v>25.15</v>
+        <v>19.66374775390779</v>
       </c>
       <c r="U12" t="n">
-        <v>24.08838848026523</v>
+        <v>19.92821668099387</v>
       </c>
       <c r="V12" t="n">
-        <v>20.08201499669902</v>
+        <v>28.03194375671125</v>
       </c>
       <c r="W12" t="n">
-        <v>28.61731230748422</v>
+        <v>10.52559402470516</v>
       </c>
       <c r="X12" t="n">
-        <v>22.62755517478644</v>
+        <v>16.56328585475012</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.7849344</v>
+        <v>16.65554513689722</v>
       </c>
       <c r="Z12" t="n">
-        <v>27.43647571955113</v>
+        <v>18.09954499268058</v>
       </c>
       <c r="AA12" t="n">
-        <v>19.42680185361694</v>
+        <v>10.37928524962936</v>
       </c>
       <c r="AB12" t="n">
-        <v>20.35067582898453</v>
+        <v>13.13703472555523</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.73395167219</v>
+        <v>25.72285712442103</v>
       </c>
       <c r="AD12" t="n">
-        <v>16.61560969595133</v>
+        <v>23.04547671172904</v>
       </c>
       <c r="AE12" t="n">
-        <v>17.57086188816144</v>
+        <v>21.813107707389</v>
       </c>
       <c r="AF12" t="n">
-        <v>16.50785716996587</v>
+        <v>10.89763965056044</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.66843817135731</v>
+        <v>25.77708200300186</v>
       </c>
       <c r="AH12" t="n">
-        <v>10.26502066011358</v>
+        <v>18.16623236210519</v>
       </c>
       <c r="AI12" t="n">
-        <v>25.9149638447142</v>
+        <v>7.031111319301682</v>
       </c>
       <c r="AJ12" t="n">
-        <v>14.07384259976392</v>
+        <v>7.332917603514486</v>
       </c>
       <c r="AK12" t="n">
-        <v>7.785383323664144</v>
+        <v>13.42102936856773</v>
       </c>
       <c r="AL12" t="n">
-        <v>6.053755681854426</v>
+        <v>18.21335658063378</v>
       </c>
       <c r="AM12" t="n">
-        <v>3.758432983989056</v>
+        <v>8.365660614245877</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.241588716090297</v>
+        <v>6.866631858481559</v>
       </c>
       <c r="AO12" t="n">
-        <v>6.488644734478833</v>
+        <v>8.721793398672437</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.546132679305098</v>
+        <v>3.238346309061193</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.255757756938995</v>
+        <v>1.773477243281645</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.701183463556872</v>
+        <v>4.084538115766807</v>
       </c>
       <c r="AS12" t="n">
-        <v>4.77214997887699</v>
+        <v>1.227454338263101</v>
       </c>
       <c r="AT12" t="n">
-        <v>7.168750000000001</v>
+        <v>3.715412757024318</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.632037482864749</v>
+        <v>0.6456504590063533</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.184709310450894</v>
+        <v>0.5300740924408222</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.44986175645887</v>
+        <v>4.781935582688776</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.108835947620231</v>
+        <v>2.726652553620166</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>21.38</v>
+        <v>13.00227789920554</v>
       </c>
       <c r="D13" t="n">
-        <v>3.94</v>
+        <v>1.862150190482535</v>
       </c>
       <c r="E13" t="n">
-        <v>15.1</v>
+        <v>15.86877194618341</v>
       </c>
       <c r="F13" t="n">
-        <v>5.91</v>
+        <v>8.274038109911872</v>
       </c>
       <c r="G13" t="n">
-        <v>38.08</v>
+        <v>48.90324610008543</v>
       </c>
       <c r="H13" t="n">
-        <v>8.949999999999999</v>
+        <v>2.397365699605853</v>
       </c>
       <c r="I13" t="n">
-        <v>7.9</v>
+        <v>9.622347741034337</v>
       </c>
       <c r="J13" t="n">
-        <v>4.56401845</v>
+        <v>5.321422682064012</v>
       </c>
       <c r="K13" t="n">
-        <v>50.3</v>
+        <v>5.629461730790768</v>
       </c>
       <c r="L13" t="n">
-        <v>71.67</v>
+        <v>266.8855107975668</v>
       </c>
       <c r="M13" t="n">
-        <v>52.6</v>
+        <v>50.36162416913874</v>
       </c>
       <c r="N13" t="n">
-        <v>25.68</v>
+        <v>51.54518178342882</v>
       </c>
       <c r="O13" t="n">
-        <v>5.42</v>
+        <v>29.31039335536181</v>
       </c>
       <c r="P13" t="n">
-        <v>35.58</v>
+        <v>151.066308503619</v>
       </c>
       <c r="Q13" t="n">
-        <v>36.95</v>
+        <v>51.99922939340885</v>
       </c>
       <c r="R13" t="n">
-        <v>42.87</v>
+        <v>17.70286002563482</v>
       </c>
       <c r="S13" t="n">
-        <v>39.03</v>
+        <v>43.78579260242862</v>
       </c>
       <c r="T13" t="n">
-        <v>30.65</v>
+        <v>1.819811557129989</v>
       </c>
       <c r="U13" t="n">
-        <v>33.65</v>
+        <v>30.89391386386317</v>
       </c>
       <c r="V13" t="n">
-        <v>25.16</v>
+        <v>30.16161656367403</v>
       </c>
       <c r="W13" t="n">
-        <v>9.33</v>
+        <v>19.26738056401778</v>
       </c>
       <c r="X13" t="n">
-        <v>6</v>
+        <v>5.313234654641072</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.4</v>
+        <v>68.98932295928539</v>
       </c>
       <c r="Z13" t="n">
-        <v>13.22</v>
+        <v>8.284858527894627</v>
       </c>
       <c r="AA13" t="n">
-        <v>10.05</v>
+        <v>6.163724119632517</v>
       </c>
       <c r="AB13" t="n">
-        <v>27.52</v>
+        <v>1.734935412094279</v>
       </c>
       <c r="AC13" t="n">
-        <v>15.26</v>
+        <v>12.35298157603688</v>
       </c>
       <c r="AD13" t="n">
-        <v>15.68</v>
+        <v>9.802604434955626</v>
       </c>
       <c r="AE13" t="n">
-        <v>9.91</v>
+        <v>13.2413400259279</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.17</v>
+        <v>4.507143407608696</v>
       </c>
       <c r="AG13" t="n">
-        <v>29.03</v>
+        <v>7.016801406271824</v>
       </c>
       <c r="AH13" t="n">
-        <v>21.64</v>
+        <v>31.46004118235862</v>
       </c>
       <c r="AI13" t="n">
-        <v>8.92</v>
+        <v>36.26367048821821</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1</v>
+        <v>14.53291899861342</v>
       </c>
       <c r="AK13" t="n">
-        <v>10.68</v>
+        <v>12.38331200243046</v>
       </c>
       <c r="AL13" t="n">
-        <v>5.03854451244752</v>
+        <v>1.451106990643263</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.0160611158344297</v>
+        <v>8.99286836568465</v>
       </c>
       <c r="AN13" t="n">
-        <v>11.98</v>
+        <v>0.4829299635377955</v>
       </c>
       <c r="AO13" t="n">
-        <v>23.87</v>
+        <v>1.117322635676557</v>
       </c>
       <c r="AP13" t="n">
-        <v>12.13</v>
+        <v>3.23849414491495</v>
       </c>
       <c r="AQ13" t="n">
-        <v>3.800807127382043</v>
+        <v>1.319868544266013</v>
       </c>
       <c r="AR13" t="n">
-        <v>13.45</v>
+        <v>1.475192208925669</v>
       </c>
       <c r="AS13" t="n">
-        <v>5.67</v>
+        <v>2.84588684172116</v>
       </c>
       <c r="AT13" t="n">
-        <v>14.22</v>
+        <v>2.976793714110614</v>
       </c>
       <c r="AU13" t="n">
-        <v>28.04</v>
+        <v>4.543792323454318</v>
       </c>
       <c r="AV13" t="n">
-        <v>12.94</v>
+        <v>4.215140211697164</v>
       </c>
       <c r="AW13" t="n">
-        <v>3.7678963695</v>
+        <v>5.047762275586278</v>
       </c>
       <c r="AX13" t="n">
-        <v>5.62</v>
+        <v>16.86189357438695</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>42.49358475097094</v>
+        <v>26.7310556843136</v>
       </c>
       <c r="D14" t="n">
-        <v>13.14017105115382</v>
+        <v>11.97726809782081</v>
       </c>
       <c r="E14" t="n">
-        <v>22.17052527979346</v>
+        <v>29.6857587749232</v>
       </c>
       <c r="F14" t="n">
-        <v>22.83318846828866</v>
+        <v>11.49552933541543</v>
       </c>
       <c r="G14" t="n">
-        <v>23.95119224745672</v>
+        <v>8.430234830363162</v>
       </c>
       <c r="H14" t="n">
-        <v>40.29537165264484</v>
+        <v>22.5517656096329</v>
       </c>
       <c r="I14" t="n">
-        <v>38.55307059960403</v>
+        <v>15.36346932042618</v>
       </c>
       <c r="J14" t="n">
-        <v>21.11629254885083</v>
+        <v>44.8624018082898</v>
       </c>
       <c r="K14" t="n">
-        <v>92.88978610297818</v>
+        <v>14.62197804981174</v>
       </c>
       <c r="L14" t="n">
-        <v>16.74194863974772</v>
+        <v>48.34933835571866</v>
       </c>
       <c r="M14" t="n">
-        <v>81.23687853423823</v>
+        <v>183.4036362890986</v>
       </c>
       <c r="N14" t="n">
-        <v>86.95930226422213</v>
+        <v>58.10467984057075</v>
       </c>
       <c r="O14" t="n">
-        <v>41.45606441404721</v>
+        <v>130.9366652302751</v>
       </c>
       <c r="P14" t="n">
-        <v>27.68206023708496</v>
+        <v>29.04834556912012</v>
       </c>
       <c r="Q14" t="n">
-        <v>16.75729080657886</v>
+        <v>65.09755068347074</v>
       </c>
       <c r="R14" t="n">
-        <v>87.33417500000002</v>
+        <v>56.70347203042666</v>
       </c>
       <c r="S14" t="n">
-        <v>105.459165393366</v>
+        <v>53.28267867745475</v>
       </c>
       <c r="T14" t="n">
-        <v>53.01520166594021</v>
+        <v>29.63231294494786</v>
       </c>
       <c r="U14" t="n">
-        <v>37.51249652336152</v>
+        <v>24.64258286239628</v>
       </c>
       <c r="V14" t="n">
-        <v>85.24654060018611</v>
+        <v>18.05648877097507</v>
       </c>
       <c r="W14" t="n">
-        <v>83.28402667429481</v>
+        <v>29.60667032423315</v>
       </c>
       <c r="X14" t="n">
-        <v>47.08637707365472</v>
+        <v>97.80313765463561</v>
       </c>
       <c r="Y14" t="n">
-        <v>65.16439786699667</v>
+        <v>44.59790382450734</v>
       </c>
       <c r="Z14" t="n">
-        <v>86.60200739041197</v>
+        <v>89.5090363459238</v>
       </c>
       <c r="AA14" t="n">
-        <v>59.25656263098293</v>
+        <v>128.8933125839951</v>
       </c>
       <c r="AB14" t="n">
-        <v>95.18219262043954</v>
+        <v>61.8451730669684</v>
       </c>
       <c r="AC14" t="n">
-        <v>37.23088204058305</v>
+        <v>118.7001509061312</v>
       </c>
       <c r="AD14" t="n">
-        <v>157.6690799892696</v>
+        <v>93.98024167470533</v>
       </c>
       <c r="AE14" t="n">
-        <v>109.2315067083792</v>
+        <v>60.90669033180102</v>
       </c>
       <c r="AF14" t="n">
-        <v>162.940680287298</v>
+        <v>158.0668094050122</v>
       </c>
       <c r="AG14" t="n">
-        <v>88.02947591092513</v>
+        <v>142.2262659619321</v>
       </c>
       <c r="AH14" t="n">
-        <v>126.9092965771763</v>
+        <v>66.91127644956431</v>
       </c>
       <c r="AI14" t="n">
-        <v>124.4404020507143</v>
+        <v>94.57558515012687</v>
       </c>
       <c r="AJ14" t="n">
-        <v>75.25727115816166</v>
+        <v>336.0018706302922</v>
       </c>
       <c r="AK14" t="n">
-        <v>20.18177154384193</v>
+        <v>164.6792477947097</v>
       </c>
       <c r="AL14" t="n">
-        <v>34.3436195421568</v>
+        <v>58.22449090756221</v>
       </c>
       <c r="AM14" t="n">
-        <v>114.1025250696837</v>
+        <v>39.82615608639693</v>
       </c>
       <c r="AN14" t="n">
-        <v>27.58169913170945</v>
+        <v>49.97623761793449</v>
       </c>
       <c r="AO14" t="n">
-        <v>36.10144832867049</v>
+        <v>23.70456175846159</v>
       </c>
       <c r="AP14" t="n">
-        <v>13.34757933191822</v>
+        <v>20.23262093225366</v>
       </c>
       <c r="AQ14" t="n">
-        <v>38.83110209378101</v>
+        <v>19.52804594405876</v>
       </c>
       <c r="AR14" t="n">
-        <v>20.05939440913047</v>
+        <v>21.1069351393298</v>
       </c>
       <c r="AS14" t="n">
-        <v>28.57076175538902</v>
+        <v>33.74259916233113</v>
       </c>
       <c r="AT14" t="n">
-        <v>11.52372903125319</v>
+        <v>15.08120939596281</v>
       </c>
       <c r="AU14" t="n">
-        <v>26.86352680802891</v>
+        <v>24.7077841605495</v>
       </c>
       <c r="AV14" t="n">
-        <v>20.47296686505233</v>
+        <v>26.24567805587309</v>
       </c>
       <c r="AW14" t="n">
-        <v>8.135643619621348</v>
+        <v>13.81817729039642</v>
       </c>
       <c r="AX14" t="n">
-        <v>14.72116627582883</v>
+        <v>21.14989504325512</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>4.975453752123096</v>
+        <v>9.576834468590302</v>
       </c>
       <c r="D15" t="n">
-        <v>1.757479315854892</v>
+        <v>2.390090506255477</v>
       </c>
       <c r="E15" t="n">
-        <v>5.143777497036566</v>
+        <v>3.992263742444594</v>
       </c>
       <c r="F15" t="n">
-        <v>2.503405456255879</v>
+        <v>3.766263066265213</v>
       </c>
       <c r="G15" t="n">
-        <v>2.807858807898236</v>
+        <v>9.878578546713035</v>
       </c>
       <c r="H15" t="n">
-        <v>4.179326950831359</v>
+        <v>25.1388831565999</v>
       </c>
       <c r="I15" t="n">
-        <v>3.527272973027769</v>
+        <v>0.7919662454278791</v>
       </c>
       <c r="J15" t="n">
-        <v>3.727589908115163</v>
+        <v>1.983109233868324</v>
       </c>
       <c r="K15" t="n">
-        <v>1.141203675079449</v>
+        <v>6.244542511837695</v>
       </c>
       <c r="L15" t="n">
-        <v>2.424444583428885</v>
+        <v>0.830030418071483</v>
       </c>
       <c r="M15" t="n">
-        <v>2.217338090473975</v>
+        <v>3.851872789820462</v>
       </c>
       <c r="N15" t="n">
-        <v>4.2172976247561</v>
+        <v>4.808584498010403</v>
       </c>
       <c r="O15" t="n">
-        <v>1.20127698388568</v>
+        <v>7.51710657750171</v>
       </c>
       <c r="P15" t="n">
-        <v>1.913272468318857</v>
+        <v>2.386699485907608</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.046320602952589</v>
+        <v>8.151754094588101</v>
       </c>
       <c r="R15" t="n">
-        <v>6.80461334218387</v>
+        <v>6.435925725119871</v>
       </c>
       <c r="S15" t="n">
-        <v>1.831300130572654</v>
+        <v>5.506651378116708</v>
       </c>
       <c r="T15" t="n">
-        <v>2.178160790897221</v>
+        <v>2.338077424863573</v>
       </c>
       <c r="U15" t="n">
-        <v>6.89963785674308</v>
+        <v>5.740356436537884</v>
       </c>
       <c r="V15" t="n">
-        <v>2.0156973557437</v>
+        <v>9.102093992748481</v>
       </c>
       <c r="W15" t="n">
-        <v>2.146275797458683</v>
+        <v>6.002228820294636</v>
       </c>
       <c r="X15" t="n">
-        <v>5.003720113911822</v>
+        <v>1.893577795717341</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.202146141228375</v>
+        <v>2.948818855675877</v>
       </c>
       <c r="Z15" t="n">
-        <v>8.566495755011996</v>
+        <v>5.335602865773612</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.95385995113223</v>
+        <v>4.916810966375299</v>
       </c>
       <c r="AB15" t="n">
-        <v>3.160752271150484</v>
+        <v>4.495949160533566</v>
       </c>
       <c r="AC15" t="n">
-        <v>3.908150599977432</v>
+        <v>3.692291968643108</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.014745213088819</v>
+        <v>8.731735718682875</v>
       </c>
       <c r="AE15" t="n">
-        <v>6.271242272838951</v>
+        <v>4.047083710210627</v>
       </c>
       <c r="AF15" t="n">
-        <v>7.841932000000001</v>
+        <v>5.458091563106035</v>
       </c>
       <c r="AG15" t="n">
-        <v>6.688373935378671</v>
+        <v>6.491228345586721</v>
       </c>
       <c r="AH15" t="n">
-        <v>5.911071764586663</v>
+        <v>7.221192025524769</v>
       </c>
       <c r="AI15" t="n">
-        <v>5.935671556519542</v>
+        <v>8.201296084790975</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3.536621184414146</v>
+        <v>6.021374803111018</v>
       </c>
       <c r="AK15" t="n">
-        <v>5.087920249347619</v>
+        <v>4.121258869204305</v>
       </c>
       <c r="AL15" t="n">
-        <v>5.250377854812492</v>
+        <v>4.717757012871103</v>
       </c>
       <c r="AM15" t="n">
-        <v>5.732520468106727</v>
+        <v>8.583860268851296</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.628943937418514</v>
+        <v>13.59509509100093</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.081283902083381</v>
+        <v>1.965689406133614</v>
       </c>
       <c r="AP15" t="n">
-        <v>5.86237337183211</v>
+        <v>5.031685097872702</v>
       </c>
       <c r="AQ15" t="n">
-        <v>9.76821139290931</v>
+        <v>8.705283533227</v>
       </c>
       <c r="AR15" t="n">
-        <v>4.031920553289591</v>
+        <v>4.920712539670901</v>
       </c>
       <c r="AS15" t="n">
-        <v>3.671572973931548</v>
+        <v>4.206528354242444</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.770367945634574</v>
+        <v>3.324414716879691</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.922720148227538</v>
+        <v>2.403725109759548</v>
       </c>
       <c r="AV15" t="n">
-        <v>1.918578097906563</v>
+        <v>14.7699000148235</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.982359087714822</v>
+        <v>2.689334863286747</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.4177838334886745</v>
+        <v>5.473752985862717</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>8.536674470372045</v>
+        <v>6.144682905292255</v>
       </c>
       <c r="D16" t="n">
-        <v>6.840911607683102</v>
+        <v>6.304802499293926</v>
       </c>
       <c r="E16" t="n">
-        <v>2.673565441631788</v>
+        <v>15.7054831679016</v>
       </c>
       <c r="F16" t="n">
-        <v>25.78641465856683</v>
+        <v>16.19791902737941</v>
       </c>
       <c r="G16" t="n">
-        <v>12.20914833984024</v>
+        <v>9.70495244833092</v>
       </c>
       <c r="H16" t="n">
-        <v>6.972874488656364</v>
+        <v>7.523092449370612</v>
       </c>
       <c r="I16" t="n">
-        <v>20.52151958065353</v>
+        <v>4.556247707723436</v>
       </c>
       <c r="J16" t="n">
-        <v>22.16810969151253</v>
+        <v>37.06990530742642</v>
       </c>
       <c r="K16" t="n">
-        <v>23.30063484281089</v>
+        <v>31.63030223468507</v>
       </c>
       <c r="L16" t="n">
-        <v>17.45032016197937</v>
+        <v>42.40906875231212</v>
       </c>
       <c r="M16" t="n">
-        <v>27.42877717305158</v>
+        <v>31.84849176711392</v>
       </c>
       <c r="N16" t="n">
-        <v>60.30807091255976</v>
+        <v>53.15085633242674</v>
       </c>
       <c r="O16" t="n">
-        <v>57.35844931469601</v>
+        <v>79.15106375423268</v>
       </c>
       <c r="P16" t="n">
-        <v>81.45337407014348</v>
+        <v>56.62942379433157</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.76201395183914</v>
+        <v>40.09964914282762</v>
       </c>
       <c r="R16" t="n">
-        <v>68.0623092100786</v>
+        <v>52.90597973638094</v>
       </c>
       <c r="S16" t="n">
-        <v>61.37604568778616</v>
+        <v>89.01445449274225</v>
       </c>
       <c r="T16" t="n">
-        <v>293.9432304694186</v>
+        <v>87.0415553113514</v>
       </c>
       <c r="U16" t="n">
-        <v>85.5041307826087</v>
+        <v>39.23146558046522</v>
       </c>
       <c r="V16" t="n">
-        <v>44.58478991136457</v>
+        <v>175.3438833614536</v>
       </c>
       <c r="W16" t="n">
-        <v>168.4535078397076</v>
+        <v>30.60101029276645</v>
       </c>
       <c r="X16" t="n">
-        <v>65.66508295096783</v>
+        <v>67.28586475659868</v>
       </c>
       <c r="Y16" t="n">
-        <v>61.10283846909972</v>
+        <v>83.0769715527592</v>
       </c>
       <c r="Z16" t="n">
-        <v>47.49984823399559</v>
+        <v>81.31389012906287</v>
       </c>
       <c r="AA16" t="n">
-        <v>54.8708449680332</v>
+        <v>68.57933350509798</v>
       </c>
       <c r="AB16" t="n">
-        <v>90.23636669313423</v>
+        <v>56.16623744340598</v>
       </c>
       <c r="AC16" t="n">
-        <v>27.109496846231</v>
+        <v>88.54372875782573</v>
       </c>
       <c r="AD16" t="n">
-        <v>47.62503300103971</v>
+        <v>81.53914922501198</v>
       </c>
       <c r="AE16" t="n">
-        <v>90.90050359119472</v>
+        <v>111.7542610886719</v>
       </c>
       <c r="AF16" t="n">
-        <v>25.19759982652586</v>
+        <v>47.72479500677685</v>
       </c>
       <c r="AG16" t="n">
-        <v>58.91148898642185</v>
+        <v>75.65534824012937</v>
       </c>
       <c r="AH16" t="n">
-        <v>114.3224007041037</v>
+        <v>63.63740793738666</v>
       </c>
       <c r="AI16" t="n">
-        <v>71.79771858634884</v>
+        <v>23.25188688062163</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22.85718267023953</v>
+        <v>67.41901388377825</v>
       </c>
       <c r="AK16" t="n">
-        <v>51.68066052906271</v>
+        <v>60.62541333611306</v>
       </c>
       <c r="AL16" t="n">
-        <v>68.2738409030904</v>
+        <v>55.68272410637458</v>
       </c>
       <c r="AM16" t="n">
-        <v>28.71175232394727</v>
+        <v>25.57364872509418</v>
       </c>
       <c r="AN16" t="n">
-        <v>57.30422488799429</v>
+        <v>18.16083031930946</v>
       </c>
       <c r="AO16" t="n">
-        <v>13.77706523992847</v>
+        <v>13.84811197102177</v>
       </c>
       <c r="AP16" t="n">
-        <v>19.5560160544988</v>
+        <v>9.31166296872245</v>
       </c>
       <c r="AQ16" t="n">
-        <v>21.15496653061225</v>
+        <v>19.8031989601527</v>
       </c>
       <c r="AR16" t="n">
-        <v>12.57553209341715</v>
+        <v>16.18115979934217</v>
       </c>
       <c r="AS16" t="n">
-        <v>17.41325345051236</v>
+        <v>15.24658630472237</v>
       </c>
       <c r="AT16" t="n">
-        <v>10.03172077060876</v>
+        <v>11.40653098317088</v>
       </c>
       <c r="AU16" t="n">
-        <v>14.64074481493544</v>
+        <v>10.39466134318305</v>
       </c>
       <c r="AV16" t="n">
-        <v>22.16369417269247</v>
+        <v>20.86345312484646</v>
       </c>
       <c r="AW16" t="n">
-        <v>6.538779084956682</v>
+        <v>12.56469916541336</v>
       </c>
       <c r="AX16" t="n">
-        <v>6.991990817651857</v>
+        <v>13.74735668330525</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>5.396178077713545</v>
+        <v>11.46973228669559</v>
       </c>
       <c r="D17" t="n">
-        <v>36.55345145948802</v>
+        <v>6.047762954609101</v>
       </c>
       <c r="E17" t="n">
-        <v>29.55153824614681</v>
+        <v>21.11122379949006</v>
       </c>
       <c r="F17" t="n">
-        <v>15.21084446175895</v>
+        <v>29.82797651313589</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>18.24582117128303</v>
       </c>
       <c r="H17" t="n">
-        <v>11.15793606842652</v>
+        <v>51.42936462040741</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2296791818495247</v>
+        <v>7.025438348666187</v>
       </c>
       <c r="J17" t="n">
-        <v>30.45907638552143</v>
+        <v>56.37636682769185</v>
       </c>
       <c r="K17" t="n">
-        <v>21.73176665781612</v>
+        <v>31.36839152579135</v>
       </c>
       <c r="L17" t="n">
-        <v>35.70280808595376</v>
+        <v>94.20627760682721</v>
       </c>
       <c r="M17" t="n">
-        <v>315.7438502260214</v>
+        <v>65.69442178651089</v>
       </c>
       <c r="N17" t="n">
-        <v>32.86303697384706</v>
+        <v>212.4981751196181</v>
       </c>
       <c r="O17" t="n">
-        <v>39.99262618652739</v>
+        <v>17.43626118565093</v>
       </c>
       <c r="P17" t="n">
-        <v>67.52575628878014</v>
+        <v>68.58224718200482</v>
       </c>
       <c r="Q17" t="n">
-        <v>27.91178173084369</v>
+        <v>42.90889606185099</v>
       </c>
       <c r="R17" t="n">
-        <v>45.85747734586704</v>
+        <v>70.37155835736867</v>
       </c>
       <c r="S17" t="n">
-        <v>23.94213385393986</v>
+        <v>131.2751119987208</v>
       </c>
       <c r="T17" t="n">
-        <v>56.21650649999996</v>
+        <v>22.83073476602505</v>
       </c>
       <c r="U17" t="n">
-        <v>48.74167415105737</v>
+        <v>63.58203465502572</v>
       </c>
       <c r="V17" t="n">
-        <v>59.98107897982784</v>
+        <v>118.3349914175609</v>
       </c>
       <c r="W17" t="n">
-        <v>49.12024095606643</v>
+        <v>41.69825847712612</v>
       </c>
       <c r="X17" t="n">
-        <v>54.25026573739592</v>
+        <v>23.92987565205341</v>
       </c>
       <c r="Y17" t="n">
-        <v>62.55156583414705</v>
+        <v>47.09511244238755</v>
       </c>
       <c r="Z17" t="n">
-        <v>47.56712802047301</v>
+        <v>33.53955097740557</v>
       </c>
       <c r="AA17" t="n">
-        <v>27.31079142501533</v>
+        <v>18.3846314078088</v>
       </c>
       <c r="AB17" t="n">
-        <v>25.5991208181616</v>
+        <v>75.02239472101749</v>
       </c>
       <c r="AC17" t="n">
-        <v>90.15209755439456</v>
+        <v>63.95730098791891</v>
       </c>
       <c r="AD17" t="n">
-        <v>18.9052924740683</v>
+        <v>22.33843121813366</v>
       </c>
       <c r="AE17" t="n">
-        <v>62.74382420798243</v>
+        <v>59.57562773888922</v>
       </c>
       <c r="AF17" t="n">
-        <v>35.18560573789453</v>
+        <v>5.717155768121842</v>
       </c>
       <c r="AG17" t="n">
-        <v>112.360160003931</v>
+        <v>15.72899498405855</v>
       </c>
       <c r="AH17" t="n">
-        <v>28.2074879263478</v>
+        <v>65.99460654756219</v>
       </c>
       <c r="AI17" t="n">
-        <v>24.69956873302522</v>
+        <v>28.9353402739859</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13.92049400648849</v>
+        <v>9.288951937256511</v>
       </c>
       <c r="AK17" t="n">
-        <v>11.19142992747483</v>
+        <v>31.47306689922616</v>
       </c>
       <c r="AL17" t="n">
-        <v>5.110835796792663</v>
+        <v>9.508846820586102</v>
       </c>
       <c r="AM17" t="n">
-        <v>30.47362729066419</v>
+        <v>22.15014621844561</v>
       </c>
       <c r="AN17" t="n">
-        <v>25.76379492298664</v>
+        <v>18.48901563560262</v>
       </c>
       <c r="AO17" t="n">
-        <v>27.76345762591611</v>
+        <v>24.94196373715085</v>
       </c>
       <c r="AP17" t="n">
-        <v>21.22169622807525</v>
+        <v>11.04321095420891</v>
       </c>
       <c r="AQ17" t="n">
-        <v>27.4080459783063</v>
+        <v>10.47796977995705</v>
       </c>
       <c r="AR17" t="n">
-        <v>22.99895558598594</v>
+        <v>30.95821373204035</v>
       </c>
       <c r="AS17" t="n">
-        <v>21.8474522978441</v>
+        <v>31.80431043843648</v>
       </c>
       <c r="AT17" t="n">
-        <v>44.40793172114569</v>
+        <v>46.48027855108252</v>
       </c>
       <c r="AU17" t="n">
-        <v>28.76506086316268</v>
+        <v>9.029708258442909</v>
       </c>
       <c r="AV17" t="n">
-        <v>20.9127106358658</v>
+        <v>11.27475819224969</v>
       </c>
       <c r="AW17" t="n">
-        <v>12.40178629742959</v>
+        <v>46.05435210814701</v>
       </c>
       <c r="AX17" t="n">
-        <v>28.71957295453763</v>
+        <v>21.64560917486248</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>9.050791970532295</v>
+        <v>7.836586202920263</v>
       </c>
       <c r="D18" t="n">
-        <v>5.233993003143257</v>
+        <v>5.680966198007411</v>
       </c>
       <c r="E18" t="n">
-        <v>6.125054957531971</v>
+        <v>5.110936008482628</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9621129498292617</v>
+        <v>5.491388815041291</v>
       </c>
       <c r="G18" t="n">
-        <v>4.920742872499149</v>
+        <v>18.0805393382531</v>
       </c>
       <c r="H18" t="n">
-        <v>2.11375</v>
+        <v>3.276168731887967</v>
       </c>
       <c r="I18" t="n">
-        <v>62.98359948706634</v>
+        <v>13.22978793053119</v>
       </c>
       <c r="J18" t="n">
-        <v>62.94141544431037</v>
+        <v>18.4373310285504</v>
       </c>
       <c r="K18" t="n">
-        <v>3.921327650933186</v>
+        <v>12.19574733884216</v>
       </c>
       <c r="L18" t="n">
-        <v>18.71769513501042</v>
+        <v>28.81769113153385</v>
       </c>
       <c r="M18" t="n">
-        <v>41.01883890895051</v>
+        <v>22.5276052105055</v>
       </c>
       <c r="N18" t="n">
-        <v>21.95051030108414</v>
+        <v>25.06331021407463</v>
       </c>
       <c r="O18" t="n">
-        <v>16.74646447791347</v>
+        <v>48.01457650886103</v>
       </c>
       <c r="P18" t="n">
-        <v>21.07747030473936</v>
+        <v>5.07569432811745</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.19591802032087</v>
+        <v>8.162533318295004</v>
       </c>
       <c r="R18" t="n">
-        <v>20.59424848143342</v>
+        <v>16.48067929579428</v>
       </c>
       <c r="S18" t="n">
-        <v>46.2545575697737</v>
+        <v>5.767477845972443</v>
       </c>
       <c r="T18" t="n">
-        <v>13.02880357791027</v>
+        <v>12.24144004349879</v>
       </c>
       <c r="U18" t="n">
-        <v>21.85082726346682</v>
+        <v>12.64282753084594</v>
       </c>
       <c r="V18" t="n">
-        <v>20.08201499669902</v>
+        <v>54.13759255670892</v>
       </c>
       <c r="W18" t="n">
-        <v>45.14214354060201</v>
+        <v>11.44764295669663</v>
       </c>
       <c r="X18" t="n">
-        <v>21.4029083014391</v>
+        <v>30.73798288959722</v>
       </c>
       <c r="Y18" t="n">
-        <v>29.47926418634415</v>
+        <v>20.33535719703708</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.232208514090219</v>
+        <v>16.19511716879272</v>
       </c>
       <c r="AA18" t="n">
-        <v>13.8112739536481</v>
+        <v>11.48359352145972</v>
       </c>
       <c r="AB18" t="n">
-        <v>27.0909307115346</v>
+        <v>7.943150422248748</v>
       </c>
       <c r="AC18" t="n">
-        <v>24.68702345231431</v>
+        <v>16.00137213626945</v>
       </c>
       <c r="AD18" t="n">
-        <v>20.15938319484184</v>
+        <v>26.4642467525377</v>
       </c>
       <c r="AE18" t="n">
-        <v>3.963711457952179</v>
+        <v>21.79639189551502</v>
       </c>
       <c r="AF18" t="n">
-        <v>18.52878079232883</v>
+        <v>10.22810569928583</v>
       </c>
       <c r="AG18" t="n">
-        <v>7.429072868992622</v>
+        <v>23.64624930147106</v>
       </c>
       <c r="AH18" t="n">
-        <v>4.579042937519963</v>
+        <v>10.66344143523167</v>
       </c>
       <c r="AI18" t="n">
-        <v>12.29082360596984</v>
+        <v>12.55287387609104</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11.3696561402882</v>
+        <v>11.27043960142004</v>
       </c>
       <c r="AK18" t="n">
-        <v>5.312786382706293</v>
+        <v>3.446466701668248</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.8323688</v>
+        <v>45.17398390896163</v>
       </c>
       <c r="AM18" t="n">
-        <v>8.771283480172237</v>
+        <v>7.94714989437782</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.667075239838289</v>
+        <v>4.148848457525664</v>
       </c>
       <c r="AO18" t="n">
-        <v>5.270644831984883</v>
+        <v>1.573503565167762</v>
       </c>
       <c r="AP18" t="n">
-        <v>3.051104025379149</v>
+        <v>1.857474859613202</v>
       </c>
       <c r="AQ18" t="n">
-        <v>5.281364944698067</v>
+        <v>1.102501148345946</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.881428571428571</v>
+        <v>3.145706442555121</v>
       </c>
       <c r="AS18" t="n">
-        <v>4.77214997887699</v>
+        <v>4.042934254936362</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.54</v>
+        <v>0.7552870145380629</v>
       </c>
       <c r="AU18" t="n">
-        <v>1.274809347918139</v>
+        <v>1.744741156339462</v>
       </c>
       <c r="AV18" t="n">
-        <v>2.577715636858002</v>
+        <v>0.2973356256898504</v>
       </c>
       <c r="AW18" t="n">
-        <v>2.85382887943303</v>
+        <v>2.429274527747861</v>
       </c>
       <c r="AX18" t="n">
-        <v>1.843287994170533</v>
+        <v>0.876379890437498</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>5.91</v>
+        <v>32.43916112911827</v>
       </c>
       <c r="D19" t="n">
-        <v>21.38</v>
+        <v>11.27414331578482</v>
       </c>
       <c r="E19" t="n">
-        <v>10.4</v>
+        <v>4.266618928317442</v>
       </c>
       <c r="F19" t="n">
-        <v>23.22023696921196</v>
+        <v>45.39278014892655</v>
       </c>
       <c r="G19" t="n">
-        <v>10.88</v>
+        <v>28.96011769443132</v>
       </c>
       <c r="H19" t="n">
-        <v>14.97</v>
+        <v>16.11700726941409</v>
       </c>
       <c r="I19" t="n">
-        <v>9.67</v>
+        <v>234.0286961469776</v>
       </c>
       <c r="J19" t="n">
-        <v>3.94</v>
+        <v>13.42533198990365</v>
       </c>
       <c r="K19" t="n">
-        <v>60.82890737323049</v>
+        <v>47.63672053918929</v>
       </c>
       <c r="L19" t="n">
-        <v>57.03</v>
+        <v>3.676342395682579</v>
       </c>
       <c r="M19" t="n">
-        <v>64.06999999999999</v>
+        <v>47.97336789835161</v>
       </c>
       <c r="N19" t="n">
-        <v>30.07</v>
+        <v>21.17066396108987</v>
       </c>
       <c r="O19" t="n">
-        <v>31.9</v>
+        <v>51.74305616160986</v>
       </c>
       <c r="P19" t="n">
-        <v>5.74349613321257</v>
+        <v>21.05528895554455</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.52</v>
+        <v>65.56501835410795</v>
       </c>
       <c r="R19" t="n">
-        <v>27.74</v>
+        <v>13.96233763505599</v>
       </c>
       <c r="S19" t="n">
-        <v>66.02000000000001</v>
+        <v>40.46732727189129</v>
       </c>
       <c r="T19" t="n">
-        <v>30.29</v>
+        <v>17.45476743244684</v>
       </c>
       <c r="U19" t="n">
-        <v>22.81</v>
+        <v>24.52427796167212</v>
       </c>
       <c r="V19" t="n">
-        <v>44.01</v>
+        <v>28.81703746946094</v>
       </c>
       <c r="W19" t="n">
-        <v>34.27</v>
+        <v>9.15532512460897</v>
       </c>
       <c r="X19" t="n">
-        <v>21.4</v>
+        <v>17.58302894376456</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.551677232265058</v>
+        <v>3.253519229290612</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.57</v>
+        <v>7.166959589032863</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.74</v>
+        <v>1.290247088358472</v>
       </c>
       <c r="AB19" t="n">
-        <v>5.280661200000003</v>
+        <v>17.43490122422486</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.04</v>
+        <v>15.62385919964733</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.690389733832372</v>
+        <v>3.374134152398829</v>
       </c>
       <c r="AE19" t="n">
-        <v>12.83</v>
+        <v>3.380176762992715</v>
       </c>
       <c r="AF19" t="n">
-        <v>6.03</v>
+        <v>20.08755017892033</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.98</v>
+        <v>13.22120199191738</v>
       </c>
       <c r="AH19" t="n">
-        <v>2.96</v>
+        <v>11.63141204530127</v>
       </c>
       <c r="AI19" t="n">
-        <v>3.6</v>
+        <v>42.14704669158061</v>
       </c>
       <c r="AJ19" t="n">
-        <v>40.27</v>
+        <v>26.33227160003324</v>
       </c>
       <c r="AK19" t="n">
-        <v>1</v>
+        <v>1.992742641975288</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>1.689560573284384</v>
       </c>
       <c r="AM19" t="n">
-        <v>16.39</v>
+        <v>10.51500059334537</v>
       </c>
       <c r="AN19" t="n">
-        <v>7.72</v>
+        <v>8.97815222253818</v>
       </c>
       <c r="AO19" t="n">
-        <v>4.85</v>
+        <v>15.66300249228189</v>
       </c>
       <c r="AP19" t="n">
-        <v>12.89</v>
+        <v>5.711940947784234</v>
       </c>
       <c r="AQ19" t="n">
-        <v>14.22</v>
+        <v>3.400915170944408</v>
       </c>
       <c r="AR19" t="n">
-        <v>5.94</v>
+        <v>4.110691945786939</v>
       </c>
       <c r="AS19" t="n">
-        <v>20.15</v>
+        <v>10.92803934154755</v>
       </c>
       <c r="AT19" t="n">
-        <v>10.71</v>
+        <v>3.665688558214473</v>
       </c>
       <c r="AU19" t="n">
-        <v>6.28</v>
+        <v>6.654533856668229</v>
       </c>
       <c r="AV19" t="n">
-        <v>2.03</v>
+        <v>22.20943300590624</v>
       </c>
       <c r="AW19" t="n">
-        <v>3.12</v>
+        <v>8.507785471325706</v>
       </c>
       <c r="AX19" t="n">
-        <v>19.69</v>
+        <v>1.44137346514394</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>9.990813524671047</v>
+        <v>12.89669763772052</v>
       </c>
       <c r="D20" t="n">
-        <v>34.43710753969037</v>
+        <v>21.42097336420035</v>
       </c>
       <c r="E20" t="n">
-        <v>20.61466084074468</v>
+        <v>21.3910704907108</v>
       </c>
       <c r="F20" t="n">
-        <v>50.70305648497071</v>
+        <v>18.25540283917613</v>
       </c>
       <c r="G20" t="n">
-        <v>85.86145832156657</v>
+        <v>13.13163683883359</v>
       </c>
       <c r="H20" t="n">
-        <v>13.66586450757911</v>
+        <v>26.63667089917513</v>
       </c>
       <c r="I20" t="n">
-        <v>36.55911357832437</v>
+        <v>47.33274684774705</v>
       </c>
       <c r="J20" t="n">
-        <v>65.40160953846822</v>
+        <v>15.84026774007259</v>
       </c>
       <c r="K20" t="n">
-        <v>182.8110824173498</v>
+        <v>110.9715027901392</v>
       </c>
       <c r="L20" t="n">
-        <v>57.94513626193801</v>
+        <v>96.99649946636009</v>
       </c>
       <c r="M20" t="n">
-        <v>33.68225130034477</v>
+        <v>62.46754059099001</v>
       </c>
       <c r="N20" t="n">
-        <v>72.90879390845024</v>
+        <v>84.30514875474196</v>
       </c>
       <c r="O20" t="n">
-        <v>53.14113293776057</v>
+        <v>158.2008780450875</v>
       </c>
       <c r="P20" t="n">
-        <v>78.26034178326286</v>
+        <v>43.54151915067739</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.60382210462018</v>
+        <v>40.36025927023633</v>
       </c>
       <c r="R20" t="n">
-        <v>82.44231856752539</v>
+        <v>33.7120951896777</v>
       </c>
       <c r="S20" t="n">
-        <v>116.0802093853677</v>
+        <v>17.39697014994396</v>
       </c>
       <c r="T20" t="n">
-        <v>22.89149348468512</v>
+        <v>45.84118288462845</v>
       </c>
       <c r="U20" t="n">
-        <v>74.26612478408373</v>
+        <v>85.00568176003196</v>
       </c>
       <c r="V20" t="n">
-        <v>40.55589682849365</v>
+        <v>63.12054908792386</v>
       </c>
       <c r="W20" t="n">
-        <v>83.53354874822257</v>
+        <v>103.6973062396391</v>
       </c>
       <c r="X20" t="n">
-        <v>123.049569093454</v>
+        <v>37.2282513491008</v>
       </c>
       <c r="Y20" t="n">
-        <v>55.76485690424819</v>
+        <v>112.7386744451352</v>
       </c>
       <c r="Z20" t="n">
-        <v>61.09095289606559</v>
+        <v>89.6914413052516</v>
       </c>
       <c r="AA20" t="n">
-        <v>97.52527829455633</v>
+        <v>110.9915765573173</v>
       </c>
       <c r="AB20" t="n">
-        <v>105.5400386244509</v>
+        <v>113.0967669615737</v>
       </c>
       <c r="AC20" t="n">
-        <v>103.1968409376345</v>
+        <v>61.25404987318235</v>
       </c>
       <c r="AD20" t="n">
-        <v>112.1633539073683</v>
+        <v>99.17322368402908</v>
       </c>
       <c r="AE20" t="n">
-        <v>124.7808974943988</v>
+        <v>79.67566303960278</v>
       </c>
       <c r="AF20" t="n">
-        <v>107.9308713587338</v>
+        <v>94.71184314228481</v>
       </c>
       <c r="AG20" t="n">
-        <v>93.95597718565122</v>
+        <v>102.9515358074456</v>
       </c>
       <c r="AH20" t="n">
-        <v>155.5767807517678</v>
+        <v>85.68528947436258</v>
       </c>
       <c r="AI20" t="n">
-        <v>132.7246696594358</v>
+        <v>21.53436225493665</v>
       </c>
       <c r="AJ20" t="n">
-        <v>102.4418324212216</v>
+        <v>57.35219557940157</v>
       </c>
       <c r="AK20" t="n">
-        <v>65.5152376460951</v>
+        <v>139.8314520524553</v>
       </c>
       <c r="AL20" t="n">
-        <v>55.82998794438022</v>
+        <v>57.54083047306131</v>
       </c>
       <c r="AM20" t="n">
-        <v>59.79295667718966</v>
+        <v>31.83916437810094</v>
       </c>
       <c r="AN20" t="n">
-        <v>47.78284712223731</v>
+        <v>23.15721030252517</v>
       </c>
       <c r="AO20" t="n">
-        <v>17.77380896318562</v>
+        <v>47.89893576955741</v>
       </c>
       <c r="AP20" t="n">
-        <v>14.32221587519343</v>
+        <v>37.503817423828</v>
       </c>
       <c r="AQ20" t="n">
-        <v>28.07626381775497</v>
+        <v>28.26037025462281</v>
       </c>
       <c r="AR20" t="n">
-        <v>55.02220855676197</v>
+        <v>27.29451311009662</v>
       </c>
       <c r="AS20" t="n">
-        <v>34.30129197456593</v>
+        <v>21.86715889756904</v>
       </c>
       <c r="AT20" t="n">
-        <v>24.65786264516782</v>
+        <v>16.08325039448933</v>
       </c>
       <c r="AU20" t="n">
-        <v>18.88283019891123</v>
+        <v>23.75100686185002</v>
       </c>
       <c r="AV20" t="n">
-        <v>21.75666890949648</v>
+        <v>11.51465161760321</v>
       </c>
       <c r="AW20" t="n">
-        <v>14.03716451552038</v>
+        <v>12.35779287602881</v>
       </c>
       <c r="AX20" t="n">
-        <v>24.13027902077614</v>
+        <v>32.51334126843821</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>3.061116201602478</v>
+        <v>1.754942926727665</v>
       </c>
       <c r="D21" t="n">
-        <v>2.382601428107776</v>
+        <v>3.077092870677829</v>
       </c>
       <c r="E21" t="n">
-        <v>2.692579445428129</v>
+        <v>5.467035714612616</v>
       </c>
       <c r="F21" t="n">
-        <v>2.551596559558605</v>
+        <v>0.4616802886651598</v>
       </c>
       <c r="G21" t="n">
-        <v>5.529439769483801</v>
+        <v>1.156190936967509</v>
       </c>
       <c r="H21" t="n">
-        <v>1.910013829595334</v>
+        <v>0.6656275037442645</v>
       </c>
       <c r="I21" t="n">
-        <v>4.142494613218147</v>
+        <v>0.4678123626681502</v>
       </c>
       <c r="J21" t="n">
-        <v>0.245249670888381</v>
+        <v>6.48797888203938</v>
       </c>
       <c r="K21" t="n">
-        <v>7.844675359682049</v>
+        <v>7.636849154888035</v>
       </c>
       <c r="L21" t="n">
-        <v>1.938529776019815</v>
+        <v>21.78421617912879</v>
       </c>
       <c r="M21" t="n">
-        <v>5.530661092578987</v>
+        <v>5.642989336107223</v>
       </c>
       <c r="N21" t="n">
-        <v>4.658787236951459</v>
+        <v>1.555939357850613</v>
       </c>
       <c r="O21" t="n">
-        <v>6.152882076266724</v>
+        <v>2.885590462218315</v>
       </c>
       <c r="P21" t="n">
-        <v>9.133047564216135</v>
+        <v>2.451289302750943</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.415236929685505</v>
+        <v>5.862306036626052</v>
       </c>
       <c r="R21" t="n">
-        <v>4.437803648363736</v>
+        <v>1.805555099865282</v>
       </c>
       <c r="S21" t="n">
-        <v>2.30705788762874</v>
+        <v>0.9949308978285075</v>
       </c>
       <c r="T21" t="n">
-        <v>5.246706850345555</v>
+        <v>1.162352724901194</v>
       </c>
       <c r="U21" t="n">
-        <v>4.142489990522395</v>
+        <v>3.162790799043893</v>
       </c>
       <c r="V21" t="n">
-        <v>4.932522492787372</v>
+        <v>5.520045578140053</v>
       </c>
       <c r="W21" t="n">
-        <v>3.256677653786585</v>
+        <v>1.427269019669177</v>
       </c>
       <c r="X21" t="n">
-        <v>2.28324588379274</v>
+        <v>5.677780448645326</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.827909692730144</v>
+        <v>3.78177888091256</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.443948290480076</v>
+        <v>8.437555848021422</v>
       </c>
       <c r="AA21" t="n">
-        <v>4.893770249446615</v>
+        <v>4.919897288668083</v>
       </c>
       <c r="AB21" t="n">
-        <v>4.235868937054527</v>
+        <v>4.052685233504438</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.244626837182669</v>
+        <v>3.211505976586648</v>
       </c>
       <c r="AD21" t="n">
-        <v>5.013709931821927</v>
+        <v>4.591211193512811</v>
       </c>
       <c r="AE21" t="n">
-        <v>3.104958815805181</v>
+        <v>5.781224903072909</v>
       </c>
       <c r="AF21" t="n">
-        <v>7.242379202735415</v>
+        <v>5.795122958629746</v>
       </c>
       <c r="AG21" t="n">
-        <v>6.354085613101995</v>
+        <v>2.723826511308823</v>
       </c>
       <c r="AH21" t="n">
-        <v>7.064506665273463</v>
+        <v>11.6747483726388</v>
       </c>
       <c r="AI21" t="n">
-        <v>8.943300314909445</v>
+        <v>5.026406025330844</v>
       </c>
       <c r="AJ21" t="n">
-        <v>5.299021138952377</v>
+        <v>5.73667435387804</v>
       </c>
       <c r="AK21" t="n">
-        <v>3.662524875235377</v>
+        <v>4.14291760038903</v>
       </c>
       <c r="AL21" t="n">
-        <v>5.665656815847397</v>
+        <v>4.288802447120731</v>
       </c>
       <c r="AM21" t="n">
-        <v>2.815135285714286</v>
+        <v>9.73861252717457</v>
       </c>
       <c r="AN21" t="n">
-        <v>5.693385550836435</v>
+        <v>7.118006103793977</v>
       </c>
       <c r="AO21" t="n">
-        <v>3.702146174707797</v>
+        <v>2.979293745494386</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.451295062903056</v>
+        <v>2.59933320475241</v>
       </c>
       <c r="AQ21" t="n">
-        <v>3.758391857142857</v>
+        <v>8.204750035362961</v>
       </c>
       <c r="AR21" t="n">
-        <v>2.470925684485007</v>
+        <v>2.068392612296547</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.327293997356686</v>
+        <v>3.423085482756531</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.955149934810952</v>
+        <v>3.811483655922857</v>
       </c>
       <c r="AU21" t="n">
-        <v>4.023736353692732</v>
+        <v>1.948576426031912</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.9159220639186995</v>
+        <v>1.987152795089766</v>
       </c>
       <c r="AW21" t="n">
-        <v>1.911229342676252</v>
+        <v>2.790166896051742</v>
       </c>
       <c r="AX21" t="n">
-        <v>5.10914061179093</v>
+        <v>2.452955040556826</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>6.133793396334282</v>
+        <v>8.869131126501431</v>
       </c>
       <c r="D22" t="n">
-        <v>4.900020675129101</v>
+        <v>9.080689673919638</v>
       </c>
       <c r="E22" t="n">
-        <v>21.40600659115362</v>
+        <v>20.12850495402483</v>
       </c>
       <c r="F22" t="n">
-        <v>10.95957047028651</v>
+        <v>8.133731287810175</v>
       </c>
       <c r="G22" t="n">
-        <v>16.48929681007578</v>
+        <v>5.001206515209261</v>
       </c>
       <c r="H22" t="n">
-        <v>8.995846669147749</v>
+        <v>25.6090934985788</v>
       </c>
       <c r="I22" t="n">
-        <v>8.425629998595213</v>
+        <v>27.53923840416121</v>
       </c>
       <c r="J22" t="n">
-        <v>19.25471224053858</v>
+        <v>28.86953642461425</v>
       </c>
       <c r="K22" t="n">
-        <v>42.3211553714808</v>
+        <v>28.46705812278379</v>
       </c>
       <c r="L22" t="n">
-        <v>109.3396689953079</v>
+        <v>24.87450625731623</v>
       </c>
       <c r="M22" t="n">
-        <v>128.975887162898</v>
+        <v>31.41464697697783</v>
       </c>
       <c r="N22" t="n">
-        <v>170.3506195939983</v>
+        <v>38.3415559308615</v>
       </c>
       <c r="O22" t="n">
-        <v>97.87093482447301</v>
+        <v>63.16351090874486</v>
       </c>
       <c r="P22" t="n">
-        <v>53.463313320324</v>
+        <v>44.16416374638685</v>
       </c>
       <c r="Q22" t="n">
-        <v>92.32990665287259</v>
+        <v>123.0915151082991</v>
       </c>
       <c r="R22" t="n">
-        <v>151.4285122073105</v>
+        <v>67.05207991438564</v>
       </c>
       <c r="S22" t="n">
-        <v>16.05705420326034</v>
+        <v>62.38926826443837</v>
       </c>
       <c r="T22" t="n">
-        <v>54.57097807289242</v>
+        <v>46.66302297771001</v>
       </c>
       <c r="U22" t="n">
-        <v>135.6117666747232</v>
+        <v>40.20601540895145</v>
       </c>
       <c r="V22" t="n">
-        <v>50.69967006452629</v>
+        <v>30.03083479473452</v>
       </c>
       <c r="W22" t="n">
-        <v>118.7557736373997</v>
+        <v>76.48278066306169</v>
       </c>
       <c r="X22" t="n">
-        <v>51.26090192027189</v>
+        <v>44.64548819333307</v>
       </c>
       <c r="Y22" t="n">
-        <v>80.4182373988222</v>
+        <v>59.17501534059566</v>
       </c>
       <c r="Z22" t="n">
-        <v>118.1270760262807</v>
+        <v>54.8232266003813</v>
       </c>
       <c r="AA22" t="n">
-        <v>118.8628397651875</v>
+        <v>69.0406617172067</v>
       </c>
       <c r="AB22" t="n">
-        <v>45.06089020312138</v>
+        <v>104.9201500846852</v>
       </c>
       <c r="AC22" t="n">
-        <v>124.2659767507797</v>
+        <v>45.18467829008023</v>
       </c>
       <c r="AD22" t="n">
-        <v>45.06667929417871</v>
+        <v>107.57813094064</v>
       </c>
       <c r="AE22" t="n">
-        <v>46.42724655427548</v>
+        <v>61.4911952684224</v>
       </c>
       <c r="AF22" t="n">
-        <v>58.90190982704778</v>
+        <v>85.7441759961763</v>
       </c>
       <c r="AG22" t="n">
-        <v>73.52432078083518</v>
+        <v>83.29630399203447</v>
       </c>
       <c r="AH22" t="n">
-        <v>80.35300137654085</v>
+        <v>24.19078643329168</v>
       </c>
       <c r="AI22" t="n">
-        <v>45.78668867875908</v>
+        <v>36.40531256208612</v>
       </c>
       <c r="AJ22" t="n">
-        <v>48.01449552845146</v>
+        <v>37.13625362937475</v>
       </c>
       <c r="AK22" t="n">
-        <v>35.53085165989425</v>
+        <v>34.83581275731042</v>
       </c>
       <c r="AL22" t="n">
-        <v>31.11883990323875</v>
+        <v>31.67028553870756</v>
       </c>
       <c r="AM22" t="n">
-        <v>37.36719081225003</v>
+        <v>57.482400119405</v>
       </c>
       <c r="AN22" t="n">
-        <v>41.62225174291348</v>
+        <v>16.47965826880463</v>
       </c>
       <c r="AO22" t="n">
-        <v>12.47459126985983</v>
+        <v>19.29032379682247</v>
       </c>
       <c r="AP22" t="n">
-        <v>18.83700847502693</v>
+        <v>20.69879136073835</v>
       </c>
       <c r="AQ22" t="n">
-        <v>10.06628225027784</v>
+        <v>17.1426506477649</v>
       </c>
       <c r="AR22" t="n">
-        <v>37.58247136998498</v>
+        <v>13.27649974083237</v>
       </c>
       <c r="AS22" t="n">
-        <v>11.66973733220588</v>
+        <v>14.42603868934365</v>
       </c>
       <c r="AT22" t="n">
-        <v>10.98457113507961</v>
+        <v>6.766054763298627</v>
       </c>
       <c r="AU22" t="n">
-        <v>12.86918111626937</v>
+        <v>23.00896563539521</v>
       </c>
       <c r="AV22" t="n">
-        <v>10.29269524737259</v>
+        <v>15.83715307024073</v>
       </c>
       <c r="AW22" t="n">
-        <v>9.452943327239488</v>
+        <v>15.59198728926325</v>
       </c>
       <c r="AX22" t="n">
-        <v>10.50870589304789</v>
+        <v>10.00032369360832</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>7.413506050309069</v>
+        <v>19.86919475048569</v>
       </c>
       <c r="D23" t="n">
-        <v>15.75540693623863</v>
+        <v>5.677029811869117</v>
       </c>
       <c r="E23" t="n">
-        <v>10.31824953328972</v>
+        <v>21.89106920830307</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>12.61948133256404</v>
       </c>
       <c r="G23" t="n">
-        <v>18.50392735803249</v>
+        <v>37.78392728825394</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>14.4154370954422</v>
       </c>
       <c r="I23" t="n">
-        <v>32.52969650995323</v>
+        <v>8.283189052881829</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3.703223801531494</v>
       </c>
       <c r="K23" t="n">
-        <v>68.06359394674271</v>
+        <v>23.90432446727499</v>
       </c>
       <c r="L23" t="n">
-        <v>31.18264232123102</v>
+        <v>2.940753366922639</v>
       </c>
       <c r="M23" t="n">
-        <v>18.18940907426519</v>
+        <v>10.63169589059154</v>
       </c>
       <c r="N23" t="n">
-        <v>15.32717257908499</v>
+        <v>38.05529485437546</v>
       </c>
       <c r="O23" t="n">
-        <v>47.78373539613445</v>
+        <v>29.565979862359</v>
       </c>
       <c r="P23" t="n">
-        <v>67.97154142480402</v>
+        <v>215.5927551821337</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.350128985354333</v>
+        <v>93.81817099009706</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>75.1219704651663</v>
       </c>
       <c r="S23" t="n">
-        <v>12.804004466933</v>
+        <v>12.34011672052718</v>
       </c>
       <c r="T23" t="n">
-        <v>38.49654329319671</v>
+        <v>62.55946240840466</v>
       </c>
       <c r="U23" t="n">
-        <v>19.09527613331664</v>
+        <v>76.24024388113372</v>
       </c>
       <c r="V23" t="n">
-        <v>74.65651771528709</v>
+        <v>29.87380087488351</v>
       </c>
       <c r="W23" t="n">
-        <v>111.0296327308642</v>
+        <v>53.86580801110144</v>
       </c>
       <c r="X23" t="n">
-        <v>51.33717375193699</v>
+        <v>24.8183490831669</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.1175344921358</v>
+        <v>80.93839474842156</v>
       </c>
       <c r="Z23" t="n">
-        <v>150.2340882412617</v>
+        <v>30.83552087589515</v>
       </c>
       <c r="AA23" t="n">
-        <v>27.31079142501533</v>
+        <v>18.16296674282713</v>
       </c>
       <c r="AB23" t="n">
-        <v>20.39145512115714</v>
+        <v>18.82940230345925</v>
       </c>
       <c r="AC23" t="n">
-        <v>27.25716555908467</v>
+        <v>21.55911558994046</v>
       </c>
       <c r="AD23" t="n">
-        <v>35.13751075263738</v>
+        <v>19.53849459120863</v>
       </c>
       <c r="AE23" t="n">
-        <v>48.29420843580847</v>
+        <v>23.66368859352508</v>
       </c>
       <c r="AF23" t="n">
-        <v>13.95691214500969</v>
+        <v>77.29913739751129</v>
       </c>
       <c r="AG23" t="n">
-        <v>35.81788538878771</v>
+        <v>36.10762316733733</v>
       </c>
       <c r="AH23" t="n">
-        <v>69.36743371120498</v>
+        <v>8.272698757457702</v>
       </c>
       <c r="AI23" t="n">
-        <v>10.83358346548908</v>
+        <v>15.58678771942862</v>
       </c>
       <c r="AJ23" t="n">
-        <v>32.99165758638993</v>
+        <v>46.50688803065982</v>
       </c>
       <c r="AK23" t="n">
-        <v>23.30133720322988</v>
+        <v>17.16430489135736</v>
       </c>
       <c r="AL23" t="n">
-        <v>32.37039275437062</v>
+        <v>17.24612923542796</v>
       </c>
       <c r="AM23" t="n">
-        <v>28.31357595833162</v>
+        <v>11.69761939528124</v>
       </c>
       <c r="AN23" t="n">
-        <v>25.18073695898163</v>
+        <v>35.77925626477028</v>
       </c>
       <c r="AO23" t="n">
-        <v>29.78395521494469</v>
+        <v>5.79156325580099</v>
       </c>
       <c r="AP23" t="n">
-        <v>19.47359972120231</v>
+        <v>31.35647704697204</v>
       </c>
       <c r="AQ23" t="n">
-        <v>23.89961062138041</v>
+        <v>17.20199287333504</v>
       </c>
       <c r="AR23" t="n">
-        <v>17.04281732118273</v>
+        <v>11.08714244939327</v>
       </c>
       <c r="AS23" t="n">
-        <v>5.941135263926229</v>
+        <v>29.66402303861501</v>
       </c>
       <c r="AT23" t="n">
-        <v>9.070691364531035</v>
+        <v>78.07190770655144</v>
       </c>
       <c r="AU23" t="n">
-        <v>5.695409747534881</v>
+        <v>17.06450778959753</v>
       </c>
       <c r="AV23" t="n">
-        <v>11.89772743395404</v>
+        <v>35.33777038335057</v>
       </c>
       <c r="AW23" t="n">
-        <v>26.76880022403817</v>
+        <v>25.7267958797113</v>
       </c>
       <c r="AX23" t="n">
-        <v>15.31953561148198</v>
+        <v>21.57953776228905</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>1.047285139774399</v>
+        <v>10.60545831015014</v>
       </c>
       <c r="D24" t="n">
-        <v>1.749539760096801</v>
+        <v>6.406809079228317</v>
       </c>
       <c r="E24" t="n">
-        <v>3.262416640210022</v>
+        <v>1.966139819938999</v>
       </c>
       <c r="F24" t="n">
-        <v>2.780438434957734</v>
+        <v>5.776655913569691</v>
       </c>
       <c r="G24" t="n">
-        <v>4.400329530976913</v>
+        <v>9.971187094566767</v>
       </c>
       <c r="H24" t="n">
-        <v>5.670203528630815</v>
+        <v>20.4001854342491</v>
       </c>
       <c r="I24" t="n">
-        <v>2.57481433440757</v>
+        <v>0.9450404691603405</v>
       </c>
       <c r="J24" t="n">
-        <v>5.897383528932004</v>
+        <v>13.49920257945296</v>
       </c>
       <c r="K24" t="n">
-        <v>6.511854233486112</v>
+        <v>13.29699509622074</v>
       </c>
       <c r="L24" t="n">
-        <v>18.69866159765457</v>
+        <v>10.04138356889609</v>
       </c>
       <c r="M24" t="n">
-        <v>16.8102560345256</v>
+        <v>34.83067504236549</v>
       </c>
       <c r="N24" t="n">
-        <v>22.35842591443852</v>
+        <v>30.03796029687296</v>
       </c>
       <c r="O24" t="n">
-        <v>42.09304689523668</v>
+        <v>55.52147908567037</v>
       </c>
       <c r="P24" t="n">
-        <v>12.61758225132727</v>
+        <v>14.36750652063909</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.68887282536379</v>
+        <v>10.7349596797094</v>
       </c>
       <c r="R24" t="n">
-        <v>9.916864995541987</v>
+        <v>54.34556773342682</v>
       </c>
       <c r="S24" t="n">
-        <v>14.52144897036442</v>
+        <v>24.64022907596305</v>
       </c>
       <c r="T24" t="n">
-        <v>14.18140351901499</v>
+        <v>31.4287157656782</v>
       </c>
       <c r="U24" t="n">
-        <v>24.49389379746525</v>
+        <v>9.698856627061359</v>
       </c>
       <c r="V24" t="n">
-        <v>15.50362917737041</v>
+        <v>21.894933503956</v>
       </c>
       <c r="W24" t="n">
-        <v>23.84402897648042</v>
+        <v>26.40518429917752</v>
       </c>
       <c r="X24" t="n">
-        <v>21.53655906218594</v>
+        <v>16.07195927444738</v>
       </c>
       <c r="Y24" t="n">
-        <v>20.26057978437903</v>
+        <v>18.2256726641525</v>
       </c>
       <c r="Z24" t="n">
-        <v>22.48496844272381</v>
+        <v>26.90698529779434</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.761475226289226</v>
+        <v>15.28722132017168</v>
       </c>
       <c r="AB24" t="n">
-        <v>20.69314725372208</v>
+        <v>32.60356972454156</v>
       </c>
       <c r="AC24" t="n">
-        <v>11.61052750321975</v>
+        <v>17.77415715212598</v>
       </c>
       <c r="AD24" t="n">
-        <v>14.32621241004651</v>
+        <v>23.67805147552471</v>
       </c>
       <c r="AE24" t="n">
-        <v>13.04251662535951</v>
+        <v>26.18959771481991</v>
       </c>
       <c r="AF24" t="n">
-        <v>10.842534486392</v>
+        <v>19.39738245344219</v>
       </c>
       <c r="AG24" t="n">
-        <v>23.42234810603558</v>
+        <v>14.33790561210235</v>
       </c>
       <c r="AH24" t="n">
-        <v>5.872203528629954</v>
+        <v>7.841101603112789</v>
       </c>
       <c r="AI24" t="n">
-        <v>9.681597142857145</v>
+        <v>16.44621518934107</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6.810988800000001</v>
+        <v>12.58741096654335</v>
       </c>
       <c r="AK24" t="n">
-        <v>6.4416648743849</v>
+        <v>8.300087582675655</v>
       </c>
       <c r="AL24" t="n">
-        <v>8.911529842484592</v>
+        <v>2.119225761858706</v>
       </c>
       <c r="AM24" t="n">
-        <v>2.597663098203471</v>
+        <v>10.26924726152474</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.297045080532475</v>
+        <v>3.333030015089874</v>
       </c>
       <c r="AO24" t="n">
-        <v>1.075103961681514</v>
+        <v>4.784119159125074</v>
       </c>
       <c r="AP24" t="n">
-        <v>3.872502564140667</v>
+        <v>1.218040968642781</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.531428571428571</v>
+        <v>2.114876185553401</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.7377375040135</v>
+        <v>2.133582779634679</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.545714285714286</v>
+        <v>0.5832386874201606</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.616897964800809</v>
+        <v>2.34140894780234</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.9114285714285714</v>
+        <v>3.220946372324938</v>
       </c>
       <c r="AV24" t="n">
-        <v>1.135785377872447</v>
+        <v>1.9863314461326</v>
       </c>
       <c r="AW24" t="n">
-        <v>1.16631</v>
+        <v>1.218379877405146</v>
       </c>
       <c r="AX24" t="n">
-        <v>1.099402310770876</v>
+        <v>0.4890030330216356</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>2.62</v>
+        <v>9.130415842916058</v>
       </c>
       <c r="D25" t="n">
-        <v>76.56</v>
+        <v>32.70003593956076</v>
       </c>
       <c r="E25" t="n">
-        <v>3.775966469696968</v>
+        <v>10.61986916652852</v>
       </c>
       <c r="F25" t="n">
-        <v>17.07</v>
+        <v>14.97734934383496</v>
       </c>
       <c r="G25" t="n">
-        <v>14.18</v>
+        <v>2.4934481768416</v>
       </c>
       <c r="H25" t="n">
-        <v>20.47</v>
+        <v>25.66946227067625</v>
       </c>
       <c r="I25" t="n">
-        <v>1.77</v>
+        <v>3.640209690970231</v>
       </c>
       <c r="J25" t="n">
-        <v>26.17</v>
+        <v>2.867833000711598</v>
       </c>
       <c r="K25" t="n">
-        <v>8.029999999999999</v>
+        <v>10.35699769715962</v>
       </c>
       <c r="L25" t="n">
-        <v>32.07</v>
+        <v>44.35257662022836</v>
       </c>
       <c r="M25" t="n">
-        <v>33.7</v>
+        <v>14.13188064225961</v>
       </c>
       <c r="N25" t="n">
-        <v>114.03</v>
+        <v>45.83750262334046</v>
       </c>
       <c r="O25" t="n">
-        <v>21.52</v>
+        <v>41.05072260943379</v>
       </c>
       <c r="P25" t="n">
-        <v>86.68000000000001</v>
+        <v>26.46953414836273</v>
       </c>
       <c r="Q25" t="n">
-        <v>30.39</v>
+        <v>146.6165384520174</v>
       </c>
       <c r="R25" t="n">
-        <v>32.65</v>
+        <v>84.29947668368918</v>
       </c>
       <c r="S25" t="n">
-        <v>21.9</v>
+        <v>5.978947629215003</v>
       </c>
       <c r="T25" t="n">
-        <v>53.45</v>
+        <v>26.46966483698549</v>
       </c>
       <c r="U25" t="n">
-        <v>16.23</v>
+        <v>32.49613227280609</v>
       </c>
       <c r="V25" t="n">
-        <v>32.13</v>
+        <v>11.31721504442</v>
       </c>
       <c r="W25" t="n">
-        <v>38.96</v>
+        <v>19.44745464441307</v>
       </c>
       <c r="X25" t="n">
-        <v>34.27</v>
+        <v>7.491949554996642</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.4</v>
+        <v>16.26411389673017</v>
       </c>
       <c r="Z25" t="n">
-        <v>4.43</v>
+        <v>4.104896983358137</v>
       </c>
       <c r="AA25" t="n">
-        <v>50.79</v>
+        <v>23.23855058946898</v>
       </c>
       <c r="AB25" t="n">
-        <v>17.45</v>
+        <v>1.617258708223036</v>
       </c>
       <c r="AC25" t="n">
-        <v>6.9</v>
+        <v>8.853983660006412</v>
       </c>
       <c r="AD25" t="n">
-        <v>24.94</v>
+        <v>1.657277521749564</v>
       </c>
       <c r="AE25" t="n">
-        <v>4.37</v>
+        <v>0.5486248479765884</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.835981200000001</v>
+        <v>15.24452431288125</v>
       </c>
       <c r="AG25" t="n">
-        <v>4.320048457142858</v>
+        <v>2.810333276259925</v>
       </c>
       <c r="AH25" t="n">
-        <v>29.03</v>
+        <v>2.570831576562228</v>
       </c>
       <c r="AI25" t="n">
-        <v>13.05</v>
+        <v>13.04062219440526</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5.338815374921234</v>
+        <v>5.392725091702974</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.2500343965146704</v>
+        <v>0.3086186401901301</v>
       </c>
       <c r="AL25" t="n">
-        <v>15.26</v>
+        <v>2.516410943197668</v>
       </c>
       <c r="AM25" t="n">
-        <v>71.84</v>
+        <v>10.83343339145586</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.865419708029198</v>
+        <v>0.3315656314244901</v>
       </c>
       <c r="AO25" t="n">
-        <v>2.32</v>
+        <v>8.788605999554729</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.86</v>
+        <v>4.879565142257608</v>
       </c>
       <c r="AQ25" t="n">
-        <v>69</v>
+        <v>3.210641965238001</v>
       </c>
       <c r="AR25" t="n">
-        <v>3.01606111583443</v>
+        <v>16.17824502744074</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.52</v>
+        <v>1.792933906983404</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.39</v>
+        <v>3.225391826171695</v>
       </c>
       <c r="AU25" t="n">
-        <v>14.6</v>
+        <v>6.410064169147859</v>
       </c>
       <c r="AV25" t="n">
-        <v>3.28</v>
+        <v>11.78126928521107</v>
       </c>
       <c r="AW25" t="n">
-        <v>10.96</v>
+        <v>24.39151932458547</v>
       </c>
       <c r="AX25" t="n">
-        <v>12.27</v>
+        <v>4.924589185515742</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>13.41429446078774</v>
+        <v>26.46286857772494</v>
       </c>
       <c r="D26" t="n">
-        <v>18.86191965843327</v>
+        <v>12.13530230934771</v>
       </c>
       <c r="E26" t="n">
-        <v>17.24947501329079</v>
+        <v>16.65367746294607</v>
       </c>
       <c r="F26" t="n">
-        <v>23.58361163293015</v>
+        <v>14.92635109072862</v>
       </c>
       <c r="G26" t="n">
-        <v>25.98113193298497</v>
+        <v>70.03915666179313</v>
       </c>
       <c r="H26" t="n">
-        <v>27.25617283310022</v>
+        <v>20.28181384435632</v>
       </c>
       <c r="I26" t="n">
-        <v>31.24091837781463</v>
+        <v>5.55873850552467</v>
       </c>
       <c r="J26" t="n">
-        <v>17.78963967766794</v>
+        <v>49.26926718786927</v>
       </c>
       <c r="K26" t="n">
-        <v>140.3617927037775</v>
+        <v>56.22497900176971</v>
       </c>
       <c r="L26" t="n">
-        <v>162.0324634099307</v>
+        <v>27.83132505121124</v>
       </c>
       <c r="M26" t="n">
-        <v>154.6799658782106</v>
+        <v>8.890703168066004</v>
       </c>
       <c r="N26" t="n">
-        <v>188.6975728072867</v>
+        <v>49.5301694012427</v>
       </c>
       <c r="O26" t="n">
-        <v>116.0874577681237</v>
+        <v>35.74597009567722</v>
       </c>
       <c r="P26" t="n">
-        <v>40.46469487225583</v>
+        <v>110.2991899133187</v>
       </c>
       <c r="Q26" t="n">
-        <v>23.01748035186553</v>
+        <v>60.50800609198635</v>
       </c>
       <c r="R26" t="n">
-        <v>17.64784017423472</v>
+        <v>67.56499410600895</v>
       </c>
       <c r="S26" t="n">
-        <v>39.20082441409214</v>
+        <v>84.76312867258879</v>
       </c>
       <c r="T26" t="n">
-        <v>90.99687669291725</v>
+        <v>72.18765619913026</v>
       </c>
       <c r="U26" t="n">
-        <v>23.65565491650858</v>
+        <v>51.56002869652082</v>
       </c>
       <c r="V26" t="n">
-        <v>27.13157562720849</v>
+        <v>49.98114900503889</v>
       </c>
       <c r="W26" t="n">
-        <v>51.90864181560985</v>
+        <v>72.87644180104535</v>
       </c>
       <c r="X26" t="n">
-        <v>62.45814890091961</v>
+        <v>113.3146167278951</v>
       </c>
       <c r="Y26" t="n">
-        <v>102.0160139267385</v>
+        <v>53.4274310405938</v>
       </c>
       <c r="Z26" t="n">
-        <v>74.18382709148075</v>
+        <v>66.39490742735062</v>
       </c>
       <c r="AA26" t="n">
-        <v>70.68554470586727</v>
+        <v>109.0922154168535</v>
       </c>
       <c r="AB26" t="n">
-        <v>45.17388168506073</v>
+        <v>95.71643990569281</v>
       </c>
       <c r="AC26" t="n">
-        <v>121.9684093469651</v>
+        <v>98.2295738278976</v>
       </c>
       <c r="AD26" t="n">
-        <v>132.1242166635033</v>
+        <v>131.6342906895838</v>
       </c>
       <c r="AE26" t="n">
-        <v>27.50152006834177</v>
+        <v>142.5861496280161</v>
       </c>
       <c r="AF26" t="n">
-        <v>107.9308713587338</v>
+        <v>364.0876803849287</v>
       </c>
       <c r="AG26" t="n">
-        <v>172.9735691467637</v>
+        <v>68.99395388708787</v>
       </c>
       <c r="AH26" t="n">
-        <v>120.3519868229498</v>
+        <v>56.95701097135061</v>
       </c>
       <c r="AI26" t="n">
-        <v>95.66103447697191</v>
+        <v>78.6361065678278</v>
       </c>
       <c r="AJ26" t="n">
-        <v>64.68571488722333</v>
+        <v>27.64621538269985</v>
       </c>
       <c r="AK26" t="n">
-        <v>56.33395967105845</v>
+        <v>90.96141034003391</v>
       </c>
       <c r="AL26" t="n">
-        <v>49.84095410656951</v>
+        <v>23.45351420993146</v>
       </c>
       <c r="AM26" t="n">
-        <v>36.46539995531651</v>
+        <v>29.19435234160703</v>
       </c>
       <c r="AN26" t="n">
-        <v>13.04691394871204</v>
+        <v>15.22819245010832</v>
       </c>
       <c r="AO26" t="n">
-        <v>17.77380896318562</v>
+        <v>62.91790389587796</v>
       </c>
       <c r="AP26" t="n">
-        <v>21.03510759520529</v>
+        <v>47.6368339323105</v>
       </c>
       <c r="AQ26" t="n">
-        <v>14.33034487127581</v>
+        <v>16.0059080922883</v>
       </c>
       <c r="AR26" t="n">
-        <v>25.29201908530942</v>
+        <v>16.37162192262852</v>
       </c>
       <c r="AS26" t="n">
-        <v>14.4224351997421</v>
+        <v>25.8500562478602</v>
       </c>
       <c r="AT26" t="n">
-        <v>26.00459025139358</v>
+        <v>16.60097032855141</v>
       </c>
       <c r="AU26" t="n">
-        <v>16.04977157894001</v>
+        <v>11.95702634666511</v>
       </c>
       <c r="AV26" t="n">
-        <v>33.29988920555645</v>
+        <v>26.74106347395156</v>
       </c>
       <c r="AW26" t="n">
-        <v>15.81166713694622</v>
+        <v>12.28308659006526</v>
       </c>
       <c r="AX26" t="n">
-        <v>26.45626655348495</v>
+        <v>18.23025160960675</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>1.489117679619174</v>
+        <v>14.95332228691951</v>
       </c>
       <c r="D27" t="n">
-        <v>3.192448647095841</v>
+        <v>8.846325835319998</v>
       </c>
       <c r="E27" t="n">
-        <v>4.401087749552299</v>
+        <v>1.773197438122201</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5773894000000001</v>
+        <v>13.6285801490439</v>
       </c>
       <c r="G27" t="n">
-        <v>6.058820490275571</v>
+        <v>0.632958608012568</v>
       </c>
       <c r="H27" t="n">
-        <v>1.686042635318888</v>
+        <v>0.2087564629216619</v>
       </c>
       <c r="I27" t="n">
-        <v>12.282977248046</v>
+        <v>3.586346605415398</v>
       </c>
       <c r="J27" t="n">
-        <v>11.70182050576049</v>
+        <v>0.4511257562462583</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9417574070509271</v>
+        <v>0.8715895999096445</v>
       </c>
       <c r="L27" t="n">
-        <v>3.959357934967797</v>
+        <v>9.45058364117531</v>
       </c>
       <c r="M27" t="n">
-        <v>0.05070022541258466</v>
+        <v>3.474858801648015</v>
       </c>
       <c r="N27" t="n">
-        <v>4.350766072453658</v>
+        <v>1.518021859558747</v>
       </c>
       <c r="O27" t="n">
-        <v>2.345614074255989</v>
+        <v>2.585277261770514</v>
       </c>
       <c r="P27" t="n">
-        <v>2.028913082277351</v>
+        <v>3.227573220941131</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.052151548125432</v>
+        <v>9.570736524655514</v>
       </c>
       <c r="R27" t="n">
-        <v>1.294113223154483</v>
+        <v>1.939786093363642</v>
       </c>
       <c r="S27" t="n">
-        <v>2.112612859097127</v>
+        <v>7.689870563636709</v>
       </c>
       <c r="T27" t="n">
-        <v>5.011655456088527</v>
+        <v>7.801574922131588</v>
       </c>
       <c r="U27" t="n">
-        <v>3.84128</v>
+        <v>4.646406781409975</v>
       </c>
       <c r="V27" t="n">
-        <v>4.730603808443738</v>
+        <v>4.095177215153061</v>
       </c>
       <c r="W27" t="n">
-        <v>1.97693199789498</v>
+        <v>7.212991643701621</v>
       </c>
       <c r="X27" t="n">
-        <v>4.175530654693742</v>
+        <v>3.705620141536672</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.837830110003574</v>
+        <v>2.697912642899719</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.557124041468361</v>
+        <v>2.392617088177419</v>
       </c>
       <c r="AA27" t="n">
-        <v>3.483390379949481</v>
+        <v>2.505425656337084</v>
       </c>
       <c r="AB27" t="n">
-        <v>2.663389143239251</v>
+        <v>5.89561230182682</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.485240942628061</v>
+        <v>4.991070835062251</v>
       </c>
       <c r="AD27" t="n">
-        <v>1.9410340826097</v>
+        <v>4.260281090689364</v>
       </c>
       <c r="AE27" t="n">
-        <v>6.408950676331508</v>
+        <v>6.230575922115363</v>
       </c>
       <c r="AF27" t="n">
-        <v>7.52205668998943</v>
+        <v>6.940219321456649</v>
       </c>
       <c r="AG27" t="n">
-        <v>4.735328173691165</v>
+        <v>4.243662444579104</v>
       </c>
       <c r="AH27" t="n">
-        <v>6.352669725679252</v>
+        <v>2.915600540259592</v>
       </c>
       <c r="AI27" t="n">
-        <v>9.188733590031227</v>
+        <v>14.90516729644919</v>
       </c>
       <c r="AJ27" t="n">
-        <v>4.171104853706653</v>
+        <v>8.653343788487932</v>
       </c>
       <c r="AK27" t="n">
-        <v>5.58363275241083</v>
+        <v>3.310511399586573</v>
       </c>
       <c r="AL27" t="n">
-        <v>3.990204060876949</v>
+        <v>3.172333053828916</v>
       </c>
       <c r="AM27" t="n">
-        <v>5.065707849268447</v>
+        <v>4.201482229668752</v>
       </c>
       <c r="AN27" t="n">
-        <v>5.826522637706111</v>
+        <v>5.45861172419158</v>
       </c>
       <c r="AO27" t="n">
-        <v>3.704053449620214</v>
+        <v>2.764833483179451</v>
       </c>
       <c r="AP27" t="n">
-        <v>3.7457748712297</v>
+        <v>6.942490242675566</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.781683283489374</v>
+        <v>4.703644274524715</v>
       </c>
       <c r="AR27" t="n">
-        <v>3.330077115597446</v>
+        <v>5.164805015767383</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.1029624183006647</v>
+        <v>6.366509724941532</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.376344360510542</v>
+        <v>3.167387615355938</v>
       </c>
       <c r="AU27" t="n">
-        <v>3.968930401357882</v>
+        <v>8.094165943256366</v>
       </c>
       <c r="AV27" t="n">
-        <v>1.048448376817129</v>
+        <v>4.566878804204728</v>
       </c>
       <c r="AW27" t="n">
-        <v>3.470185714157815</v>
+        <v>2.027738502193807</v>
       </c>
       <c r="AX27" t="n">
-        <v>3.152077545611558</v>
+        <v>12.67527073303605</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>9.960022154833608</v>
+        <v>12.15200424731199</v>
       </c>
       <c r="D28" t="n">
-        <v>6.840911607683102</v>
+        <v>6.01979935743838</v>
       </c>
       <c r="E28" t="n">
-        <v>9.907464768132407</v>
+        <v>7.014292557572711</v>
       </c>
       <c r="F28" t="n">
-        <v>19.10329494459669</v>
+        <v>46.49021463050548</v>
       </c>
       <c r="G28" t="n">
-        <v>18.75649447072151</v>
+        <v>5.518816073974164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.89444132194245</v>
+        <v>28.93462108226404</v>
       </c>
       <c r="I28" t="n">
-        <v>71.38898675291065</v>
+        <v>20.90010350534046</v>
       </c>
       <c r="J28" t="n">
-        <v>160.0379869798196</v>
+        <v>23.86711767788408</v>
       </c>
       <c r="K28" t="n">
-        <v>11.07711785639036</v>
+        <v>34.4318289969268</v>
       </c>
       <c r="L28" t="n">
-        <v>128.358706225672</v>
+        <v>179.8810463827414</v>
       </c>
       <c r="M28" t="n">
-        <v>128.975887162898</v>
+        <v>58.69084998002729</v>
       </c>
       <c r="N28" t="n">
-        <v>19.08402352520015</v>
+        <v>88.76652189997264</v>
       </c>
       <c r="O28" t="n">
-        <v>50.80170526200362</v>
+        <v>94.53075240701151</v>
       </c>
       <c r="P28" t="n">
-        <v>47.7497084959721</v>
+        <v>35.86255319340458</v>
       </c>
       <c r="Q28" t="n">
-        <v>54.84706301315659</v>
+        <v>63.30479160338501</v>
       </c>
       <c r="R28" t="n">
-        <v>290.1392412969707</v>
+        <v>48.98762004767508</v>
       </c>
       <c r="S28" t="n">
-        <v>39.97426968615762</v>
+        <v>156.1546750132205</v>
       </c>
       <c r="T28" t="n">
-        <v>58.47112407448956</v>
+        <v>106.8385127396183</v>
       </c>
       <c r="U28" t="n">
-        <v>135.6117666747232</v>
+        <v>38.40195323582623</v>
       </c>
       <c r="V28" t="n">
-        <v>132.5556994897405</v>
+        <v>129.823417487114</v>
       </c>
       <c r="W28" t="n">
-        <v>87.5616863729924</v>
+        <v>26.39963649801773</v>
       </c>
       <c r="X28" t="n">
-        <v>55.62488608073807</v>
+        <v>78.86835413210441</v>
       </c>
       <c r="Y28" t="n">
-        <v>26.88748442599686</v>
+        <v>77.98521715299636</v>
       </c>
       <c r="Z28" t="n">
-        <v>49.90439002355115</v>
+        <v>39.06861006076909</v>
       </c>
       <c r="AA28" t="n">
-        <v>49.84726806660301</v>
+        <v>60.79420774520646</v>
       </c>
       <c r="AB28" t="n">
-        <v>31.25866981249229</v>
+        <v>54.46731390994974</v>
       </c>
       <c r="AC28" t="n">
-        <v>70.73091811414393</v>
+        <v>72.49982409457544</v>
       </c>
       <c r="AD28" t="n">
-        <v>79.70009654826677</v>
+        <v>62.49429988440011</v>
       </c>
       <c r="AE28" t="n">
-        <v>65.50584194882956</v>
+        <v>40.77271202373995</v>
       </c>
       <c r="AF28" t="n">
-        <v>97.89720900122727</v>
+        <v>37.77267889397167</v>
       </c>
       <c r="AG28" t="n">
-        <v>86.24250246754234</v>
+        <v>72.46328334365195</v>
       </c>
       <c r="AH28" t="n">
-        <v>51.34159360831185</v>
+        <v>50.09608514805964</v>
       </c>
       <c r="AI28" t="n">
-        <v>53.63364006584312</v>
+        <v>35.97657762841489</v>
       </c>
       <c r="AJ28" t="n">
-        <v>63.55957703188852</v>
+        <v>87.50708962828506</v>
       </c>
       <c r="AK28" t="n">
-        <v>80.79447421437089</v>
+        <v>67.5683838380284</v>
       </c>
       <c r="AL28" t="n">
-        <v>10.88203846658</v>
+        <v>45.60477300411051</v>
       </c>
       <c r="AM28" t="n">
-        <v>66.77799649373416</v>
+        <v>37.54462553713675</v>
       </c>
       <c r="AN28" t="n">
-        <v>38.28261723109263</v>
+        <v>25.86191277553422</v>
       </c>
       <c r="AO28" t="n">
-        <v>35.105015201116</v>
+        <v>8.208527225349068</v>
       </c>
       <c r="AP28" t="n">
-        <v>9.819989466940818</v>
+        <v>13.09087350833215</v>
       </c>
       <c r="AQ28" t="n">
-        <v>21.15496653061225</v>
+        <v>29.30942932993092</v>
       </c>
       <c r="AR28" t="n">
-        <v>18.00030605546123</v>
+        <v>16.62311682171751</v>
       </c>
       <c r="AS28" t="n">
-        <v>8.043257114908631</v>
+        <v>21.27943364253466</v>
       </c>
       <c r="AT28" t="n">
-        <v>19.5332820731881</v>
+        <v>15.74700395852286</v>
       </c>
       <c r="AU28" t="n">
-        <v>28.66790836093593</v>
+        <v>7.73003479216745</v>
       </c>
       <c r="AV28" t="n">
-        <v>8.661619433295755</v>
+        <v>17.91664957767006</v>
       </c>
       <c r="AW28" t="n">
-        <v>11.09564569635931</v>
+        <v>7.027489345637692</v>
       </c>
       <c r="AX28" t="n">
-        <v>9.168083207962646</v>
+        <v>9.093220713975617</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>24.95582371685759</v>
+        <v>7.766760907386234</v>
       </c>
       <c r="D29" t="n">
-        <v>27.74125602974767</v>
+        <v>6.412931542759696</v>
       </c>
       <c r="E29" t="n">
-        <v>4.77356899203355</v>
+        <v>7.854803212997092</v>
       </c>
       <c r="F29" t="n">
-        <v>6.721189102295703</v>
+        <v>26.87201094476868</v>
       </c>
       <c r="G29" t="n">
-        <v>36.20038512854688</v>
+        <v>8.888811171211952</v>
       </c>
       <c r="H29" t="n">
-        <v>5.487020342153127</v>
+        <v>18.62832889821924</v>
       </c>
       <c r="I29" t="n">
-        <v>6.241888242893097</v>
+        <v>14.07458377786284</v>
       </c>
       <c r="J29" t="n">
-        <v>17.87230185157242</v>
+        <v>27.00837695895351</v>
       </c>
       <c r="K29" t="n">
-        <v>14.03657041912939</v>
+        <v>52.00071706067425</v>
       </c>
       <c r="L29" t="n">
-        <v>113.7008920471434</v>
+        <v>31.65335153195173</v>
       </c>
       <c r="M29" t="n">
-        <v>63.83529217831472</v>
+        <v>9.138327183827977</v>
       </c>
       <c r="N29" t="n">
-        <v>51.57755017086286</v>
+        <v>27.28417629709426</v>
       </c>
       <c r="O29" t="n">
-        <v>54.40737830510056</v>
+        <v>91.26490418359953</v>
       </c>
       <c r="P29" t="n">
-        <v>229.2689243021165</v>
+        <v>50.90506567017454</v>
       </c>
       <c r="Q29" t="n">
-        <v>27.91178173084369</v>
+        <v>57.90491762672729</v>
       </c>
       <c r="R29" t="n">
-        <v>85.20089968095361</v>
+        <v>19.50935790665724</v>
       </c>
       <c r="S29" t="n">
-        <v>21.45087535794529</v>
+        <v>32.38087568018268</v>
       </c>
       <c r="T29" t="n">
-        <v>111.9661569169791</v>
+        <v>147.7834545779057</v>
       </c>
       <c r="U29" t="n">
-        <v>66.3251585067955</v>
+        <v>58.5424138195166</v>
       </c>
       <c r="V29" t="n">
-        <v>74.65651771528709</v>
+        <v>49.01234006249946</v>
       </c>
       <c r="W29" t="n">
-        <v>20.88677521775664</v>
+        <v>37.60651766591435</v>
       </c>
       <c r="X29" t="n">
-        <v>24.2015150181146</v>
+        <v>43.99491321171338</v>
       </c>
       <c r="Y29" t="n">
-        <v>30.45544581530601</v>
+        <v>10.80088592207058</v>
       </c>
       <c r="Z29" t="n">
-        <v>14.77361838268192</v>
+        <v>15.49165959774461</v>
       </c>
       <c r="AA29" t="n">
-        <v>100.3012945566117</v>
+        <v>22.02341707092566</v>
       </c>
       <c r="AB29" t="n">
-        <v>20.55633657862977</v>
+        <v>10.12390453248422</v>
       </c>
       <c r="AC29" t="n">
-        <v>110.3966771995034</v>
+        <v>24.92391549961857</v>
       </c>
       <c r="AD29" t="n">
-        <v>31.53241372916339</v>
+        <v>6.697778286989954</v>
       </c>
       <c r="AE29" t="n">
-        <v>35.21042072311543</v>
+        <v>81.54501712442145</v>
       </c>
       <c r="AF29" t="n">
-        <v>13.95691214500969</v>
+        <v>18.24898853754845</v>
       </c>
       <c r="AG29" t="n">
-        <v>112.360160003931</v>
+        <v>11.49615844600766</v>
       </c>
       <c r="AH29" t="n">
-        <v>13.91201450886745</v>
+        <v>14.95091509271869</v>
       </c>
       <c r="AI29" t="n">
-        <v>34.44297011734298</v>
+        <v>25.89274659004171</v>
       </c>
       <c r="AJ29" t="n">
-        <v>31.07639916503323</v>
+        <v>22.41845702881512</v>
       </c>
       <c r="AK29" t="n">
-        <v>22.52437352014023</v>
+        <v>14.08397896860774</v>
       </c>
       <c r="AL29" t="n">
-        <v>32.0148105730553</v>
+        <v>6.512534120734241</v>
       </c>
       <c r="AM29" t="n">
-        <v>7.124886490578378</v>
+        <v>153.1613358936939</v>
       </c>
       <c r="AN29" t="n">
-        <v>25.18073695898163</v>
+        <v>21.74739018382737</v>
       </c>
       <c r="AO29" t="n">
-        <v>30.24555872578717</v>
+        <v>63.16628517059171</v>
       </c>
       <c r="AP29" t="n">
-        <v>19.60663667787841</v>
+        <v>39.2398224001491</v>
       </c>
       <c r="AQ29" t="n">
-        <v>10.3424729714162</v>
+        <v>13.85330180324264</v>
       </c>
       <c r="AR29" t="n">
-        <v>26.1811400462432</v>
+        <v>16.90536567434298</v>
       </c>
       <c r="AS29" t="n">
-        <v>23.89189782287771</v>
+        <v>16.46860063543741</v>
       </c>
       <c r="AT29" t="n">
-        <v>22.48830447303459</v>
+        <v>16.96131222991754</v>
       </c>
       <c r="AU29" t="n">
-        <v>23.77016097502075</v>
+        <v>7.02761178851955</v>
       </c>
       <c r="AV29" t="n">
-        <v>30.18933768508498</v>
+        <v>24.07834479766034</v>
       </c>
       <c r="AW29" t="n">
-        <v>24.73305983037478</v>
+        <v>23.89243964945597</v>
       </c>
       <c r="AX29" t="n">
-        <v>20.21336679054436</v>
+        <v>27.17634198204063</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>7.617733404994607</v>
+        <v>1.546849693904757</v>
       </c>
       <c r="D30" t="n">
-        <v>1.490166857017587</v>
+        <v>7.710712918461243</v>
       </c>
       <c r="E30" t="n">
-        <v>2.387019414285056</v>
+        <v>5.395053160138265</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8497238017871653</v>
+        <v>3.648005122212469</v>
       </c>
       <c r="G30" t="n">
-        <v>1.469306357064838</v>
+        <v>2.672409415530906</v>
       </c>
       <c r="H30" t="n">
-        <v>3.82059944458059</v>
+        <v>11.08069816139301</v>
       </c>
       <c r="I30" t="n">
-        <v>8.546351035233254</v>
+        <v>10.72421748290007</v>
       </c>
       <c r="J30" t="n">
-        <v>61.78214756764617</v>
+        <v>3.263046520683035</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34458583118882</v>
+        <v>31.96519045740356</v>
       </c>
       <c r="L30" t="n">
-        <v>10.03124117594637</v>
+        <v>14.15468247251668</v>
       </c>
       <c r="M30" t="n">
-        <v>50.61342857142857</v>
+        <v>34.70142957563417</v>
       </c>
       <c r="N30" t="n">
-        <v>28.84605874037441</v>
+        <v>30.43705623340819</v>
       </c>
       <c r="O30" t="n">
-        <v>26.81748819504559</v>
+        <v>33.89536735633173</v>
       </c>
       <c r="P30" t="n">
-        <v>9.839982678229923</v>
+        <v>51.63805650056933</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.68887282536379</v>
+        <v>15.98015930316835</v>
       </c>
       <c r="R30" t="n">
-        <v>9.941668327757652</v>
+        <v>57.59675041082038</v>
       </c>
       <c r="S30" t="n">
-        <v>11.1848296611784</v>
+        <v>31.71620269545474</v>
       </c>
       <c r="T30" t="n">
-        <v>11.67380747072479</v>
+        <v>60.87017752058986</v>
       </c>
       <c r="U30" t="n">
-        <v>36.69659833248708</v>
+        <v>11.65499259059141</v>
       </c>
       <c r="V30" t="n">
-        <v>12.81620839793273</v>
+        <v>7.273320773027635</v>
       </c>
       <c r="W30" t="n">
-        <v>23.3327645398834</v>
+        <v>22.04063780747846</v>
       </c>
       <c r="X30" t="n">
-        <v>9.87021465902445</v>
+        <v>36.64075717358062</v>
       </c>
       <c r="Y30" t="n">
-        <v>11.72705103936215</v>
+        <v>39.31414885282951</v>
       </c>
       <c r="Z30" t="n">
-        <v>12.69554945007956</v>
+        <v>25.2518027478592</v>
       </c>
       <c r="AA30" t="n">
-        <v>11.32619526849935</v>
+        <v>28.16459000326603</v>
       </c>
       <c r="AB30" t="n">
-        <v>20.35067582898453</v>
+        <v>21.69486010160956</v>
       </c>
       <c r="AC30" t="n">
-        <v>23.34530607231411</v>
+        <v>32.11864983678614</v>
       </c>
       <c r="AD30" t="n">
-        <v>11.5295496</v>
+        <v>16.24333731436133</v>
       </c>
       <c r="AE30" t="n">
-        <v>17.44229142857143</v>
+        <v>19.61819283175211</v>
       </c>
       <c r="AF30" t="n">
-        <v>21.69964669303208</v>
+        <v>10.26163809980629</v>
       </c>
       <c r="AG30" t="n">
-        <v>7.581381039133549</v>
+        <v>10.35346177829675</v>
       </c>
       <c r="AH30" t="n">
-        <v>9.377548000095372</v>
+        <v>22.30204723395764</v>
       </c>
       <c r="AI30" t="n">
-        <v>7.832781279305113</v>
+        <v>5.551933604382087</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9.285096575260454</v>
+        <v>6.079680534500884</v>
       </c>
       <c r="AK30" t="n">
-        <v>8.592560385985518</v>
+        <v>6.43367614617651</v>
       </c>
       <c r="AL30" t="n">
-        <v>4.158684843629247</v>
+        <v>11.76498422557631</v>
       </c>
       <c r="AM30" t="n">
-        <v>2.597663098203471</v>
+        <v>5.430017674402912</v>
       </c>
       <c r="AN30" t="n">
-        <v>7.351268593119403</v>
+        <v>2.866378422280003</v>
       </c>
       <c r="AO30" t="n">
-        <v>2.5430096785872</v>
+        <v>2.603539767274268</v>
       </c>
       <c r="AP30" t="n">
-        <v>9.685748501922152</v>
+        <v>1.912372958782568</v>
       </c>
       <c r="AQ30" t="n">
-        <v>3.847330445391338</v>
+        <v>1.69275290747924</v>
       </c>
       <c r="AR30" t="n">
-        <v>0.7895751610408085</v>
+        <v>2.088956524249469</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.458571428571428</v>
+        <v>2.18255813461643</v>
       </c>
       <c r="AT30" t="n">
-        <v>4.678523619597414</v>
+        <v>3.037039024809613</v>
       </c>
       <c r="AU30" t="n">
-        <v>2.919380531631944</v>
+        <v>2.302795739724919</v>
       </c>
       <c r="AV30" t="n">
-        <v>4.090850113851229</v>
+        <v>0.4471013555619562</v>
       </c>
       <c r="AW30" t="n">
-        <v>1.094687880646799</v>
+        <v>1.082374691582445</v>
       </c>
       <c r="AX30" t="n">
-        <v>13.25467754989985</v>
+        <v>10.2953424187053</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>6.21</v>
+        <v>4.553505806357873</v>
       </c>
       <c r="D31" t="n">
-        <v>30.39</v>
+        <v>5.244220913461827</v>
       </c>
       <c r="E31" t="n">
-        <v>8.68</v>
+        <v>8.514761718449421</v>
       </c>
       <c r="F31" t="n">
-        <v>30.39</v>
+        <v>23.8916920935999</v>
       </c>
       <c r="G31" t="n">
-        <v>7.97</v>
+        <v>25.84552467036138</v>
       </c>
       <c r="H31" t="n">
-        <v>15.03</v>
+        <v>16.52217245518697</v>
       </c>
       <c r="I31" t="n">
-        <v>14.18</v>
+        <v>37.9851679551441</v>
       </c>
       <c r="J31" t="n">
-        <v>40.81</v>
+        <v>7.163919276542805</v>
       </c>
       <c r="K31" t="n">
-        <v>45.63</v>
+        <v>6.241262071952473</v>
       </c>
       <c r="L31" t="n">
-        <v>28.23</v>
+        <v>13.0265294572694</v>
       </c>
       <c r="M31" t="n">
-        <v>30.07</v>
+        <v>7.232582120038474</v>
       </c>
       <c r="N31" t="n">
-        <v>106.5</v>
+        <v>17.84407851818049</v>
       </c>
       <c r="O31" t="n">
-        <v>1.52</v>
+        <v>51.18258048340363</v>
       </c>
       <c r="P31" t="n">
-        <v>31.9</v>
+        <v>7.747605432261725</v>
       </c>
       <c r="Q31" t="n">
-        <v>30.73</v>
+        <v>51.37469619234178</v>
       </c>
       <c r="R31" t="n">
-        <v>11.7</v>
+        <v>82.53698438097602</v>
       </c>
       <c r="S31" t="n">
-        <v>56.58</v>
+        <v>35.92173501443468</v>
       </c>
       <c r="T31" t="n">
-        <v>21.94</v>
+        <v>18.25573909383064</v>
       </c>
       <c r="U31" t="n">
-        <v>53.45</v>
+        <v>13.64358484212727</v>
       </c>
       <c r="V31" t="n">
-        <v>22.06</v>
+        <v>4.440511716038269</v>
       </c>
       <c r="W31" t="n">
-        <v>14.77</v>
+        <v>11.37663493140191</v>
       </c>
       <c r="X31" t="n">
-        <v>35.23</v>
+        <v>2.991493800740401</v>
       </c>
       <c r="Y31" t="n">
-        <v>51.13</v>
+        <v>32.47851673665806</v>
       </c>
       <c r="Z31" t="n">
-        <v>3.428736736935006</v>
+        <v>45.46527403031345</v>
       </c>
       <c r="AA31" t="n">
-        <v>24.94</v>
+        <v>31.06132537072683</v>
       </c>
       <c r="AB31" t="n">
-        <v>15.26</v>
+        <v>9.833339095901982</v>
       </c>
       <c r="AC31" t="n">
-        <v>32.36</v>
+        <v>1.145101760572749</v>
       </c>
       <c r="AD31" t="n">
-        <v>23.82</v>
+        <v>45.63366156906495</v>
       </c>
       <c r="AE31" t="n">
-        <v>20.67</v>
+        <v>14.03213493437999</v>
       </c>
       <c r="AF31" t="n">
-        <v>4.37</v>
+        <v>7.803505958798149</v>
       </c>
       <c r="AG31" t="n">
-        <v>13.94</v>
+        <v>10.23722976728808</v>
       </c>
       <c r="AH31" t="n">
-        <v>1.07</v>
+        <v>6.653885034716311</v>
       </c>
       <c r="AI31" t="n">
-        <v>11.22</v>
+        <v>38.75788249568195</v>
       </c>
       <c r="AJ31" t="n">
-        <v>6.675674117438353</v>
+        <v>5.954139306580215</v>
       </c>
       <c r="AK31" t="n">
-        <v>2.66</v>
+        <v>4.242698906895382</v>
       </c>
       <c r="AL31" t="n">
-        <v>22.75</v>
+        <v>15.38366667510249</v>
       </c>
       <c r="AM31" t="n">
-        <v>23.87</v>
+        <v>0.2017107072066116</v>
       </c>
       <c r="AN31" t="n">
-        <v>4.85</v>
+        <v>3.745872859208851</v>
       </c>
       <c r="AO31" t="n">
-        <v>71.84</v>
+        <v>7.491189109321977</v>
       </c>
       <c r="AP31" t="n">
-        <v>6.83</v>
+        <v>4.758653446574058</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.58</v>
+        <v>2.23924971831232</v>
       </c>
       <c r="AR31" t="n">
-        <v>1.58</v>
+        <v>12.43184328233606</v>
       </c>
       <c r="AS31" t="n">
-        <v>3.789709554670829</v>
+        <v>3.872886038420552</v>
       </c>
       <c r="AT31" t="n">
-        <v>13.7</v>
+        <v>2.004547821868389</v>
       </c>
       <c r="AU31" t="n">
-        <v>3.68</v>
+        <v>5.751648057627708</v>
       </c>
       <c r="AV31" t="n">
-        <v>7.34</v>
+        <v>5.759437926343257</v>
       </c>
       <c r="AW31" t="n">
-        <v>7.34</v>
+        <v>1.489438990417317</v>
       </c>
       <c r="AX31" t="n">
-        <v>28.04</v>
+        <v>2.144531628211022</v>
       </c>
     </row>
   </sheetData>

--- a/escenarios_montecarlo/escenario_003.xlsx
+++ b/escenarios_montecarlo/escenario_003.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>16.7275023271436</v>
+        <v>14.94009219276394</v>
       </c>
       <c r="D2" t="n">
-        <v>27.29525939277501</v>
+        <v>18.32766728656312</v>
       </c>
       <c r="E2" t="n">
-        <v>38.05019176461839</v>
+        <v>6.43001806166424</v>
       </c>
       <c r="F2" t="n">
-        <v>21.92993067838865</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>24.70342233994738</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>33.02670498573804</v>
+        <v>68.53484689898201</v>
       </c>
       <c r="I2" t="n">
-        <v>58.72885051197727</v>
+        <v>11.90074896844377</v>
       </c>
       <c r="J2" t="n">
-        <v>72.73423875865726</v>
+        <v>21.90285641386336</v>
       </c>
       <c r="K2" t="n">
-        <v>80.59378958483582</v>
+        <v>4.725842095257224</v>
       </c>
       <c r="L2" t="n">
-        <v>41.33235580582466</v>
+        <v>74.55550878222076</v>
       </c>
       <c r="M2" t="n">
-        <v>40.89718201039712</v>
+        <v>70.94766921726438</v>
       </c>
       <c r="N2" t="n">
-        <v>59.40043914875084</v>
+        <v>83.26330165600126</v>
       </c>
       <c r="O2" t="n">
-        <v>102.964556696688</v>
+        <v>155.3387983499738</v>
       </c>
       <c r="P2" t="n">
-        <v>34.06941825721574</v>
+        <v>38.91213824762334</v>
       </c>
       <c r="Q2" t="n">
-        <v>92.07067660558717</v>
+        <v>151.1506397210067</v>
       </c>
       <c r="R2" t="n">
-        <v>52.73226524750788</v>
+        <v>64.89403219466513</v>
       </c>
       <c r="S2" t="n">
-        <v>27.1454428701183</v>
+        <v>49.50082414824624</v>
       </c>
       <c r="T2" t="n">
-        <v>20.39367723199512</v>
+        <v>50.30696476937426</v>
       </c>
       <c r="U2" t="n">
-        <v>143.6670312277141</v>
+        <v>72.65150679814241</v>
       </c>
       <c r="V2" t="n">
-        <v>65.40383225420129</v>
+        <v>89.83414884846772</v>
       </c>
       <c r="W2" t="n">
-        <v>101.8785734830261</v>
+        <v>67.19142266098712</v>
       </c>
       <c r="X2" t="n">
-        <v>32.26424435397595</v>
+        <v>18.01813379313206</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.51358740895969</v>
+        <v>8.855774821517691</v>
       </c>
       <c r="Z2" t="n">
-        <v>49.90136910214645</v>
+        <v>63.48867213976766</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.37779280181829</v>
+        <v>61.83761316406363</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.0972822749304</v>
+        <v>63.68329901133361</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.5965691619805</v>
+        <v>100.8748842927289</v>
       </c>
       <c r="AD2" t="n">
-        <v>88.96516449390361</v>
+        <v>138.2067585108989</v>
       </c>
       <c r="AE2" t="n">
-        <v>93.17385959529591</v>
+        <v>174.9313080675668</v>
       </c>
       <c r="AF2" t="n">
-        <v>63.71014625742537</v>
+        <v>113.454909714538</v>
       </c>
       <c r="AG2" t="n">
-        <v>180.0924508236817</v>
+        <v>87.18220971971748</v>
       </c>
       <c r="AH2" t="n">
-        <v>52.8824509975868</v>
+        <v>53.62964631370987</v>
       </c>
       <c r="AI2" t="n">
-        <v>53.7574557711599</v>
+        <v>101.2407489732864</v>
       </c>
       <c r="AJ2" t="n">
-        <v>46.62310273344079</v>
+        <v>82.06378224861568</v>
       </c>
       <c r="AK2" t="n">
-        <v>60.86907150919004</v>
+        <v>91.75940301948762</v>
       </c>
       <c r="AL2" t="n">
-        <v>38.07452372635166</v>
+        <v>39.48807365845852</v>
       </c>
       <c r="AM2" t="n">
-        <v>67.06727104641121</v>
+        <v>51.62807986436901</v>
       </c>
       <c r="AN2" t="n">
-        <v>41.03831098798961</v>
+        <v>20.90720668539009</v>
       </c>
       <c r="AO2" t="n">
-        <v>62.14711385011589</v>
+        <v>38.53974269150842</v>
       </c>
       <c r="AP2" t="n">
-        <v>16.22367481144387</v>
+        <v>19.53521690773705</v>
       </c>
       <c r="AQ2" t="n">
-        <v>17.12559593447312</v>
+        <v>16.25274572696854</v>
       </c>
       <c r="AR2" t="n">
-        <v>22.65892916624862</v>
+        <v>17.16298115138047</v>
       </c>
       <c r="AS2" t="n">
-        <v>16.6327282746319</v>
+        <v>24.3602592006589</v>
       </c>
       <c r="AT2" t="n">
-        <v>28.14094515264386</v>
+        <v>14.93712078427071</v>
       </c>
       <c r="AU2" t="n">
-        <v>44.84576574241548</v>
+        <v>19.63189992785184</v>
       </c>
       <c r="AV2" t="n">
-        <v>39.24164796044172</v>
+        <v>23.03625026876242</v>
       </c>
       <c r="AW2" t="n">
-        <v>17.12449700536033</v>
+        <v>41.40302491771752</v>
       </c>
       <c r="AX2" t="n">
-        <v>19.37502051976196</v>
+        <v>27.32297614812806</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1001387511089689</v>
+        <v>3.097865038793833</v>
       </c>
       <c r="D3" t="n">
-        <v>3.796971447667459</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.1239151730804</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3263868448243266</v>
+        <v>8.979784340045017</v>
       </c>
       <c r="G3" t="n">
-        <v>6.224715797737694</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>8.5209157361233</v>
+        <v>3.178045899815398</v>
       </c>
       <c r="I3" t="n">
-        <v>1.843495264222124</v>
+        <v>5.932037215314532</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4027834347713818</v>
+        <v>2.945928013853798</v>
       </c>
       <c r="K3" t="n">
-        <v>10.80227622923102</v>
+        <v>1.65246191481631</v>
       </c>
       <c r="L3" t="n">
-        <v>7.546401901743437</v>
+        <v>1.208621809391892</v>
       </c>
       <c r="M3" t="n">
-        <v>22.64605061162864</v>
+        <v>4.535375383546042</v>
       </c>
       <c r="N3" t="n">
-        <v>2.06398572359713</v>
+        <v>2.821629569871737</v>
       </c>
       <c r="O3" t="n">
-        <v>5.129730386517852</v>
+        <v>1.483410631219042</v>
       </c>
       <c r="P3" t="n">
-        <v>4.942898672400199</v>
+        <v>10.8099895004778</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.8066756181876</v>
+        <v>6.664570779598467</v>
       </c>
       <c r="R3" t="n">
-        <v>22.59002448804374</v>
+        <v>3.413050228294042</v>
       </c>
       <c r="S3" t="n">
-        <v>4.698120975302299</v>
+        <v>0.3571641342484356</v>
       </c>
       <c r="T3" t="n">
-        <v>3.0300924152741</v>
+        <v>2.723530262039465</v>
       </c>
       <c r="U3" t="n">
-        <v>8.406328746333326</v>
+        <v>4.309094809478421</v>
       </c>
       <c r="V3" t="n">
-        <v>6.388807028383326</v>
+        <v>3.146754926498074</v>
       </c>
       <c r="W3" t="n">
-        <v>2.260932869651096</v>
+        <v>3.852226998760651</v>
       </c>
       <c r="X3" t="n">
-        <v>3.14182307176138</v>
+        <v>1.779658233357731</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.942502325667324</v>
+        <v>2.395057941496405</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.305201787324607</v>
+        <v>5.43592623687329</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.705652831784853</v>
+        <v>3.274608003608826</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.029193497408461</v>
+        <v>4.99159514078735</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.330131902657401</v>
+        <v>4.648338122267436</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.963137703216805</v>
+        <v>2.84283959717884</v>
       </c>
       <c r="AE3" t="n">
-        <v>12.03984827588079</v>
+        <v>8.624961119929612</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.717924133010779</v>
+        <v>6.530228211792411</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.502997717438944</v>
+        <v>5.491770110818242</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.199294993869355</v>
+        <v>6.469946981729979</v>
       </c>
       <c r="AI3" t="n">
-        <v>9.077895359431102</v>
+        <v>7.363502868054455</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.201785500528238</v>
+        <v>5.754225346403214</v>
       </c>
       <c r="AK3" t="n">
-        <v>5.285700466776619</v>
+        <v>6.935913691594795</v>
       </c>
       <c r="AL3" t="n">
-        <v>4.324250560900863</v>
+        <v>4.50191416426435</v>
       </c>
       <c r="AM3" t="n">
-        <v>2.621157418614456</v>
+        <v>3.821750805188422</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.255695799277302</v>
+        <v>4.412198292741395</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.247212408054206</v>
+        <v>3.550239562500585</v>
       </c>
       <c r="AP3" t="n">
-        <v>4.605657516133665</v>
+        <v>4.028357717055838</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3.424810047803716</v>
+        <v>0.4929143682617191</v>
       </c>
       <c r="AR3" t="n">
-        <v>6.089658501820106</v>
+        <v>3.387554022382757</v>
       </c>
       <c r="AS3" t="n">
-        <v>3.122641692306985</v>
+        <v>1.868598502267538</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.83554049924339</v>
+        <v>5.971108347063543</v>
       </c>
       <c r="AU3" t="n">
-        <v>2.820670391295405</v>
+        <v>5.1521404875398</v>
       </c>
       <c r="AV3" t="n">
-        <v>3.815973666660317</v>
+        <v>2.854990403887992</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.960562623704357</v>
+        <v>3.61954265270349</v>
       </c>
       <c r="AX3" t="n">
-        <v>2.893942412655328</v>
+        <v>3.314824240833645</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>14.47225730063385</v>
+        <v>18.16667507912894</v>
       </c>
       <c r="D4" t="n">
-        <v>16.16844885638063</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.521288566168762</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>7.689677904259643</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>21.95259482843758</v>
+        <v>8.491190947714088</v>
       </c>
       <c r="H4" t="n">
-        <v>10.52296744326099</v>
+        <v>91.23175145228343</v>
       </c>
       <c r="I4" t="n">
-        <v>16.45239031200972</v>
+        <v>10.51464041365372</v>
       </c>
       <c r="J4" t="n">
-        <v>19.902064700382</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>12.39072587564499</v>
+        <v>23.1145948374489</v>
       </c>
       <c r="L4" t="n">
-        <v>46.234628877381</v>
+        <v>47.46190149978219</v>
       </c>
       <c r="M4" t="n">
-        <v>29.93281597195217</v>
+        <v>67.89096349365644</v>
       </c>
       <c r="N4" t="n">
-        <v>60.87327244901472</v>
+        <v>31.66315828023038</v>
       </c>
       <c r="O4" t="n">
-        <v>231.6698395170352</v>
+        <v>0.008306565707563607</v>
       </c>
       <c r="P4" t="n">
-        <v>90.07045221911325</v>
+        <v>68.20140417333248</v>
       </c>
       <c r="Q4" t="n">
-        <v>55.65261693419737</v>
+        <v>230.1516598852857</v>
       </c>
       <c r="R4" t="n">
-        <v>102.3069591215832</v>
+        <v>94.69531385006405</v>
       </c>
       <c r="S4" t="n">
-        <v>35.21196703083378</v>
+        <v>30.77597430871433</v>
       </c>
       <c r="T4" t="n">
-        <v>93.51046251413918</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>45.5170696343919</v>
+        <v>50.45918982957213</v>
       </c>
       <c r="V4" t="n">
-        <v>46.05436092520603</v>
+        <v>61.12718616550275</v>
       </c>
       <c r="W4" t="n">
-        <v>50.18845715978838</v>
+        <v>43.37733642409941</v>
       </c>
       <c r="X4" t="n">
-        <v>71.0517918665871</v>
+        <v>76.241977338883</v>
       </c>
       <c r="Y4" t="n">
-        <v>73.37976758208359</v>
+        <v>44.13061503033487</v>
       </c>
       <c r="Z4" t="n">
-        <v>61.21347031875948</v>
+        <v>59.36614630108306</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.02302604540759</v>
+        <v>46.29406617346667</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.59914361170135</v>
+        <v>69.31109215053715</v>
       </c>
       <c r="AC4" t="n">
-        <v>99.78526192133884</v>
+        <v>65.65952876270089</v>
       </c>
       <c r="AD4" t="n">
-        <v>70.00525930152673</v>
+        <v>42.7551997881358</v>
       </c>
       <c r="AE4" t="n">
-        <v>63.74761328309767</v>
+        <v>97.51234260630686</v>
       </c>
       <c r="AF4" t="n">
-        <v>34.20259797310143</v>
+        <v>65.50389162183609</v>
       </c>
       <c r="AG4" t="n">
-        <v>48.86046700214617</v>
+        <v>64.45326092675434</v>
       </c>
       <c r="AH4" t="n">
-        <v>32.74715986545163</v>
+        <v>58.94739821683167</v>
       </c>
       <c r="AI4" t="n">
-        <v>107.2950198706216</v>
+        <v>28.19224264926103</v>
       </c>
       <c r="AJ4" t="n">
-        <v>147.4466868641958</v>
+        <v>15.83604164710784</v>
       </c>
       <c r="AK4" t="n">
-        <v>21.04110903585103</v>
+        <v>36.86895280423788</v>
       </c>
       <c r="AL4" t="n">
-        <v>26.13462798428722</v>
+        <v>15.71514199992387</v>
       </c>
       <c r="AM4" t="n">
-        <v>64.73301110637854</v>
+        <v>10.94645978596524</v>
       </c>
       <c r="AN4" t="n">
-        <v>16.77632226669761</v>
+        <v>18.77908859352201</v>
       </c>
       <c r="AO4" t="n">
-        <v>20.57053175348283</v>
+        <v>31.14521520716718</v>
       </c>
       <c r="AP4" t="n">
-        <v>17.96461075626702</v>
+        <v>23.85880023224738</v>
       </c>
       <c r="AQ4" t="n">
-        <v>23.44605460674329</v>
+        <v>14.29736669648599</v>
       </c>
       <c r="AR4" t="n">
-        <v>17.97671096478075</v>
+        <v>11.21716082240177</v>
       </c>
       <c r="AS4" t="n">
-        <v>12.00927486775639</v>
+        <v>26.03235903840497</v>
       </c>
       <c r="AT4" t="n">
-        <v>11.16801999810169</v>
+        <v>8.254961614465824</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.017048849027333</v>
+        <v>7.297827530167085</v>
       </c>
       <c r="AV4" t="n">
-        <v>11.74753574117807</v>
+        <v>11.46889249807279</v>
       </c>
       <c r="AW4" t="n">
-        <v>15.70005884806391</v>
+        <v>11.79766578987077</v>
       </c>
       <c r="AX4" t="n">
-        <v>8.245461676523828</v>
+        <v>11.69854542741597</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>7.07008611603739</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>19.24753539761973</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>13.35581508073597</v>
+        <v>14.86247946022488</v>
       </c>
       <c r="F5" t="n">
-        <v>69.90779450449683</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>15.18795477584707</v>
+        <v>20.13381118824789</v>
       </c>
       <c r="H5" t="n">
-        <v>2.688605842566855</v>
+        <v>6.509385968715129</v>
       </c>
       <c r="I5" t="n">
-        <v>6.78701723844314</v>
+        <v>45.86969658766117</v>
       </c>
       <c r="J5" t="n">
-        <v>47.64387996976779</v>
+        <v>15.40753915739249</v>
       </c>
       <c r="K5" t="n">
-        <v>25.24878685779542</v>
+        <v>20.19887557649897</v>
       </c>
       <c r="L5" t="n">
-        <v>37.15671304325188</v>
+        <v>28.36201571168912</v>
       </c>
       <c r="M5" t="n">
-        <v>6.480264441432272</v>
+        <v>12.35616927722775</v>
       </c>
       <c r="N5" t="n">
-        <v>423.7288730159337</v>
+        <v>8.934205451663935</v>
       </c>
       <c r="O5" t="n">
-        <v>72.32326881880233</v>
+        <v>24.25595620399146</v>
       </c>
       <c r="P5" t="n">
-        <v>56.0849304514069</v>
+        <v>58.51345564172622</v>
       </c>
       <c r="Q5" t="n">
-        <v>57.21263655073664</v>
+        <v>4.128738036173187</v>
       </c>
       <c r="R5" t="n">
-        <v>96.98331571777985</v>
+        <v>66.24514938128657</v>
       </c>
       <c r="S5" t="n">
-        <v>32.78183769933982</v>
+        <v>49.53587054409751</v>
       </c>
       <c r="T5" t="n">
-        <v>44.05738452392998</v>
+        <v>74.76157870663792</v>
       </c>
       <c r="U5" t="n">
-        <v>15.22572615215983</v>
+        <v>34.45053739287497</v>
       </c>
       <c r="V5" t="n">
-        <v>162.2942468765127</v>
+        <v>44.50898760425445</v>
       </c>
       <c r="W5" t="n">
-        <v>23.23630892170408</v>
+        <v>52.10195756889996</v>
       </c>
       <c r="X5" t="n">
-        <v>64.77357420630943</v>
+        <v>203.1186733281455</v>
       </c>
       <c r="Y5" t="n">
-        <v>61.94479976706365</v>
+        <v>91.41826539938023</v>
       </c>
       <c r="Z5" t="n">
-        <v>151.2801796184429</v>
+        <v>26.22082612708122</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.43254231923425</v>
+        <v>37.47458580816016</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.67405268698774</v>
+        <v>71.46346468680076</v>
       </c>
       <c r="AC5" t="n">
-        <v>37.62824624492084</v>
+        <v>33.6200497145789</v>
       </c>
       <c r="AD5" t="n">
-        <v>27.30623945357721</v>
+        <v>45.95731821956838</v>
       </c>
       <c r="AE5" t="n">
-        <v>22.15508994790798</v>
+        <v>21.41469082357014</v>
       </c>
       <c r="AF5" t="n">
-        <v>24.93953008657307</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>6.725754843824341</v>
+        <v>21.41518520548967</v>
       </c>
       <c r="AH5" t="n">
-        <v>10.81121323007348</v>
+        <v>2.650266516281511</v>
       </c>
       <c r="AI5" t="n">
-        <v>62.56729255957089</v>
+        <v>54.77330157056127</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14.84040711530226</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>28.18981303657656</v>
+        <v>20.35198208274939</v>
       </c>
       <c r="AL5" t="n">
-        <v>12.1047762181476</v>
+        <v>32.56020606361338</v>
       </c>
       <c r="AM5" t="n">
-        <v>4.858011438741688</v>
+        <v>29.18045350750842</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.962504730432484</v>
+        <v>9.320459348043126</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.966512760931751</v>
+        <v>8.172177206848932</v>
       </c>
       <c r="AP5" t="n">
-        <v>25.3328100986605</v>
+        <v>20.2754790166777</v>
       </c>
       <c r="AQ5" t="n">
-        <v>24.26018023703055</v>
+        <v>26.01802140072503</v>
       </c>
       <c r="AR5" t="n">
-        <v>31.12500887964615</v>
+        <v>25.76752697968215</v>
       </c>
       <c r="AS5" t="n">
-        <v>31.03038307613759</v>
+        <v>18.37176732280163</v>
       </c>
       <c r="AT5" t="n">
-        <v>48.60256308394171</v>
+        <v>31.65695585271077</v>
       </c>
       <c r="AU5" t="n">
-        <v>32.32391203839163</v>
+        <v>24.43352650787701</v>
       </c>
       <c r="AV5" t="n">
-        <v>7.590740762718434</v>
+        <v>22.19837440934792</v>
       </c>
       <c r="AW5" t="n">
-        <v>84.11816677826044</v>
+        <v>24.69795525614386</v>
       </c>
       <c r="AX5" t="n">
-        <v>41.96152921976387</v>
+        <v>29.87467880913189</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1.847246904085552</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2.065453468410298</v>
+        <v>7.279682048801617</v>
       </c>
       <c r="E6" t="n">
-        <v>3.34482150787228</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>15.1538229677097</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10.4062641103637</v>
+        <v>14.60901259116497</v>
       </c>
       <c r="H6" t="n">
-        <v>36.94547417292215</v>
+        <v>7.335754176033033</v>
       </c>
       <c r="I6" t="n">
-        <v>1.437522397317881</v>
+        <v>15.4950128570638</v>
       </c>
       <c r="J6" t="n">
-        <v>16.13387916654077</v>
+        <v>13.71078069558255</v>
       </c>
       <c r="K6" t="n">
-        <v>38.39653151455119</v>
+        <v>33.82185755892204</v>
       </c>
       <c r="L6" t="n">
-        <v>16.5013728302094</v>
+        <v>10.59199970636496</v>
       </c>
       <c r="M6" t="n">
-        <v>78.56808188362183</v>
+        <v>30.16689936633137</v>
       </c>
       <c r="N6" t="n">
-        <v>12.03813165948738</v>
+        <v>13.23486416642663</v>
       </c>
       <c r="O6" t="n">
-        <v>151.4270968878163</v>
+        <v>14.43974686161809</v>
       </c>
       <c r="P6" t="n">
-        <v>14.69775060271704</v>
+        <v>24.82562058343846</v>
       </c>
       <c r="Q6" t="n">
-        <v>17.85093883188018</v>
+        <v>24.37295885583992</v>
       </c>
       <c r="R6" t="n">
-        <v>29.05100448323707</v>
+        <v>34.34561652732986</v>
       </c>
       <c r="S6" t="n">
-        <v>16.58233803495269</v>
+        <v>1.308619357044062</v>
       </c>
       <c r="T6" t="n">
-        <v>21.44054876153385</v>
+        <v>39.14338752069194</v>
       </c>
       <c r="U6" t="n">
-        <v>6.697849918028389</v>
+        <v>16.41163085233494</v>
       </c>
       <c r="V6" t="n">
-        <v>27.59328052101464</v>
+        <v>28.71297148930721</v>
       </c>
       <c r="W6" t="n">
-        <v>18.00624412732426</v>
+        <v>15.41839876969191</v>
       </c>
       <c r="X6" t="n">
-        <v>27.55503432763612</v>
+        <v>87.19557278731095</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.66058858682523</v>
+        <v>21.30291209873992</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.32472277256417</v>
+        <v>16.45103572230114</v>
       </c>
       <c r="AA6" t="n">
-        <v>14.75045029157139</v>
+        <v>10.44324507660611</v>
       </c>
       <c r="AB6" t="n">
-        <v>15.23768414203958</v>
+        <v>9.336502926758305</v>
       </c>
       <c r="AC6" t="n">
-        <v>23.98811274110143</v>
+        <v>15.66223527264953</v>
       </c>
       <c r="AD6" t="n">
-        <v>18.87978547966619</v>
+        <v>18.93840816492877</v>
       </c>
       <c r="AE6" t="n">
-        <v>14.91854814107645</v>
+        <v>28.32724984185941</v>
       </c>
       <c r="AF6" t="n">
-        <v>17.79026648972894</v>
+        <v>21.82590685511193</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.0287979661455</v>
+        <v>15.44209046146866</v>
       </c>
       <c r="AH6" t="n">
-        <v>10.13130884820392</v>
+        <v>22.34062534958952</v>
       </c>
       <c r="AI6" t="n">
-        <v>10.66299580493825</v>
+        <v>8.366933395551678</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7.544364162246111</v>
+        <v>3.151033245472054</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.723207868959216</v>
+        <v>0.9852490512912748</v>
       </c>
       <c r="AL6" t="n">
-        <v>6.869963418955112</v>
+        <v>7.966957871698917</v>
       </c>
       <c r="AM6" t="n">
-        <v>4.229087174392037</v>
+        <v>5.949725322482344</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.216261598202791</v>
+        <v>10.25647306245327</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.052695021523488</v>
+        <v>2.994413080594018</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.296739941504006</v>
+        <v>4.94358619401919</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.358287301947398</v>
+        <v>3.372416438517869</v>
       </c>
       <c r="AR6" t="n">
-        <v>3.443509914999022</v>
+        <v>7.080264861511262</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.204440965823579</v>
+        <v>3.093039363563448</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.797306162511586</v>
+        <v>0.612203232602094</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.2786845950514498</v>
+        <v>2.742895316482018</v>
       </c>
       <c r="AV6" t="n">
-        <v>3.409281542905784</v>
+        <v>0.1205436303184243</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.9293281851360558</v>
+        <v>2.275938211047695</v>
       </c>
       <c r="AX6" t="n">
-        <v>3.775225654064926</v>
+        <v>2.168305003524908</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.553239612448233</v>
+        <v>12.5130744507985</v>
       </c>
       <c r="D7" t="n">
-        <v>1.888099833022877</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4.828176473189707</v>
+        <v>27.2421617074085</v>
       </c>
       <c r="F7" t="n">
-        <v>5.675317386897763</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4.853789853950435</v>
+        <v>7.814552988634136</v>
       </c>
       <c r="H7" t="n">
-        <v>7.756917860113192</v>
+        <v>35.44044557177271</v>
       </c>
       <c r="I7" t="n">
-        <v>12.38816603158115</v>
+        <v>27.46097019740104</v>
       </c>
       <c r="J7" t="n">
-        <v>14.44594855845641</v>
+        <v>10.30972783112986</v>
       </c>
       <c r="K7" t="n">
-        <v>26.82371580708103</v>
+        <v>38.68159523151344</v>
       </c>
       <c r="L7" t="n">
-        <v>9.279868977573779</v>
+        <v>64.21362533705808</v>
       </c>
       <c r="M7" t="n">
-        <v>19.59829178575304</v>
+        <v>11.7732898502306</v>
       </c>
       <c r="N7" t="n">
-        <v>55.51183298842241</v>
+        <v>138.8249751938934</v>
       </c>
       <c r="O7" t="n">
-        <v>11.71635887515634</v>
+        <v>15.3050362737553</v>
       </c>
       <c r="P7" t="n">
-        <v>13.72048982741752</v>
+        <v>43.97624590069118</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.03509037643092</v>
+        <v>27.25963067427479</v>
       </c>
       <c r="R7" t="n">
-        <v>39.27180872266597</v>
+        <v>9.506136097798461</v>
       </c>
       <c r="S7" t="n">
-        <v>6.22223290935733</v>
+        <v>41.45009808855136</v>
       </c>
       <c r="T7" t="n">
-        <v>7.195287331740545</v>
+        <v>39.93319909504924</v>
       </c>
       <c r="U7" t="n">
-        <v>368.7341582327484</v>
+        <v>22.88056852638079</v>
       </c>
       <c r="V7" t="n">
-        <v>53.10297189629928</v>
+        <v>25.33614918234485</v>
       </c>
       <c r="W7" t="n">
-        <v>8.639494329872329</v>
+        <v>7.372270426463638</v>
       </c>
       <c r="X7" t="n">
-        <v>22.42360128875863</v>
+        <v>26.94239605950387</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.16762375404316</v>
+        <v>15.33773957705033</v>
       </c>
       <c r="Z7" t="n">
-        <v>152.245280417998</v>
+        <v>14.55586273865507</v>
       </c>
       <c r="AA7" t="n">
-        <v>3.644166794755395</v>
+        <v>15.09301522645845</v>
       </c>
       <c r="AB7" t="n">
-        <v>22.36164282303507</v>
+        <v>16.83117389654503</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.06624075805516</v>
+        <v>6.690484911280496</v>
       </c>
       <c r="AD7" t="n">
-        <v>15.62939362415353</v>
+        <v>17.71970153393378</v>
       </c>
       <c r="AE7" t="n">
-        <v>22.24875498206778</v>
+        <v>5.4415641557895</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.435930630408894</v>
+        <v>5.342238761968789</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.905258931665589</v>
+        <v>11.49274889081961</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.928641934917374</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.832780583543361</v>
+        <v>21.66936143899846</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.606653123005023</v>
+        <v>12.72259855104453</v>
       </c>
       <c r="AK7" t="n">
-        <v>18.00293885204036</v>
+        <v>11.96474164298625</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.3433325991716272</v>
+        <v>27.30285200924393</v>
       </c>
       <c r="AM7" t="n">
-        <v>17.5440231235444</v>
+        <v>5.648739060501685</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.769843624624554</v>
+        <v>24.77722774763546</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.259984493249299</v>
+        <v>7.909226918272864</v>
       </c>
       <c r="AP7" t="n">
-        <v>10.47327237795371</v>
+        <v>7.205767035328925</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.395898273913511</v>
+        <v>4.948867615617922</v>
       </c>
       <c r="AR7" t="n">
-        <v>11.72602503682683</v>
+        <v>13.96196745746429</v>
       </c>
       <c r="AS7" t="n">
-        <v>16.67706789854533</v>
+        <v>9.486105762480889</v>
       </c>
       <c r="AT7" t="n">
-        <v>4.367309237608921</v>
+        <v>0.09557600451880033</v>
       </c>
       <c r="AU7" t="n">
-        <v>12.75936686881951</v>
+        <v>13.35609663955451</v>
       </c>
       <c r="AV7" t="n">
-        <v>6.18784284229939</v>
+        <v>16.0131163576737</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.667557375320626</v>
+        <v>5.506861357262544</v>
       </c>
       <c r="AX7" t="n">
-        <v>10.86579414288182</v>
+        <v>15.56751547758828</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>21.23194176982438</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>15.84402699479548</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>12.41457114051961</v>
+        <v>19.21840872447532</v>
       </c>
       <c r="F8" t="n">
-        <v>44.21723013034566</v>
+        <v>14.59166911934084</v>
       </c>
       <c r="G8" t="n">
-        <v>16.53232944089428</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>32.21874125159567</v>
+        <v>39.990505741226</v>
       </c>
       <c r="I8" t="n">
-        <v>41.94907429417751</v>
+        <v>89.46081843271129</v>
       </c>
       <c r="J8" t="n">
-        <v>12.92379939516436</v>
+        <v>0.3693639423913737</v>
       </c>
       <c r="K8" t="n">
-        <v>169.684356414723</v>
+        <v>177.716774630917</v>
       </c>
       <c r="L8" t="n">
-        <v>100.041163583218</v>
+        <v>31.63407749985934</v>
       </c>
       <c r="M8" t="n">
-        <v>124.9469617019779</v>
+        <v>42.23464956569597</v>
       </c>
       <c r="N8" t="n">
-        <v>69.10903840176452</v>
+        <v>79.90801469916642</v>
       </c>
       <c r="O8" t="n">
-        <v>30.66931006139217</v>
+        <v>40.95060598884177</v>
       </c>
       <c r="P8" t="n">
-        <v>73.70469540925819</v>
+        <v>35.55016233589255</v>
       </c>
       <c r="Q8" t="n">
-        <v>196.866571367285</v>
+        <v>14.1745485010061</v>
       </c>
       <c r="R8" t="n">
-        <v>53.15770267065611</v>
+        <v>63.98212167259513</v>
       </c>
       <c r="S8" t="n">
-        <v>38.97640715965677</v>
+        <v>49.75827028565687</v>
       </c>
       <c r="T8" t="n">
-        <v>77.72718087324958</v>
+        <v>74.97827709530556</v>
       </c>
       <c r="U8" t="n">
-        <v>59.71922390338492</v>
+        <v>40.53946025195818</v>
       </c>
       <c r="V8" t="n">
-        <v>85.98744584453493</v>
+        <v>89.1509306067443</v>
       </c>
       <c r="W8" t="n">
-        <v>82.2019613362681</v>
+        <v>100.1980515425404</v>
       </c>
       <c r="X8" t="n">
-        <v>64.22838202905373</v>
+        <v>154.8259795049699</v>
       </c>
       <c r="Y8" t="n">
-        <v>47.38516825027173</v>
+        <v>76.76607548902709</v>
       </c>
       <c r="Z8" t="n">
-        <v>83.52589558929756</v>
+        <v>174.9397958525087</v>
       </c>
       <c r="AA8" t="n">
-        <v>66.9370396744135</v>
+        <v>83.13310867619359</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.0422350402312</v>
+        <v>67.9245880334752</v>
       </c>
       <c r="AC8" t="n">
-        <v>128.0855873225379</v>
+        <v>108.4965978200232</v>
       </c>
       <c r="AD8" t="n">
-        <v>121.5597974400888</v>
+        <v>157.6726396446939</v>
       </c>
       <c r="AE8" t="n">
-        <v>115.6970998575329</v>
+        <v>119.774907653361</v>
       </c>
       <c r="AF8" t="n">
-        <v>176.7702793176278</v>
+        <v>100.2349386504934</v>
       </c>
       <c r="AG8" t="n">
-        <v>63.5639203940562</v>
+        <v>151.7061923462845</v>
       </c>
       <c r="AH8" t="n">
-        <v>148.0384652278547</v>
+        <v>72.35469940628386</v>
       </c>
       <c r="AI8" t="n">
-        <v>73.20899367685547</v>
+        <v>66.91784631831703</v>
       </c>
       <c r="AJ8" t="n">
-        <v>147.2884536202857</v>
+        <v>70.33812898378497</v>
       </c>
       <c r="AK8" t="n">
-        <v>51.20038998700586</v>
+        <v>51.38786205469364</v>
       </c>
       <c r="AL8" t="n">
-        <v>71.5329478206973</v>
+        <v>27.49680472925789</v>
       </c>
       <c r="AM8" t="n">
-        <v>43.73089184477379</v>
+        <v>41.58848938158969</v>
       </c>
       <c r="AN8" t="n">
-        <v>17.32749265523316</v>
+        <v>46.40920528166619</v>
       </c>
       <c r="AO8" t="n">
-        <v>22.51473676548092</v>
+        <v>38.08229260579037</v>
       </c>
       <c r="AP8" t="n">
-        <v>19.73398109531866</v>
+        <v>35.99518409997734</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41.38439867490747</v>
+        <v>28.70288958698147</v>
       </c>
       <c r="AR8" t="n">
-        <v>22.74911409986351</v>
+        <v>25.88653389505924</v>
       </c>
       <c r="AS8" t="n">
-        <v>25.31509127618274</v>
+        <v>31.27500768809769</v>
       </c>
       <c r="AT8" t="n">
-        <v>28.89360302472022</v>
+        <v>26.93062386015079</v>
       </c>
       <c r="AU8" t="n">
-        <v>25.16300826541776</v>
+        <v>15.77820912220877</v>
       </c>
       <c r="AV8" t="n">
-        <v>24.20922854796194</v>
+        <v>43.21489576483488</v>
       </c>
       <c r="AW8" t="n">
-        <v>12.10361770416654</v>
+        <v>21.96123207961278</v>
       </c>
       <c r="AX8" t="n">
-        <v>16.78764852208453</v>
+        <v>21.3170192609836</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1.426883653999394</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1729919616990666</v>
+        <v>1.120609919182562</v>
       </c>
       <c r="E9" t="n">
-        <v>7.445064085873563</v>
+        <v>1.657653457213513</v>
       </c>
       <c r="F9" t="n">
-        <v>2.442215697507491</v>
+        <v>4.091498466596597</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2959510126956598</v>
+        <v>0.7128763322377131</v>
       </c>
       <c r="H9" t="n">
-        <v>1.917491321174455</v>
+        <v>2.848975028589659</v>
       </c>
       <c r="I9" t="n">
-        <v>7.456919536673901</v>
+        <v>6.634797771181084</v>
       </c>
       <c r="J9" t="n">
-        <v>4.970071155671532</v>
+        <v>9.242251984450563</v>
       </c>
       <c r="K9" t="n">
-        <v>2.366498812550313</v>
+        <v>1.882361893459936</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7865304952925991</v>
+        <v>2.745609809067785</v>
       </c>
       <c r="M9" t="n">
-        <v>2.518906944786511</v>
+        <v>3.982100772755451</v>
       </c>
       <c r="N9" t="n">
-        <v>1.808564267348102</v>
+        <v>3.690876855941205</v>
       </c>
       <c r="O9" t="n">
-        <v>3.63830140003002</v>
+        <v>4.869472010657201</v>
       </c>
       <c r="P9" t="n">
-        <v>2.151851923622981</v>
+        <v>8.891000204323525</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.679568061652075</v>
+        <v>12.94241785679933</v>
       </c>
       <c r="R9" t="n">
-        <v>8.577357441447782</v>
+        <v>1.252516773062912</v>
       </c>
       <c r="S9" t="n">
-        <v>1.305630338573798</v>
+        <v>2.453475250960284</v>
       </c>
       <c r="T9" t="n">
-        <v>3.978869367358211</v>
+        <v>4.408803541614257</v>
       </c>
       <c r="U9" t="n">
-        <v>3.234141864776619</v>
+        <v>3.369528857511682</v>
       </c>
       <c r="V9" t="n">
-        <v>5.642972678032157</v>
+        <v>4.998960059485974</v>
       </c>
       <c r="W9" t="n">
-        <v>2.695413173371541</v>
+        <v>5.283028717623663</v>
       </c>
       <c r="X9" t="n">
-        <v>2.252290962108283</v>
+        <v>3.380399094067129</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.076632732656369</v>
+        <v>4.940290026154013</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.954994868572609</v>
+        <v>5.758378887032793</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.945343545544209</v>
+        <v>4.928080613861193</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.538394359394278</v>
+        <v>2.077463246965728</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.120570422988087</v>
+        <v>2.352382055882995</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.526414650270914</v>
+        <v>4.440666889418264</v>
       </c>
       <c r="AE9" t="n">
-        <v>9.930108429069477</v>
+        <v>3.328566759091077</v>
       </c>
       <c r="AF9" t="n">
-        <v>10.88192943402612</v>
+        <v>6.916026921896886</v>
       </c>
       <c r="AG9" t="n">
-        <v>7.657048643681028</v>
+        <v>3.935497772907478</v>
       </c>
       <c r="AH9" t="n">
-        <v>5.564157336648572</v>
+        <v>6.934556139158986</v>
       </c>
       <c r="AI9" t="n">
-        <v>4.348141249029175</v>
+        <v>5.403703661437752</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3.525159733592774</v>
+        <v>5.639560980481305</v>
       </c>
       <c r="AK9" t="n">
-        <v>13.02173847981604</v>
+        <v>2.223904952301818</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.613542517624958</v>
+        <v>5.47372757651415</v>
       </c>
       <c r="AM9" t="n">
-        <v>3.527494698804884</v>
+        <v>2.828171919131975</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.754600204076331</v>
+        <v>3.649239288664595</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.567593868887677</v>
+        <v>3.080273446523744</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.684055912488396</v>
+        <v>5.131272770806376</v>
       </c>
       <c r="AQ9" t="n">
-        <v>6.016408299591457</v>
+        <v>9.999491055742663</v>
       </c>
       <c r="AR9" t="n">
-        <v>11.58309879883566</v>
+        <v>3.926401403854985</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.7863879208066361</v>
+        <v>3.07834097785223</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.126212740141989</v>
+        <v>1.77298786697325</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.9467623745459872</v>
+        <v>3.091080120943349</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.969054896947509</v>
+        <v>7.09147134682278</v>
       </c>
       <c r="AW9" t="n">
-        <v>18.40416318923705</v>
+        <v>4.589095378443729</v>
       </c>
       <c r="AX9" t="n">
-        <v>7.745631579571608</v>
+        <v>3.537929230342685</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>8.79135940239896</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>24.71009672261621</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>8.537212443453976</v>
+        <v>3.102778679024924</v>
       </c>
       <c r="F10" t="n">
-        <v>3.794329270505618</v>
+        <v>23.00265729282182</v>
       </c>
       <c r="G10" t="n">
-        <v>13.97717673710082</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>9.828014626298913</v>
+        <v>19.21118542084388</v>
       </c>
       <c r="I10" t="n">
-        <v>178.8573313200973</v>
+        <v>43.73471508778692</v>
       </c>
       <c r="J10" t="n">
-        <v>16.82245487873107</v>
+        <v>16.66714122296444</v>
       </c>
       <c r="K10" t="n">
-        <v>9.213295181054924</v>
+        <v>29.82627537168386</v>
       </c>
       <c r="L10" t="n">
-        <v>32.76339477860824</v>
+        <v>28.97487359419421</v>
       </c>
       <c r="M10" t="n">
-        <v>42.48505229825732</v>
+        <v>43.48890471933843</v>
       </c>
       <c r="N10" t="n">
-        <v>46.59109349463527</v>
+        <v>63.84898183235823</v>
       </c>
       <c r="O10" t="n">
-        <v>34.8515955793636</v>
+        <v>23.83826043216919</v>
       </c>
       <c r="P10" t="n">
-        <v>66.09047564565269</v>
+        <v>44.22401163522032</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.42804293586939</v>
+        <v>66.47899829558924</v>
       </c>
       <c r="R10" t="n">
-        <v>146.0111327396379</v>
+        <v>46.52043167889228</v>
       </c>
       <c r="S10" t="n">
-        <v>32.54966079522036</v>
+        <v>41.94173112621934</v>
       </c>
       <c r="T10" t="n">
-        <v>37.0034762390502</v>
+        <v>174.9821384424256</v>
       </c>
       <c r="U10" t="n">
-        <v>34.68147412382239</v>
+        <v>113.4626288546003</v>
       </c>
       <c r="V10" t="n">
-        <v>103.1882682781911</v>
+        <v>111.2429573566767</v>
       </c>
       <c r="W10" t="n">
-        <v>71.02165385225102</v>
+        <v>97.96840570625571</v>
       </c>
       <c r="X10" t="n">
-        <v>69.28991204575571</v>
+        <v>63.57232483153783</v>
       </c>
       <c r="Y10" t="n">
-        <v>56.25806344902291</v>
+        <v>137.8554714543621</v>
       </c>
       <c r="Z10" t="n">
-        <v>70.33104219449133</v>
+        <v>64.39286288584719</v>
       </c>
       <c r="AA10" t="n">
-        <v>93.90349587174583</v>
+        <v>48.57773784128187</v>
       </c>
       <c r="AB10" t="n">
-        <v>62.53386488279374</v>
+        <v>96.58459279397442</v>
       </c>
       <c r="AC10" t="n">
-        <v>108.1163123020094</v>
+        <v>79.35824518036912</v>
       </c>
       <c r="AD10" t="n">
-        <v>61.46755919477607</v>
+        <v>92.71709565946071</v>
       </c>
       <c r="AE10" t="n">
-        <v>61.90731096573012</v>
+        <v>92.97977229240753</v>
       </c>
       <c r="AF10" t="n">
-        <v>75.63658516487838</v>
+        <v>54.73345859151561</v>
       </c>
       <c r="AG10" t="n">
-        <v>34.24111663307539</v>
+        <v>60.24316144633219</v>
       </c>
       <c r="AH10" t="n">
-        <v>38.86134937327281</v>
+        <v>45.64287990121353</v>
       </c>
       <c r="AI10" t="n">
-        <v>45.25016993928296</v>
+        <v>44.53333276488714</v>
       </c>
       <c r="AJ10" t="n">
-        <v>113.2880358789104</v>
+        <v>28.03774184222761</v>
       </c>
       <c r="AK10" t="n">
-        <v>65.43117604703185</v>
+        <v>33.36173633452947</v>
       </c>
       <c r="AL10" t="n">
-        <v>16.93165000073589</v>
+        <v>45.11257255161124</v>
       </c>
       <c r="AM10" t="n">
-        <v>19.45043544962083</v>
+        <v>27.88009359076906</v>
       </c>
       <c r="AN10" t="n">
-        <v>14.91088150135362</v>
+        <v>30.17011020724861</v>
       </c>
       <c r="AO10" t="n">
-        <v>22.42776773264336</v>
+        <v>25.53522796135288</v>
       </c>
       <c r="AP10" t="n">
-        <v>27.65394403849708</v>
+        <v>31.6124037793576</v>
       </c>
       <c r="AQ10" t="n">
-        <v>17.83916297733883</v>
+        <v>21.00897160278228</v>
       </c>
       <c r="AR10" t="n">
-        <v>11.5143673361525</v>
+        <v>26.53177365674492</v>
       </c>
       <c r="AS10" t="n">
-        <v>10.87618041262822</v>
+        <v>10.47470718266769</v>
       </c>
       <c r="AT10" t="n">
-        <v>5.843373291473218</v>
+        <v>32.23421262506439</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.007216601095491</v>
+        <v>16.14797008560163</v>
       </c>
       <c r="AV10" t="n">
-        <v>14.66046574693989</v>
+        <v>32.82412652977405</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.285866734305642</v>
+        <v>3.92014753739491</v>
       </c>
       <c r="AX10" t="n">
-        <v>7.577689374350406</v>
+        <v>9.172154816421708</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>16.09690774549518</v>
+        <v>24.98505666623611</v>
       </c>
       <c r="D11" t="n">
-        <v>11.66988221352232</v>
+        <v>7.90868245056935</v>
       </c>
       <c r="E11" t="n">
-        <v>18.29664131814098</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.549417699110782</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>26.03413045786996</v>
+        <v>34.99513847283182</v>
       </c>
       <c r="H11" t="n">
-        <v>6.153913334316481</v>
+        <v>38.14485900866752</v>
       </c>
       <c r="I11" t="n">
-        <v>23.77468132113577</v>
+        <v>20.10743894471739</v>
       </c>
       <c r="J11" t="n">
-        <v>54.48244351500026</v>
+        <v>17.78893195886805</v>
       </c>
       <c r="K11" t="n">
-        <v>6.466653149687438</v>
+        <v>30.43202842358334</v>
       </c>
       <c r="L11" t="n">
-        <v>18.55043223775129</v>
+        <v>36.1139547240836</v>
       </c>
       <c r="M11" t="n">
-        <v>15.33754398329711</v>
+        <v>22.42277042241768</v>
       </c>
       <c r="N11" t="n">
-        <v>12.41522428741391</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>137.0713958312553</v>
+        <v>83.60315015277841</v>
       </c>
       <c r="P11" t="n">
-        <v>115.3290722334606</v>
+        <v>20.10383773726418</v>
       </c>
       <c r="Q11" t="n">
-        <v>61.90965010921922</v>
+        <v>10.22658710378386</v>
       </c>
       <c r="R11" t="n">
-        <v>111.4885450490309</v>
+        <v>157.7995237751917</v>
       </c>
       <c r="S11" t="n">
-        <v>87.31013184197315</v>
+        <v>80.99614663290738</v>
       </c>
       <c r="T11" t="n">
-        <v>21.84590638985156</v>
+        <v>14.14458912716408</v>
       </c>
       <c r="U11" t="n">
-        <v>44.22443253684057</v>
+        <v>48.25083611628753</v>
       </c>
       <c r="V11" t="n">
-        <v>48.02079976721065</v>
+        <v>13.43874561997171</v>
       </c>
       <c r="W11" t="n">
-        <v>72.03930499429173</v>
+        <v>45.87321675414255</v>
       </c>
       <c r="X11" t="n">
-        <v>57.50479063124445</v>
+        <v>103.285538069432</v>
       </c>
       <c r="Y11" t="n">
-        <v>156.1992417859987</v>
+        <v>41.60129013288716</v>
       </c>
       <c r="Z11" t="n">
-        <v>54.12642093446097</v>
+        <v>134.2368170461855</v>
       </c>
       <c r="AA11" t="n">
-        <v>114.128686335447</v>
+        <v>30.20456902409857</v>
       </c>
       <c r="AB11" t="n">
-        <v>31.32671454408944</v>
+        <v>56.38461556847934</v>
       </c>
       <c r="AC11" t="n">
-        <v>29.03035956081719</v>
+        <v>19.40005555914451</v>
       </c>
       <c r="AD11" t="n">
-        <v>33.25504007940467</v>
+        <v>43.13926845959404</v>
       </c>
       <c r="AE11" t="n">
-        <v>54.21183250664804</v>
+        <v>28.47853877580584</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.605078029506043</v>
+        <v>58.84537281665594</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.272467635004648</v>
+        <v>26.79098443057344</v>
       </c>
       <c r="AH11" t="n">
-        <v>16.07878270063163</v>
+        <v>31.20743653442966</v>
       </c>
       <c r="AI11" t="n">
-        <v>36.61922224429033</v>
+        <v>47.54278188024421</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11.24027271989635</v>
+        <v>27.57788381710785</v>
       </c>
       <c r="AK11" t="n">
-        <v>24.45984866064887</v>
+        <v>2.846705135393946</v>
       </c>
       <c r="AL11" t="n">
-        <v>7.557226154802012</v>
+        <v>14.34821264980956</v>
       </c>
       <c r="AM11" t="n">
-        <v>47.95969827833181</v>
+        <v>17.50341012911167</v>
       </c>
       <c r="AN11" t="n">
-        <v>41.16958044985047</v>
+        <v>3.509576590134663</v>
       </c>
       <c r="AO11" t="n">
-        <v>21.71166393204015</v>
+        <v>33.25395879968293</v>
       </c>
       <c r="AP11" t="n">
-        <v>31.02974906706778</v>
+        <v>15.95121546209707</v>
       </c>
       <c r="AQ11" t="n">
-        <v>20.01336714376924</v>
+        <v>30.78485675753926</v>
       </c>
       <c r="AR11" t="n">
-        <v>10.99916194131533</v>
+        <v>10.85502584964746</v>
       </c>
       <c r="AS11" t="n">
-        <v>12.08913938498348</v>
+        <v>6.217623415775526</v>
       </c>
       <c r="AT11" t="n">
-        <v>21.54936564535543</v>
+        <v>48.52674822859939</v>
       </c>
       <c r="AU11" t="n">
-        <v>12.19407737346541</v>
+        <v>23.09104039116365</v>
       </c>
       <c r="AV11" t="n">
-        <v>31.62113824717797</v>
+        <v>17.85176346663668</v>
       </c>
       <c r="AW11" t="n">
-        <v>28.43528066152135</v>
+        <v>19.73143094525637</v>
       </c>
       <c r="AX11" t="n">
-        <v>29.75152595322205</v>
+        <v>28.20153382661371</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>1.794015271246242</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>9.483221597174518</v>
+        <v>0.2639833809195029</v>
       </c>
       <c r="E12" t="n">
-        <v>5.46454038326243</v>
+        <v>9.545419285962913</v>
       </c>
       <c r="F12" t="n">
-        <v>3.483042112747722</v>
+        <v>28.51173654472757</v>
       </c>
       <c r="G12" t="n">
-        <v>3.317589629364531</v>
+        <v>4.80542054016272</v>
       </c>
       <c r="H12" t="n">
-        <v>7.991594508367231</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>5.537831746019894</v>
+        <v>11.40777679710385</v>
       </c>
       <c r="J12" t="n">
-        <v>3.293343375213641</v>
+        <v>14.54378971496501</v>
       </c>
       <c r="K12" t="n">
-        <v>35.53356229999277</v>
+        <v>31.76618160666779</v>
       </c>
       <c r="L12" t="n">
-        <v>4.057066144265607</v>
+        <v>22.1898349789584</v>
       </c>
       <c r="M12" t="n">
-        <v>20.05166966353908</v>
+        <v>115.9119197050762</v>
       </c>
       <c r="N12" t="n">
-        <v>23.27475560605532</v>
+        <v>19.50002747649315</v>
       </c>
       <c r="O12" t="n">
-        <v>10.28697336285826</v>
+        <v>6.855018750144668</v>
       </c>
       <c r="P12" t="n">
-        <v>72.54833699414372</v>
+        <v>35.55144247411219</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.71184660642365</v>
+        <v>19.17448023925099</v>
       </c>
       <c r="R12" t="n">
-        <v>19.48753395295675</v>
+        <v>36.41227307219402</v>
       </c>
       <c r="S12" t="n">
-        <v>7.564716286335553</v>
+        <v>23.88272287711983</v>
       </c>
       <c r="T12" t="n">
-        <v>19.66374775390779</v>
+        <v>16.10502414747305</v>
       </c>
       <c r="U12" t="n">
-        <v>19.92821668099387</v>
+        <v>13.87596774423984</v>
       </c>
       <c r="V12" t="n">
-        <v>28.03194375671125</v>
+        <v>18.52562814288335</v>
       </c>
       <c r="W12" t="n">
-        <v>10.52559402470516</v>
+        <v>19.17383978372693</v>
       </c>
       <c r="X12" t="n">
-        <v>16.56328585475012</v>
+        <v>10.81460282506031</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.65554513689722</v>
+        <v>23.25437614641889</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.09954499268058</v>
+        <v>21.70734592232968</v>
       </c>
       <c r="AA12" t="n">
-        <v>10.37928524962936</v>
+        <v>18.69564049304541</v>
       </c>
       <c r="AB12" t="n">
-        <v>13.13703472555523</v>
+        <v>18.93211800258275</v>
       </c>
       <c r="AC12" t="n">
-        <v>25.72285712442103</v>
+        <v>24.39701413819075</v>
       </c>
       <c r="AD12" t="n">
-        <v>23.04547671172904</v>
+        <v>17.33419670072956</v>
       </c>
       <c r="AE12" t="n">
-        <v>21.813107707389</v>
+        <v>14.07633184836881</v>
       </c>
       <c r="AF12" t="n">
-        <v>10.89763965056044</v>
+        <v>8.12262025141913</v>
       </c>
       <c r="AG12" t="n">
-        <v>25.77708200300186</v>
+        <v>11.12003230647435</v>
       </c>
       <c r="AH12" t="n">
-        <v>18.16623236210519</v>
+        <v>16.25298877280884</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.031111319301682</v>
+        <v>9.630791927384429</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7.332917603514486</v>
+        <v>3.118263629272091</v>
       </c>
       <c r="AK12" t="n">
-        <v>13.42102936856773</v>
+        <v>10.94645877281547</v>
       </c>
       <c r="AL12" t="n">
-        <v>18.21335658063378</v>
+        <v>3.900291948746477</v>
       </c>
       <c r="AM12" t="n">
-        <v>8.365660614245877</v>
+        <v>9.26342449579948</v>
       </c>
       <c r="AN12" t="n">
-        <v>6.866631858481559</v>
+        <v>3.574528954921536</v>
       </c>
       <c r="AO12" t="n">
-        <v>8.721793398672437</v>
+        <v>5.510088503993151</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.238346309061193</v>
+        <v>5.823731065606273</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.773477243281645</v>
+        <v>5.438667054452099</v>
       </c>
       <c r="AR12" t="n">
-        <v>4.084538115766807</v>
+        <v>2.485111927001737</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.227454338263101</v>
+        <v>0.8971515686027655</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.715412757024318</v>
+        <v>2.35466679915079</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.6456504590063533</v>
+        <v>1.246088113082685</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.5300740924408222</v>
+        <v>4.068056770760812</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.781935582688776</v>
+        <v>3.960529759627637</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.726652553620166</v>
+        <v>3.731655378514674</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>13.00227789920554</v>
+        <v>1.5681528665199</v>
       </c>
       <c r="D13" t="n">
-        <v>1.862150190482535</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>15.86877194618341</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>8.274038109911872</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>48.90324610008543</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.397365699605853</v>
+        <v>29.08488670557412</v>
       </c>
       <c r="I13" t="n">
-        <v>9.622347741034337</v>
+        <v>15.85651161407317</v>
       </c>
       <c r="J13" t="n">
-        <v>5.321422682064012</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>5.629461730790768</v>
+        <v>56.94825821117067</v>
       </c>
       <c r="L13" t="n">
-        <v>266.8855107975668</v>
+        <v>80.40813205550151</v>
       </c>
       <c r="M13" t="n">
-        <v>50.36162416913874</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>51.54518178342882</v>
+        <v>23.51133486656317</v>
       </c>
       <c r="O13" t="n">
-        <v>29.31039335536181</v>
+        <v>78.21851555832245</v>
       </c>
       <c r="P13" t="n">
-        <v>151.066308503619</v>
+        <v>16.87544282501003</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.99922939340885</v>
+        <v>25.87544079276588</v>
       </c>
       <c r="R13" t="n">
-        <v>17.70286002563482</v>
+        <v>59.86961677022331</v>
       </c>
       <c r="S13" t="n">
-        <v>43.78579260242862</v>
+        <v>22.29228282036295</v>
       </c>
       <c r="T13" t="n">
-        <v>1.819811557129989</v>
+        <v>32.80961862772651</v>
       </c>
       <c r="U13" t="n">
-        <v>30.89391386386317</v>
+        <v>21.12702768736821</v>
       </c>
       <c r="V13" t="n">
-        <v>30.16161656367403</v>
+        <v>17.56154378424942</v>
       </c>
       <c r="W13" t="n">
-        <v>19.26738056401778</v>
+        <v>6.102338174956476</v>
       </c>
       <c r="X13" t="n">
-        <v>5.313234654641072</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>68.98932295928539</v>
+        <v>29.37325950066014</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.284858527894627</v>
+        <v>2.483284129205879</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.163724119632517</v>
+        <v>4.521911485592288</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.734935412094279</v>
+        <v>3.969366446610591</v>
       </c>
       <c r="AC13" t="n">
-        <v>12.35298157603688</v>
+        <v>11.35663061667714</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.802604434955626</v>
+        <v>15.30047757148088</v>
       </c>
       <c r="AE13" t="n">
-        <v>13.2413400259279</v>
+        <v>30.31119409588759</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.507143407608696</v>
+        <v>7.804511419515407</v>
       </c>
       <c r="AG13" t="n">
-        <v>7.016801406271824</v>
+        <v>12.88112779458168</v>
       </c>
       <c r="AH13" t="n">
-        <v>31.46004118235862</v>
+        <v>14.22263525941402</v>
       </c>
       <c r="AI13" t="n">
-        <v>36.26367048821821</v>
+        <v>3.457995443017396</v>
       </c>
       <c r="AJ13" t="n">
-        <v>14.53291899861342</v>
+        <v>0.98697169036275</v>
       </c>
       <c r="AK13" t="n">
-        <v>12.38331200243046</v>
+        <v>27.08725054527898</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.451106990643263</v>
+        <v>7.352965571651121</v>
       </c>
       <c r="AM13" t="n">
-        <v>8.99286836568465</v>
+        <v>1.064808276438331</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.4829299635377955</v>
+        <v>1.674856764024815</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.117322635676557</v>
+        <v>1.815301753920728</v>
       </c>
       <c r="AP13" t="n">
-        <v>3.23849414491495</v>
+        <v>2.616873319926815</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.319868544266013</v>
+        <v>3.637785453259847</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.475192208925669</v>
+        <v>20.70208262804884</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.84588684172116</v>
+        <v>10.20741049253668</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.976793714110614</v>
+        <v>4.896808259271921</v>
       </c>
       <c r="AU13" t="n">
-        <v>4.543792323454318</v>
+        <v>23.45748035348037</v>
       </c>
       <c r="AV13" t="n">
-        <v>4.215140211697164</v>
+        <v>0.3357136932580073</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.047762275586278</v>
+        <v>1.861076033381913</v>
       </c>
       <c r="AX13" t="n">
-        <v>16.86189357438695</v>
+        <v>2.114708732319609</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>26.7310556843136</v>
+        <v>14.39542266930213</v>
       </c>
       <c r="D14" t="n">
-        <v>11.97726809782081</v>
+        <v>30.63137955277422</v>
       </c>
       <c r="E14" t="n">
-        <v>29.6857587749232</v>
+        <v>34.59180858829514</v>
       </c>
       <c r="F14" t="n">
-        <v>11.49552933541543</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>8.430234830363162</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>22.5517656096329</v>
+        <v>39.2001900807857</v>
       </c>
       <c r="I14" t="n">
-        <v>15.36346932042618</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.8624018082898</v>
+        <v>320.29033433414</v>
       </c>
       <c r="K14" t="n">
-        <v>14.62197804981174</v>
+        <v>47.51946331159292</v>
       </c>
       <c r="L14" t="n">
-        <v>48.34933835571866</v>
+        <v>118.0692416336696</v>
       </c>
       <c r="M14" t="n">
-        <v>183.4036362890986</v>
+        <v>35.1293272261814</v>
       </c>
       <c r="N14" t="n">
-        <v>58.10467984057075</v>
+        <v>98.60997463072519</v>
       </c>
       <c r="O14" t="n">
-        <v>130.9366652302751</v>
+        <v>55.25533026417885</v>
       </c>
       <c r="P14" t="n">
-        <v>29.04834556912012</v>
+        <v>35.31965799355663</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.09755068347074</v>
+        <v>37.70615225948931</v>
       </c>
       <c r="R14" t="n">
-        <v>56.70347203042666</v>
+        <v>51.41358735969197</v>
       </c>
       <c r="S14" t="n">
-        <v>53.28267867745475</v>
+        <v>79.62592879854046</v>
       </c>
       <c r="T14" t="n">
-        <v>29.63231294494786</v>
+        <v>32.31668877277943</v>
       </c>
       <c r="U14" t="n">
-        <v>24.64258286239628</v>
+        <v>97.51865044701935</v>
       </c>
       <c r="V14" t="n">
-        <v>18.05648877097507</v>
+        <v>69.43603513823162</v>
       </c>
       <c r="W14" t="n">
-        <v>29.60667032423315</v>
+        <v>56.28729927836125</v>
       </c>
       <c r="X14" t="n">
-        <v>97.80313765463561</v>
+        <v>53.72522013189366</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.59790382450734</v>
+        <v>73.29071820634914</v>
       </c>
       <c r="Z14" t="n">
-        <v>89.5090363459238</v>
+        <v>73.10866998773196</v>
       </c>
       <c r="AA14" t="n">
-        <v>128.8933125839951</v>
+        <v>69.12336938993674</v>
       </c>
       <c r="AB14" t="n">
-        <v>61.8451730669684</v>
+        <v>134.5144740724549</v>
       </c>
       <c r="AC14" t="n">
-        <v>118.7001509061312</v>
+        <v>123.2829784533403</v>
       </c>
       <c r="AD14" t="n">
-        <v>93.98024167470533</v>
+        <v>158.1015929965998</v>
       </c>
       <c r="AE14" t="n">
-        <v>60.90669033180102</v>
+        <v>78.97081320000785</v>
       </c>
       <c r="AF14" t="n">
-        <v>158.0668094050122</v>
+        <v>120.1937490314534</v>
       </c>
       <c r="AG14" t="n">
-        <v>142.2262659619321</v>
+        <v>35.63896590364598</v>
       </c>
       <c r="AH14" t="n">
-        <v>66.91127644956431</v>
+        <v>85.88177820351549</v>
       </c>
       <c r="AI14" t="n">
-        <v>94.57558515012687</v>
+        <v>41.26277061017447</v>
       </c>
       <c r="AJ14" t="n">
-        <v>336.0018706302922</v>
+        <v>36.30261572436303</v>
       </c>
       <c r="AK14" t="n">
-        <v>164.6792477947097</v>
+        <v>79.42996008579968</v>
       </c>
       <c r="AL14" t="n">
-        <v>58.22449090756221</v>
+        <v>85.32969169016404</v>
       </c>
       <c r="AM14" t="n">
-        <v>39.82615608639693</v>
+        <v>50.36327911604523</v>
       </c>
       <c r="AN14" t="n">
-        <v>49.97623761793449</v>
+        <v>62.49407454830446</v>
       </c>
       <c r="AO14" t="n">
-        <v>23.70456175846159</v>
+        <v>30.79473194510784</v>
       </c>
       <c r="AP14" t="n">
-        <v>20.23262093225366</v>
+        <v>33.59624335767524</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19.52804594405876</v>
+        <v>20.38752781174897</v>
       </c>
       <c r="AR14" t="n">
-        <v>21.1069351393298</v>
+        <v>29.1275481601564</v>
       </c>
       <c r="AS14" t="n">
-        <v>33.74259916233113</v>
+        <v>13.30082172359744</v>
       </c>
       <c r="AT14" t="n">
-        <v>15.08120939596281</v>
+        <v>14.75864300582655</v>
       </c>
       <c r="AU14" t="n">
-        <v>24.7077841605495</v>
+        <v>18.32351454565839</v>
       </c>
       <c r="AV14" t="n">
-        <v>26.24567805587309</v>
+        <v>18.15308664822527</v>
       </c>
       <c r="AW14" t="n">
-        <v>13.81817729039642</v>
+        <v>13.40425984793143</v>
       </c>
       <c r="AX14" t="n">
-        <v>21.14989504325512</v>
+        <v>16.19507649290576</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>9.576834468590302</v>
+        <v>2.894713737418615</v>
       </c>
       <c r="D15" t="n">
-        <v>2.390090506255477</v>
+        <v>4.251529244458228</v>
       </c>
       <c r="E15" t="n">
-        <v>3.992263742444594</v>
+        <v>2.823668777606329</v>
       </c>
       <c r="F15" t="n">
-        <v>3.766263066265213</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>9.878578546713035</v>
+        <v>1.433710651223194</v>
       </c>
       <c r="H15" t="n">
-        <v>25.1388831565999</v>
+        <v>0.655366140635763</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7919662454278791</v>
+        <v>2.910809854083259</v>
       </c>
       <c r="J15" t="n">
-        <v>1.983109233868324</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>6.244542511837695</v>
+        <v>5.649152747486538</v>
       </c>
       <c r="L15" t="n">
-        <v>0.830030418071483</v>
+        <v>12.07716143877333</v>
       </c>
       <c r="M15" t="n">
-        <v>3.851872789820462</v>
+        <v>1.876526766663653</v>
       </c>
       <c r="N15" t="n">
-        <v>4.808584498010403</v>
+        <v>7.595143184375305</v>
       </c>
       <c r="O15" t="n">
-        <v>7.51710657750171</v>
+        <v>6.700084888640758</v>
       </c>
       <c r="P15" t="n">
-        <v>2.386699485907608</v>
+        <v>2.487138078933607</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.151754094588101</v>
+        <v>2.429899539584672</v>
       </c>
       <c r="R15" t="n">
-        <v>6.435925725119871</v>
+        <v>3.683938388049056</v>
       </c>
       <c r="S15" t="n">
-        <v>5.506651378116708</v>
+        <v>1.815896663554293</v>
       </c>
       <c r="T15" t="n">
-        <v>2.338077424863573</v>
+        <v>11.22994088457496</v>
       </c>
       <c r="U15" t="n">
-        <v>5.740356436537884</v>
+        <v>4.147328622038059</v>
       </c>
       <c r="V15" t="n">
-        <v>9.102093992748481</v>
+        <v>3.012781831946481</v>
       </c>
       <c r="W15" t="n">
-        <v>6.002228820294636</v>
+        <v>2.065713556989267</v>
       </c>
       <c r="X15" t="n">
-        <v>1.893577795717341</v>
+        <v>1.242699101703588</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.948818855675877</v>
+        <v>3.986196510271879</v>
       </c>
       <c r="Z15" t="n">
-        <v>5.335602865773612</v>
+        <v>5.149131547275854</v>
       </c>
       <c r="AA15" t="n">
-        <v>4.916810966375299</v>
+        <v>3.099998680024278</v>
       </c>
       <c r="AB15" t="n">
-        <v>4.495949160533566</v>
+        <v>7.306256522846104</v>
       </c>
       <c r="AC15" t="n">
-        <v>3.692291968643108</v>
+        <v>5.740490821696347</v>
       </c>
       <c r="AD15" t="n">
-        <v>8.731735718682875</v>
+        <v>2.344700825745968</v>
       </c>
       <c r="AE15" t="n">
-        <v>4.047083710210627</v>
+        <v>5.614127122881866</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.458091563106035</v>
+        <v>2.452146045838428</v>
       </c>
       <c r="AG15" t="n">
-        <v>6.491228345586721</v>
+        <v>2.347193781666002</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.221192025524769</v>
+        <v>1.702594349779376</v>
       </c>
       <c r="AI15" t="n">
-        <v>8.201296084790975</v>
+        <v>3.987402799403419</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6.021374803111018</v>
+        <v>6.736631264551631</v>
       </c>
       <c r="AK15" t="n">
-        <v>4.121258869204305</v>
+        <v>3.149091637176381</v>
       </c>
       <c r="AL15" t="n">
-        <v>4.717757012871103</v>
+        <v>3.360834567244957</v>
       </c>
       <c r="AM15" t="n">
-        <v>8.583860268851296</v>
+        <v>4.794406385367044</v>
       </c>
       <c r="AN15" t="n">
-        <v>13.59509509100093</v>
+        <v>3.269933593038997</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.965689406133614</v>
+        <v>7.195185861679153</v>
       </c>
       <c r="AP15" t="n">
-        <v>5.031685097872702</v>
+        <v>2.559154486806445</v>
       </c>
       <c r="AQ15" t="n">
-        <v>8.705283533227</v>
+        <v>3.399418515765557</v>
       </c>
       <c r="AR15" t="n">
-        <v>4.920712539670901</v>
+        <v>4.66584310731793</v>
       </c>
       <c r="AS15" t="n">
-        <v>4.206528354242444</v>
+        <v>3.328768095103881</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.324414716879691</v>
+        <v>3.061163008905473</v>
       </c>
       <c r="AU15" t="n">
-        <v>2.403725109759548</v>
+        <v>4.571471053724834</v>
       </c>
       <c r="AV15" t="n">
-        <v>14.7699000148235</v>
+        <v>2.527979823810497</v>
       </c>
       <c r="AW15" t="n">
-        <v>2.689334863286747</v>
+        <v>4.27595882132219</v>
       </c>
       <c r="AX15" t="n">
-        <v>5.473752985862717</v>
+        <v>2.493600845292094</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>6.144682905292255</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>6.304802499293926</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>15.7054831679016</v>
+        <v>16.52302858772772</v>
       </c>
       <c r="F16" t="n">
-        <v>16.19791902737941</v>
+        <v>6.579309823428718</v>
       </c>
       <c r="G16" t="n">
-        <v>9.70495244833092</v>
+        <v>4.31155790723663</v>
       </c>
       <c r="H16" t="n">
-        <v>7.523092449370612</v>
+        <v>19.03563363261413</v>
       </c>
       <c r="I16" t="n">
-        <v>4.556247707723436</v>
+        <v>6.924259103979257</v>
       </c>
       <c r="J16" t="n">
-        <v>37.06990530742642</v>
+        <v>182.7718736203391</v>
       </c>
       <c r="K16" t="n">
-        <v>31.63030223468507</v>
+        <v>384.1719642257811</v>
       </c>
       <c r="L16" t="n">
-        <v>42.40906875231212</v>
+        <v>106.6486859352852</v>
       </c>
       <c r="M16" t="n">
-        <v>31.84849176711392</v>
+        <v>17.99566789563411</v>
       </c>
       <c r="N16" t="n">
-        <v>53.15085633242674</v>
+        <v>63.97172739936073</v>
       </c>
       <c r="O16" t="n">
-        <v>79.15106375423268</v>
+        <v>68.64842735589637</v>
       </c>
       <c r="P16" t="n">
-        <v>56.62942379433157</v>
+        <v>95.06068987996153</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.09964914282762</v>
+        <v>152.2155952430213</v>
       </c>
       <c r="R16" t="n">
-        <v>52.90597973638094</v>
+        <v>45.10067939185307</v>
       </c>
       <c r="S16" t="n">
-        <v>89.01445449274225</v>
+        <v>129.6528793468438</v>
       </c>
       <c r="T16" t="n">
-        <v>87.0415553113514</v>
+        <v>72.38097017556508</v>
       </c>
       <c r="U16" t="n">
-        <v>39.23146558046522</v>
+        <v>89.80278699746164</v>
       </c>
       <c r="V16" t="n">
-        <v>175.3438833614536</v>
+        <v>82.12523319008237</v>
       </c>
       <c r="W16" t="n">
-        <v>30.60101029276645</v>
+        <v>34.44825988125237</v>
       </c>
       <c r="X16" t="n">
-        <v>67.28586475659868</v>
+        <v>27.2180422136043</v>
       </c>
       <c r="Y16" t="n">
-        <v>83.0769715527592</v>
+        <v>81.15108579290531</v>
       </c>
       <c r="Z16" t="n">
-        <v>81.31389012906287</v>
+        <v>53.89715619961104</v>
       </c>
       <c r="AA16" t="n">
-        <v>68.57933350509798</v>
+        <v>51.18213105177188</v>
       </c>
       <c r="AB16" t="n">
-        <v>56.16623744340598</v>
+        <v>71.95127627152712</v>
       </c>
       <c r="AC16" t="n">
-        <v>88.54372875782573</v>
+        <v>78.47149969887394</v>
       </c>
       <c r="AD16" t="n">
-        <v>81.53914922501198</v>
+        <v>92.08254755381978</v>
       </c>
       <c r="AE16" t="n">
-        <v>111.7542610886719</v>
+        <v>139.0380415870389</v>
       </c>
       <c r="AF16" t="n">
-        <v>47.72479500677685</v>
+        <v>101.6917465050178</v>
       </c>
       <c r="AG16" t="n">
-        <v>75.65534824012937</v>
+        <v>53.58855331342383</v>
       </c>
       <c r="AH16" t="n">
-        <v>63.63740793738666</v>
+        <v>66.14938525079981</v>
       </c>
       <c r="AI16" t="n">
-        <v>23.25188688062163</v>
+        <v>99.43091359499394</v>
       </c>
       <c r="AJ16" t="n">
-        <v>67.41901388377825</v>
+        <v>47.12113225611354</v>
       </c>
       <c r="AK16" t="n">
-        <v>60.62541333611306</v>
+        <v>35.89651497745717</v>
       </c>
       <c r="AL16" t="n">
-        <v>55.68272410637458</v>
+        <v>19.09706413379788</v>
       </c>
       <c r="AM16" t="n">
-        <v>25.57364872509418</v>
+        <v>29.13138850325041</v>
       </c>
       <c r="AN16" t="n">
-        <v>18.16083031930946</v>
+        <v>15.69712774102898</v>
       </c>
       <c r="AO16" t="n">
-        <v>13.84811197102177</v>
+        <v>13.25499467072971</v>
       </c>
       <c r="AP16" t="n">
-        <v>9.31166296872245</v>
+        <v>11.91221547399307</v>
       </c>
       <c r="AQ16" t="n">
-        <v>19.8031989601527</v>
+        <v>14.11476820803462</v>
       </c>
       <c r="AR16" t="n">
-        <v>16.18115979934217</v>
+        <v>13.63675606160666</v>
       </c>
       <c r="AS16" t="n">
-        <v>15.24658630472237</v>
+        <v>19.00095133768331</v>
       </c>
       <c r="AT16" t="n">
-        <v>11.40653098317088</v>
+        <v>15.2243678876754</v>
       </c>
       <c r="AU16" t="n">
-        <v>10.39466134318305</v>
+        <v>7.881016443146524</v>
       </c>
       <c r="AV16" t="n">
-        <v>20.86345312484646</v>
+        <v>7.023625298141559</v>
       </c>
       <c r="AW16" t="n">
-        <v>12.56469916541336</v>
+        <v>12.11939790059857</v>
       </c>
       <c r="AX16" t="n">
-        <v>13.74735668330525</v>
+        <v>4.341222160694042</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>11.46973228669559</v>
+        <v>25.47729771130593</v>
       </c>
       <c r="D17" t="n">
-        <v>6.047762954609101</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>21.11122379949006</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>29.82797651313589</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>18.24582117128303</v>
+        <v>9.397665223918162</v>
       </c>
       <c r="H17" t="n">
-        <v>51.42936462040741</v>
+        <v>36.72336551412605</v>
       </c>
       <c r="I17" t="n">
-        <v>7.025438348666187</v>
+        <v>111.3612149191848</v>
       </c>
       <c r="J17" t="n">
-        <v>56.37636682769185</v>
+        <v>68.09647103787105</v>
       </c>
       <c r="K17" t="n">
-        <v>31.36839152579135</v>
+        <v>45.33453080673796</v>
       </c>
       <c r="L17" t="n">
-        <v>94.20627760682721</v>
+        <v>21.8140977508975</v>
       </c>
       <c r="M17" t="n">
-        <v>65.69442178651089</v>
+        <v>54.47643110867935</v>
       </c>
       <c r="N17" t="n">
-        <v>212.4981751196181</v>
+        <v>52.62296295173142</v>
       </c>
       <c r="O17" t="n">
-        <v>17.43626118565093</v>
+        <v>70.89980948872437</v>
       </c>
       <c r="P17" t="n">
-        <v>68.58224718200482</v>
+        <v>66.62868101603884</v>
       </c>
       <c r="Q17" t="n">
-        <v>42.90889606185099</v>
+        <v>40.64005121466185</v>
       </c>
       <c r="R17" t="n">
-        <v>70.37155835736867</v>
+        <v>10.70489746249716</v>
       </c>
       <c r="S17" t="n">
-        <v>131.2751119987208</v>
+        <v>14.07966450702238</v>
       </c>
       <c r="T17" t="n">
-        <v>22.83073476602505</v>
+        <v>62.92521736533546</v>
       </c>
       <c r="U17" t="n">
-        <v>63.58203465502572</v>
+        <v>29.90717781927369</v>
       </c>
       <c r="V17" t="n">
-        <v>118.3349914175609</v>
+        <v>34.2988018891083</v>
       </c>
       <c r="W17" t="n">
-        <v>41.69825847712612</v>
+        <v>81.20020307387057</v>
       </c>
       <c r="X17" t="n">
-        <v>23.92987565205341</v>
+        <v>6.925803363785537</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.09511244238755</v>
+        <v>109.4464212210681</v>
       </c>
       <c r="Z17" t="n">
-        <v>33.53955097740557</v>
+        <v>62.24654624382948</v>
       </c>
       <c r="AA17" t="n">
-        <v>18.3846314078088</v>
+        <v>40.74136502633381</v>
       </c>
       <c r="AB17" t="n">
-        <v>75.02239472101749</v>
+        <v>21.82184631483289</v>
       </c>
       <c r="AC17" t="n">
-        <v>63.95730098791891</v>
+        <v>18.66473648169315</v>
       </c>
       <c r="AD17" t="n">
-        <v>22.33843121813366</v>
+        <v>31.23191854921769</v>
       </c>
       <c r="AE17" t="n">
-        <v>59.57562773888922</v>
+        <v>41.6121400387501</v>
       </c>
       <c r="AF17" t="n">
-        <v>5.717155768121842</v>
+        <v>20.73590582550727</v>
       </c>
       <c r="AG17" t="n">
-        <v>15.72899498405855</v>
+        <v>26.38283673735343</v>
       </c>
       <c r="AH17" t="n">
-        <v>65.99460654756219</v>
+        <v>25.22532251374796</v>
       </c>
       <c r="AI17" t="n">
-        <v>28.9353402739859</v>
+        <v>61.56856226179332</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.288951937256511</v>
+        <v>62.45385482300326</v>
       </c>
       <c r="AK17" t="n">
-        <v>31.47306689922616</v>
+        <v>25.51594860139494</v>
       </c>
       <c r="AL17" t="n">
-        <v>9.508846820586102</v>
+        <v>73.0543184400709</v>
       </c>
       <c r="AM17" t="n">
-        <v>22.15014621844561</v>
+        <v>26.15522462877869</v>
       </c>
       <c r="AN17" t="n">
-        <v>18.48901563560262</v>
+        <v>9.342240974676734</v>
       </c>
       <c r="AO17" t="n">
-        <v>24.94196373715085</v>
+        <v>27.14550814955461</v>
       </c>
       <c r="AP17" t="n">
-        <v>11.04321095420891</v>
+        <v>5.022968949346483</v>
       </c>
       <c r="AQ17" t="n">
-        <v>10.47796977995705</v>
+        <v>1.782205376696364</v>
       </c>
       <c r="AR17" t="n">
-        <v>30.95821373204035</v>
+        <v>36.09746358616633</v>
       </c>
       <c r="AS17" t="n">
-        <v>31.80431043843648</v>
+        <v>2.196862548565323</v>
       </c>
       <c r="AT17" t="n">
-        <v>46.48027855108252</v>
+        <v>19.4037941749069</v>
       </c>
       <c r="AU17" t="n">
-        <v>9.029708258442909</v>
+        <v>8.703675344006816</v>
       </c>
       <c r="AV17" t="n">
-        <v>11.27475819224969</v>
+        <v>21.04875977990045</v>
       </c>
       <c r="AW17" t="n">
-        <v>46.05435210814701</v>
+        <v>23.94899203433201</v>
       </c>
       <c r="AX17" t="n">
-        <v>21.64560917486248</v>
+        <v>19.36515651417057</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>7.836586202920263</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>5.680966198007411</v>
+        <v>2.221257914752061</v>
       </c>
       <c r="E18" t="n">
-        <v>5.110936008482628</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>5.491388815041291</v>
+        <v>14.40592656086664</v>
       </c>
       <c r="G18" t="n">
-        <v>18.0805393382531</v>
+        <v>61.57304896936877</v>
       </c>
       <c r="H18" t="n">
-        <v>3.276168731887967</v>
+        <v>3.541901191456472</v>
       </c>
       <c r="I18" t="n">
-        <v>13.22978793053119</v>
+        <v>10.98585761476412</v>
       </c>
       <c r="J18" t="n">
-        <v>18.4373310285504</v>
+        <v>77.70169676193494</v>
       </c>
       <c r="K18" t="n">
-        <v>12.19574733884216</v>
+        <v>43.07190599530683</v>
       </c>
       <c r="L18" t="n">
-        <v>28.81769113153385</v>
+        <v>15.51268041514172</v>
       </c>
       <c r="M18" t="n">
-        <v>22.5276052105055</v>
+        <v>104.9989401781547</v>
       </c>
       <c r="N18" t="n">
-        <v>25.06331021407463</v>
+        <v>32.01102854037421</v>
       </c>
       <c r="O18" t="n">
-        <v>48.01457650886103</v>
+        <v>7.036935975045073</v>
       </c>
       <c r="P18" t="n">
-        <v>5.07569432811745</v>
+        <v>35.88310700143916</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.162533318295004</v>
+        <v>42.70394979292936</v>
       </c>
       <c r="R18" t="n">
-        <v>16.48067929579428</v>
+        <v>14.10235809942586</v>
       </c>
       <c r="S18" t="n">
-        <v>5.767477845972443</v>
+        <v>10.19163564123303</v>
       </c>
       <c r="T18" t="n">
-        <v>12.24144004349879</v>
+        <v>20.85729841103723</v>
       </c>
       <c r="U18" t="n">
-        <v>12.64282753084594</v>
+        <v>11.89041841324568</v>
       </c>
       <c r="V18" t="n">
-        <v>54.13759255670892</v>
+        <v>18.00702665909599</v>
       </c>
       <c r="W18" t="n">
-        <v>11.44764295669663</v>
+        <v>12.56203692728659</v>
       </c>
       <c r="X18" t="n">
-        <v>30.73798288959722</v>
+        <v>45.20501235538708</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.33535719703708</v>
+        <v>21.56495617268057</v>
       </c>
       <c r="Z18" t="n">
-        <v>16.19511716879272</v>
+        <v>8.863486674052064</v>
       </c>
       <c r="AA18" t="n">
-        <v>11.48359352145972</v>
+        <v>18.77641136146705</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.943150422248748</v>
+        <v>46.78859652809143</v>
       </c>
       <c r="AC18" t="n">
-        <v>16.00137213626945</v>
+        <v>26.7041732368692</v>
       </c>
       <c r="AD18" t="n">
-        <v>26.4642467525377</v>
+        <v>8.382607214065445</v>
       </c>
       <c r="AE18" t="n">
-        <v>21.79639189551502</v>
+        <v>12.74624550385051</v>
       </c>
       <c r="AF18" t="n">
-        <v>10.22810569928583</v>
+        <v>32.27050928706533</v>
       </c>
       <c r="AG18" t="n">
-        <v>23.64624930147106</v>
+        <v>11.42891236009686</v>
       </c>
       <c r="AH18" t="n">
-        <v>10.66344143523167</v>
+        <v>18.98836064407449</v>
       </c>
       <c r="AI18" t="n">
-        <v>12.55287387609104</v>
+        <v>22.25004980067963</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11.27043960142004</v>
+        <v>9.48439089068242</v>
       </c>
       <c r="AK18" t="n">
-        <v>3.446466701668248</v>
+        <v>3.899871338007601</v>
       </c>
       <c r="AL18" t="n">
-        <v>45.17398390896163</v>
+        <v>2.936749529382296</v>
       </c>
       <c r="AM18" t="n">
-        <v>7.94714989437782</v>
+        <v>4.603203360440236</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.148848457525664</v>
+        <v>4.783962491700364</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.573503565167762</v>
+        <v>4.757837814912516</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.857474859613202</v>
+        <v>6.655402893514438</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.102501148345946</v>
+        <v>6.538015382310114</v>
       </c>
       <c r="AR18" t="n">
-        <v>3.145706442555121</v>
+        <v>1.462571391569459</v>
       </c>
       <c r="AS18" t="n">
-        <v>4.042934254936362</v>
+        <v>0.5643204930607859</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.7552870145380629</v>
+        <v>4.982111544495106</v>
       </c>
       <c r="AU18" t="n">
-        <v>1.744741156339462</v>
+        <v>3.996214520710433</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.2973356256898504</v>
+        <v>0.6172999442762307</v>
       </c>
       <c r="AW18" t="n">
-        <v>2.429274527747861</v>
+        <v>1.418652762738882</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.876379890437498</v>
+        <v>1.804222310746809</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>32.43916112911827</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>11.27414331578482</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>4.266618928317442</v>
+        <v>78.3575724303394</v>
       </c>
       <c r="F19" t="n">
-        <v>45.39278014892655</v>
+        <v>20.56474471039207</v>
       </c>
       <c r="G19" t="n">
-        <v>28.96011769443132</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>16.11700726941409</v>
+        <v>8.409429650552497</v>
       </c>
       <c r="I19" t="n">
-        <v>234.0286961469776</v>
+        <v>10.16097296428515</v>
       </c>
       <c r="J19" t="n">
-        <v>13.42533198990365</v>
+        <v>23.8724355974803</v>
       </c>
       <c r="K19" t="n">
-        <v>47.63672053918929</v>
+        <v>52.78600309160191</v>
       </c>
       <c r="L19" t="n">
-        <v>3.676342395682579</v>
+        <v>36.10155973601351</v>
       </c>
       <c r="M19" t="n">
-        <v>47.97336789835161</v>
+        <v>20.52800667468036</v>
       </c>
       <c r="N19" t="n">
-        <v>21.17066396108987</v>
+        <v>18.87001377043234</v>
       </c>
       <c r="O19" t="n">
-        <v>51.74305616160986</v>
+        <v>34.1328474727371</v>
       </c>
       <c r="P19" t="n">
-        <v>21.05528895554455</v>
+        <v>81.90931539612127</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.56501835410795</v>
+        <v>1.753071306989364</v>
       </c>
       <c r="R19" t="n">
-        <v>13.96233763505599</v>
+        <v>28.15601257636663</v>
       </c>
       <c r="S19" t="n">
-        <v>40.46732727189129</v>
+        <v>1.350774777939465</v>
       </c>
       <c r="T19" t="n">
-        <v>17.45476743244684</v>
+        <v>19.9780901299767</v>
       </c>
       <c r="U19" t="n">
-        <v>24.52427796167212</v>
+        <v>71.04921983157365</v>
       </c>
       <c r="V19" t="n">
-        <v>28.81703746946094</v>
+        <v>19.4176065358795</v>
       </c>
       <c r="W19" t="n">
-        <v>9.15532512460897</v>
+        <v>42.27525003219307</v>
       </c>
       <c r="X19" t="n">
-        <v>17.58302894376456</v>
+        <v>4.643976832825439</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.253519229290612</v>
+        <v>23.45898870433133</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.166959589032863</v>
+        <v>3.784481912770523</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.290247088358472</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>17.43490122422486</v>
+        <v>35.19089437089808</v>
       </c>
       <c r="AC19" t="n">
-        <v>15.62385919964733</v>
+        <v>14.85510395045586</v>
       </c>
       <c r="AD19" t="n">
-        <v>3.374134152398829</v>
+        <v>6.996402509507891</v>
       </c>
       <c r="AE19" t="n">
-        <v>3.380176762992715</v>
+        <v>16.96481846726417</v>
       </c>
       <c r="AF19" t="n">
-        <v>20.08755017892033</v>
+        <v>7.537715935833941</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.22120199191738</v>
+        <v>1.982927587577023</v>
       </c>
       <c r="AH19" t="n">
-        <v>11.63141204530127</v>
+        <v>5.966247035959347</v>
       </c>
       <c r="AI19" t="n">
-        <v>42.14704669158061</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>26.33227160003324</v>
+        <v>3.944528354231058</v>
       </c>
       <c r="AK19" t="n">
-        <v>1.992742641975288</v>
+        <v>14.84067300999347</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.689560573284384</v>
+        <v>21.09181566539602</v>
       </c>
       <c r="AM19" t="n">
-        <v>10.51500059334537</v>
+        <v>75.48044040651223</v>
       </c>
       <c r="AN19" t="n">
-        <v>8.97815222253818</v>
+        <v>16.66980909825034</v>
       </c>
       <c r="AO19" t="n">
-        <v>15.66300249228189</v>
+        <v>5.696400645184527</v>
       </c>
       <c r="AP19" t="n">
-        <v>5.711940947784234</v>
+        <v>19.71818524581662</v>
       </c>
       <c r="AQ19" t="n">
-        <v>3.400915170944408</v>
+        <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>4.110691945786939</v>
+        <v>18.15372883677749</v>
       </c>
       <c r="AS19" t="n">
-        <v>10.92803934154755</v>
+        <v>5.429304606519855</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.665688558214473</v>
+        <v>18.0968725451902</v>
       </c>
       <c r="AU19" t="n">
-        <v>6.654533856668229</v>
+        <v>6.44921997068972</v>
       </c>
       <c r="AV19" t="n">
-        <v>22.20943300590624</v>
+        <v>0.5025201142569301</v>
       </c>
       <c r="AW19" t="n">
-        <v>8.507785471325706</v>
+        <v>5.832021161354356</v>
       </c>
       <c r="AX19" t="n">
-        <v>1.44137346514394</v>
+        <v>10.71939077574051</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>12.89669763772052</v>
+        <v>15.31097062347887</v>
       </c>
       <c r="D20" t="n">
-        <v>21.42097336420035</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>21.3910704907108</v>
+        <v>35.64082003569228</v>
       </c>
       <c r="F20" t="n">
-        <v>18.25540283917613</v>
+        <v>26.03175009949921</v>
       </c>
       <c r="G20" t="n">
-        <v>13.13163683883359</v>
+        <v>32.55665704136592</v>
       </c>
       <c r="H20" t="n">
-        <v>26.63667089917513</v>
+        <v>44.57036632998873</v>
       </c>
       <c r="I20" t="n">
-        <v>47.33274684774705</v>
+        <v>19.05981472225508</v>
       </c>
       <c r="J20" t="n">
-        <v>15.84026774007259</v>
+        <v>28.50924835103803</v>
       </c>
       <c r="K20" t="n">
-        <v>110.9715027901392</v>
+        <v>74.44144221298544</v>
       </c>
       <c r="L20" t="n">
-        <v>96.99649946636009</v>
+        <v>44.23887635547533</v>
       </c>
       <c r="M20" t="n">
-        <v>62.46754059099001</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>84.30514875474196</v>
+        <v>83.10561513125356</v>
       </c>
       <c r="O20" t="n">
-        <v>158.2008780450875</v>
+        <v>74.73275454730319</v>
       </c>
       <c r="P20" t="n">
-        <v>43.54151915067739</v>
+        <v>93.08107495847953</v>
       </c>
       <c r="Q20" t="n">
-        <v>40.36025927023633</v>
+        <v>46.77247813210324</v>
       </c>
       <c r="R20" t="n">
-        <v>33.7120951896777</v>
+        <v>35.67622221713843</v>
       </c>
       <c r="S20" t="n">
-        <v>17.39697014994396</v>
+        <v>51.82122029447063</v>
       </c>
       <c r="T20" t="n">
-        <v>45.84118288462845</v>
+        <v>37.48149770784129</v>
       </c>
       <c r="U20" t="n">
-        <v>85.00568176003196</v>
+        <v>59.36151370034252</v>
       </c>
       <c r="V20" t="n">
-        <v>63.12054908792386</v>
+        <v>33.38638970273463</v>
       </c>
       <c r="W20" t="n">
-        <v>103.6973062396391</v>
+        <v>44.15647484393885</v>
       </c>
       <c r="X20" t="n">
-        <v>37.2282513491008</v>
+        <v>95.01599831150702</v>
       </c>
       <c r="Y20" t="n">
-        <v>112.7386744451352</v>
+        <v>138.2332073984071</v>
       </c>
       <c r="Z20" t="n">
-        <v>89.6914413052516</v>
+        <v>59.2356692894266</v>
       </c>
       <c r="AA20" t="n">
-        <v>110.9915765573173</v>
+        <v>144.5706794807056</v>
       </c>
       <c r="AB20" t="n">
-        <v>113.0967669615737</v>
+        <v>92.25601732998946</v>
       </c>
       <c r="AC20" t="n">
-        <v>61.25404987318235</v>
+        <v>120.4044511501327</v>
       </c>
       <c r="AD20" t="n">
-        <v>99.17322368402908</v>
+        <v>150.5181415707008</v>
       </c>
       <c r="AE20" t="n">
-        <v>79.67566303960278</v>
+        <v>172.6023450104239</v>
       </c>
       <c r="AF20" t="n">
-        <v>94.71184314228481</v>
+        <v>163.4242824249997</v>
       </c>
       <c r="AG20" t="n">
-        <v>102.9515358074456</v>
+        <v>144.8466540170786</v>
       </c>
       <c r="AH20" t="n">
-        <v>85.68528947436258</v>
+        <v>136.0717515332936</v>
       </c>
       <c r="AI20" t="n">
-        <v>21.53436225493665</v>
+        <v>111.7246090050085</v>
       </c>
       <c r="AJ20" t="n">
-        <v>57.35219557940157</v>
+        <v>45.94591522781144</v>
       </c>
       <c r="AK20" t="n">
-        <v>139.8314520524553</v>
+        <v>97.81925371288408</v>
       </c>
       <c r="AL20" t="n">
-        <v>57.54083047306131</v>
+        <v>30.20455127870774</v>
       </c>
       <c r="AM20" t="n">
-        <v>31.83916437810094</v>
+        <v>43.06437867852605</v>
       </c>
       <c r="AN20" t="n">
-        <v>23.15721030252517</v>
+        <v>17.40433139400039</v>
       </c>
       <c r="AO20" t="n">
-        <v>47.89893576955741</v>
+        <v>38.6311193074798</v>
       </c>
       <c r="AP20" t="n">
-        <v>37.503817423828</v>
+        <v>39.72380607047938</v>
       </c>
       <c r="AQ20" t="n">
-        <v>28.26037025462281</v>
+        <v>26.5948541079047</v>
       </c>
       <c r="AR20" t="n">
-        <v>27.29451311009662</v>
+        <v>27.70202479208611</v>
       </c>
       <c r="AS20" t="n">
-        <v>21.86715889756904</v>
+        <v>21.75373084668513</v>
       </c>
       <c r="AT20" t="n">
-        <v>16.08325039448933</v>
+        <v>23.1468032618763</v>
       </c>
       <c r="AU20" t="n">
-        <v>23.75100686185002</v>
+        <v>26.1928114551599</v>
       </c>
       <c r="AV20" t="n">
-        <v>11.51465161760321</v>
+        <v>8.401908108642786</v>
       </c>
       <c r="AW20" t="n">
-        <v>12.35779287602881</v>
+        <v>13.09597065551583</v>
       </c>
       <c r="AX20" t="n">
-        <v>32.51334126843821</v>
+        <v>24.36507198517085</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1.754942926727665</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>3.077092870677829</v>
+        <v>3.506302577723938</v>
       </c>
       <c r="E21" t="n">
-        <v>5.467035714612616</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4616802886651598</v>
+        <v>1.847557433761936</v>
       </c>
       <c r="G21" t="n">
-        <v>1.156190936967509</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6656275037442645</v>
+        <v>0.4464371103937711</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4678123626681502</v>
+        <v>2.377061697978966</v>
       </c>
       <c r="J21" t="n">
-        <v>6.48797888203938</v>
+        <v>2.562851247133033</v>
       </c>
       <c r="K21" t="n">
-        <v>7.636849154888035</v>
+        <v>3.70804440851767</v>
       </c>
       <c r="L21" t="n">
-        <v>21.78421617912879</v>
+        <v>1.724038871519917</v>
       </c>
       <c r="M21" t="n">
-        <v>5.642989336107223</v>
+        <v>3.928994273920072</v>
       </c>
       <c r="N21" t="n">
-        <v>1.555939357850613</v>
+        <v>1.464912595751366</v>
       </c>
       <c r="O21" t="n">
-        <v>2.885590462218315</v>
+        <v>4.826515947097933</v>
       </c>
       <c r="P21" t="n">
-        <v>2.451289302750943</v>
+        <v>1.055337651175114</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.862306036626052</v>
+        <v>14.29700382356282</v>
       </c>
       <c r="R21" t="n">
-        <v>1.805555099865282</v>
+        <v>2.162063709572856</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9949308978285075</v>
+        <v>1.250157374327587</v>
       </c>
       <c r="T21" t="n">
-        <v>1.162352724901194</v>
+        <v>4.290036626452178</v>
       </c>
       <c r="U21" t="n">
-        <v>3.162790799043893</v>
+        <v>3.073440051152585</v>
       </c>
       <c r="V21" t="n">
-        <v>5.520045578140053</v>
+        <v>3.021193363714816</v>
       </c>
       <c r="W21" t="n">
-        <v>1.427269019669177</v>
+        <v>8.34796768444885</v>
       </c>
       <c r="X21" t="n">
-        <v>5.677780448645326</v>
+        <v>2.127816726092494</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.78177888091256</v>
+        <v>4.031418389730502</v>
       </c>
       <c r="Z21" t="n">
-        <v>8.437555848021422</v>
+        <v>3.775032909254594</v>
       </c>
       <c r="AA21" t="n">
-        <v>4.919897288668083</v>
+        <v>6.677451861741407</v>
       </c>
       <c r="AB21" t="n">
-        <v>4.052685233504438</v>
+        <v>4.524764182713643</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.211505976586648</v>
+        <v>5.52135432693605</v>
       </c>
       <c r="AD21" t="n">
-        <v>4.591211193512811</v>
+        <v>3.769838719252981</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.781224903072909</v>
+        <v>4.338915065638859</v>
       </c>
       <c r="AF21" t="n">
-        <v>5.795122958629746</v>
+        <v>2.665588410054511</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.723826511308823</v>
+        <v>5.807198804252033</v>
       </c>
       <c r="AH21" t="n">
-        <v>11.6747483726388</v>
+        <v>7.0753793719322</v>
       </c>
       <c r="AI21" t="n">
-        <v>5.026406025330844</v>
+        <v>5.28769401593189</v>
       </c>
       <c r="AJ21" t="n">
-        <v>5.73667435387804</v>
+        <v>5.216928717475774</v>
       </c>
       <c r="AK21" t="n">
-        <v>4.14291760038903</v>
+        <v>3.353101288335262</v>
       </c>
       <c r="AL21" t="n">
-        <v>4.288802447120731</v>
+        <v>1.497816266496463</v>
       </c>
       <c r="AM21" t="n">
-        <v>9.73861252717457</v>
+        <v>5.248002436299137</v>
       </c>
       <c r="AN21" t="n">
-        <v>7.118006103793977</v>
+        <v>8.083917790744945</v>
       </c>
       <c r="AO21" t="n">
-        <v>2.979293745494386</v>
+        <v>3.359573071524291</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.59933320475241</v>
+        <v>3.688799023394369</v>
       </c>
       <c r="AQ21" t="n">
-        <v>8.204750035362961</v>
+        <v>2.670934256968424</v>
       </c>
       <c r="AR21" t="n">
-        <v>2.068392612296547</v>
+        <v>9.06888840321675</v>
       </c>
       <c r="AS21" t="n">
-        <v>3.423085482756531</v>
+        <v>5.937121149339033</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.811483655922857</v>
+        <v>4.745210182595989</v>
       </c>
       <c r="AU21" t="n">
-        <v>1.948576426031912</v>
+        <v>1.930686700318839</v>
       </c>
       <c r="AV21" t="n">
-        <v>1.987152795089766</v>
+        <v>0.4765709815406016</v>
       </c>
       <c r="AW21" t="n">
-        <v>2.790166896051742</v>
+        <v>3.485754263543641</v>
       </c>
       <c r="AX21" t="n">
-        <v>2.452955040556826</v>
+        <v>2.688924418337617</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>8.869131126501431</v>
+        <v>9.69308781613768</v>
       </c>
       <c r="D22" t="n">
-        <v>9.080689673919638</v>
+        <v>15.30137356543407</v>
       </c>
       <c r="E22" t="n">
-        <v>20.12850495402483</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>8.133731287810175</v>
+        <v>20.95258934992913</v>
       </c>
       <c r="G22" t="n">
-        <v>5.001206515209261</v>
+        <v>4.320778396154058</v>
       </c>
       <c r="H22" t="n">
-        <v>25.6090934985788</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>27.53923840416121</v>
+        <v>139.1959072407416</v>
       </c>
       <c r="J22" t="n">
-        <v>28.86953642461425</v>
+        <v>43.28426178240531</v>
       </c>
       <c r="K22" t="n">
-        <v>28.46705812278379</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>24.87450625731623</v>
+        <v>116.1941517208204</v>
       </c>
       <c r="M22" t="n">
-        <v>31.41464697697783</v>
+        <v>54.69262576114425</v>
       </c>
       <c r="N22" t="n">
-        <v>38.3415559308615</v>
+        <v>65.08844049438251</v>
       </c>
       <c r="O22" t="n">
-        <v>63.16351090874486</v>
+        <v>54.29294465612043</v>
       </c>
       <c r="P22" t="n">
-        <v>44.16416374638685</v>
+        <v>31.10121482207973</v>
       </c>
       <c r="Q22" t="n">
-        <v>123.0915151082991</v>
+        <v>26.20141004191729</v>
       </c>
       <c r="R22" t="n">
-        <v>67.05207991438564</v>
+        <v>42.22226809086478</v>
       </c>
       <c r="S22" t="n">
-        <v>62.38926826443837</v>
+        <v>15.58160907807169</v>
       </c>
       <c r="T22" t="n">
-        <v>46.66302297771001</v>
+        <v>35.33997893404662</v>
       </c>
       <c r="U22" t="n">
-        <v>40.20601540895145</v>
+        <v>78.04780853089692</v>
       </c>
       <c r="V22" t="n">
-        <v>30.03083479473452</v>
+        <v>29.06786929988234</v>
       </c>
       <c r="W22" t="n">
-        <v>76.48278066306169</v>
+        <v>54.70140242165084</v>
       </c>
       <c r="X22" t="n">
-        <v>44.64548819333307</v>
+        <v>93.31140235667417</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.17501534059566</v>
+        <v>51.91181112227302</v>
       </c>
       <c r="Z22" t="n">
-        <v>54.8232266003813</v>
+        <v>58.8979512703925</v>
       </c>
       <c r="AA22" t="n">
-        <v>69.0406617172067</v>
+        <v>56.40940149810711</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.9201500846852</v>
+        <v>53.54916023825503</v>
       </c>
       <c r="AC22" t="n">
-        <v>45.18467829008023</v>
+        <v>35.68772656793413</v>
       </c>
       <c r="AD22" t="n">
-        <v>107.57813094064</v>
+        <v>59.69159665157957</v>
       </c>
       <c r="AE22" t="n">
-        <v>61.4911952684224</v>
+        <v>65.65859701387011</v>
       </c>
       <c r="AF22" t="n">
-        <v>85.7441759961763</v>
+        <v>59.94173827716967</v>
       </c>
       <c r="AG22" t="n">
-        <v>83.29630399203447</v>
+        <v>83.23685970847596</v>
       </c>
       <c r="AH22" t="n">
-        <v>24.19078643329168</v>
+        <v>34.08445701328097</v>
       </c>
       <c r="AI22" t="n">
-        <v>36.40531256208612</v>
+        <v>52.76015975163098</v>
       </c>
       <c r="AJ22" t="n">
-        <v>37.13625362937475</v>
+        <v>92.79581186292776</v>
       </c>
       <c r="AK22" t="n">
-        <v>34.83581275731042</v>
+        <v>29.68141474184605</v>
       </c>
       <c r="AL22" t="n">
-        <v>31.67028553870756</v>
+        <v>2.014046402795588</v>
       </c>
       <c r="AM22" t="n">
-        <v>57.482400119405</v>
+        <v>53.49209929704042</v>
       </c>
       <c r="AN22" t="n">
-        <v>16.47965826880463</v>
+        <v>43.86929747506801</v>
       </c>
       <c r="AO22" t="n">
-        <v>19.29032379682247</v>
+        <v>18.9068465091523</v>
       </c>
       <c r="AP22" t="n">
-        <v>20.69879136073835</v>
+        <v>2.692830810967352</v>
       </c>
       <c r="AQ22" t="n">
-        <v>17.1426506477649</v>
+        <v>10.72236597817409</v>
       </c>
       <c r="AR22" t="n">
-        <v>13.27649974083237</v>
+        <v>16.61037914615694</v>
       </c>
       <c r="AS22" t="n">
-        <v>14.42603868934365</v>
+        <v>9.763180849377564</v>
       </c>
       <c r="AT22" t="n">
-        <v>6.766054763298627</v>
+        <v>6.041043338897087</v>
       </c>
       <c r="AU22" t="n">
-        <v>23.00896563539521</v>
+        <v>12.0463514126805</v>
       </c>
       <c r="AV22" t="n">
-        <v>15.83715307024073</v>
+        <v>32.5885801183563</v>
       </c>
       <c r="AW22" t="n">
-        <v>15.59198728926325</v>
+        <v>10.587142417569</v>
       </c>
       <c r="AX22" t="n">
-        <v>10.00032369360832</v>
+        <v>9.467653051679703</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>19.86919475048569</v>
+        <v>19.23255139668768</v>
       </c>
       <c r="D23" t="n">
-        <v>5.677029811869117</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>21.89106920830307</v>
+        <v>29.33537554150121</v>
       </c>
       <c r="F23" t="n">
-        <v>12.61948133256404</v>
+        <v>35.37238163905906</v>
       </c>
       <c r="G23" t="n">
-        <v>37.78392728825394</v>
+        <v>12.49793676638721</v>
       </c>
       <c r="H23" t="n">
-        <v>14.4154370954422</v>
+        <v>14.1147741306764</v>
       </c>
       <c r="I23" t="n">
-        <v>8.283189052881829</v>
+        <v>21.47157791968348</v>
       </c>
       <c r="J23" t="n">
-        <v>3.703223801531494</v>
+        <v>109.6613288786097</v>
       </c>
       <c r="K23" t="n">
-        <v>23.90432446727499</v>
+        <v>11.68354312322748</v>
       </c>
       <c r="L23" t="n">
-        <v>2.940753366922639</v>
+        <v>25.4497319393564</v>
       </c>
       <c r="M23" t="n">
-        <v>10.63169589059154</v>
+        <v>90.20877309610115</v>
       </c>
       <c r="N23" t="n">
-        <v>38.05529485437546</v>
+        <v>64.72279858376942</v>
       </c>
       <c r="O23" t="n">
-        <v>29.565979862359</v>
+        <v>12.18854934836643</v>
       </c>
       <c r="P23" t="n">
-        <v>215.5927551821337</v>
+        <v>43.9517953398237</v>
       </c>
       <c r="Q23" t="n">
-        <v>93.81817099009706</v>
+        <v>25.77085675499138</v>
       </c>
       <c r="R23" t="n">
-        <v>75.1219704651663</v>
+        <v>7.467473529718188</v>
       </c>
       <c r="S23" t="n">
-        <v>12.34011672052718</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>62.55946240840466</v>
+        <v>4.557161214218759</v>
       </c>
       <c r="U23" t="n">
-        <v>76.24024388113372</v>
+        <v>30.22143192181354</v>
       </c>
       <c r="V23" t="n">
-        <v>29.87380087488351</v>
+        <v>73.46128077863348</v>
       </c>
       <c r="W23" t="n">
-        <v>53.86580801110144</v>
+        <v>28.12515426292939</v>
       </c>
       <c r="X23" t="n">
-        <v>24.8183490831669</v>
+        <v>35.47666813672371</v>
       </c>
       <c r="Y23" t="n">
-        <v>80.93839474842156</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>30.83552087589515</v>
+        <v>141.747832696923</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.16296674282713</v>
+        <v>50.25412520531791</v>
       </c>
       <c r="AB23" t="n">
-        <v>18.82940230345925</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>21.55911558994046</v>
+        <v>44.56053479389926</v>
       </c>
       <c r="AD23" t="n">
-        <v>19.53849459120863</v>
+        <v>34.32421439670307</v>
       </c>
       <c r="AE23" t="n">
-        <v>23.66368859352508</v>
+        <v>52.14773236010389</v>
       </c>
       <c r="AF23" t="n">
-        <v>77.29913739751129</v>
+        <v>30.56101457618741</v>
       </c>
       <c r="AG23" t="n">
-        <v>36.10762316733733</v>
+        <v>41.84718364105148</v>
       </c>
       <c r="AH23" t="n">
-        <v>8.272698757457702</v>
+        <v>18.24628147518771</v>
       </c>
       <c r="AI23" t="n">
-        <v>15.58678771942862</v>
+        <v>37.28164812398907</v>
       </c>
       <c r="AJ23" t="n">
-        <v>46.50688803065982</v>
+        <v>25.52385064571491</v>
       </c>
       <c r="AK23" t="n">
-        <v>17.16430489135736</v>
+        <v>45.12164862363318</v>
       </c>
       <c r="AL23" t="n">
-        <v>17.24612923542796</v>
+        <v>0.6959273205450127</v>
       </c>
       <c r="AM23" t="n">
-        <v>11.69761939528124</v>
+        <v>52.45657562848611</v>
       </c>
       <c r="AN23" t="n">
-        <v>35.77925626477028</v>
+        <v>25.8093647022779</v>
       </c>
       <c r="AO23" t="n">
-        <v>5.79156325580099</v>
+        <v>28.10489243901014</v>
       </c>
       <c r="AP23" t="n">
-        <v>31.35647704697204</v>
+        <v>24.93105843491297</v>
       </c>
       <c r="AQ23" t="n">
-        <v>17.20199287333504</v>
+        <v>21.32117630758997</v>
       </c>
       <c r="AR23" t="n">
-        <v>11.08714244939327</v>
+        <v>30.00071479596441</v>
       </c>
       <c r="AS23" t="n">
-        <v>29.66402303861501</v>
+        <v>24.00832137987519</v>
       </c>
       <c r="AT23" t="n">
-        <v>78.07190770655144</v>
+        <v>22.88616802558093</v>
       </c>
       <c r="AU23" t="n">
-        <v>17.06450778959753</v>
+        <v>6.89002638591756</v>
       </c>
       <c r="AV23" t="n">
-        <v>35.33777038335057</v>
+        <v>31.05444289773004</v>
       </c>
       <c r="AW23" t="n">
-        <v>25.7267958797113</v>
+        <v>23.85956731621106</v>
       </c>
       <c r="AX23" t="n">
-        <v>21.57953776228905</v>
+        <v>24.46105441522118</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>10.60545831015014</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>6.406809079228317</v>
+        <v>10.03566945277853</v>
       </c>
       <c r="E24" t="n">
-        <v>1.966139819938999</v>
+        <v>8.842591013812481</v>
       </c>
       <c r="F24" t="n">
-        <v>5.776655913569691</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>9.971187094566767</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>20.4001854342491</v>
+        <v>0.2502378748301837</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9450404691603405</v>
+        <v>0.409601976411853</v>
       </c>
       <c r="J24" t="n">
-        <v>13.49920257945296</v>
+        <v>6.085114368350549</v>
       </c>
       <c r="K24" t="n">
-        <v>13.29699509622074</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>10.04138356889609</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>34.83067504236549</v>
+        <v>15.4429320211908</v>
       </c>
       <c r="N24" t="n">
-        <v>30.03796029687296</v>
+        <v>16.81436204529773</v>
       </c>
       <c r="O24" t="n">
-        <v>55.52147908567037</v>
+        <v>61.29591483650228</v>
       </c>
       <c r="P24" t="n">
-        <v>14.36750652063909</v>
+        <v>12.45293277886899</v>
       </c>
       <c r="Q24" t="n">
-        <v>10.7349596797094</v>
+        <v>22.38804500154061</v>
       </c>
       <c r="R24" t="n">
-        <v>54.34556773342682</v>
+        <v>15.88302660568705</v>
       </c>
       <c r="S24" t="n">
-        <v>24.64022907596305</v>
+        <v>18.49566306302437</v>
       </c>
       <c r="T24" t="n">
-        <v>31.4287157656782</v>
+        <v>103.9957428989898</v>
       </c>
       <c r="U24" t="n">
-        <v>9.698856627061359</v>
+        <v>10.08357834885303</v>
       </c>
       <c r="V24" t="n">
-        <v>21.894933503956</v>
+        <v>39.17270934217416</v>
       </c>
       <c r="W24" t="n">
-        <v>26.40518429917752</v>
+        <v>11.68475867366247</v>
       </c>
       <c r="X24" t="n">
-        <v>16.07195927444738</v>
+        <v>19.66264289444783</v>
       </c>
       <c r="Y24" t="n">
-        <v>18.2256726641525</v>
+        <v>5.370315031293353</v>
       </c>
       <c r="Z24" t="n">
-        <v>26.90698529779434</v>
+        <v>6.915797630750592</v>
       </c>
       <c r="AA24" t="n">
-        <v>15.28722132017168</v>
+        <v>16.67261410081596</v>
       </c>
       <c r="AB24" t="n">
-        <v>32.60356972454156</v>
+        <v>9.569757722604793</v>
       </c>
       <c r="AC24" t="n">
-        <v>17.77415715212598</v>
+        <v>25.36615348009634</v>
       </c>
       <c r="AD24" t="n">
-        <v>23.67805147552471</v>
+        <v>15.49828285350696</v>
       </c>
       <c r="AE24" t="n">
-        <v>26.18959771481991</v>
+        <v>15.10723004817824</v>
       </c>
       <c r="AF24" t="n">
-        <v>19.39738245344219</v>
+        <v>12.06564533265989</v>
       </c>
       <c r="AG24" t="n">
-        <v>14.33790561210235</v>
+        <v>4.550162141439842</v>
       </c>
       <c r="AH24" t="n">
-        <v>7.841101603112789</v>
+        <v>1.272846246188172</v>
       </c>
       <c r="AI24" t="n">
-        <v>16.44621518934107</v>
+        <v>2.906915440292084</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12.58741096654335</v>
+        <v>16.36995247029239</v>
       </c>
       <c r="AK24" t="n">
-        <v>8.300087582675655</v>
+        <v>24.86149993669763</v>
       </c>
       <c r="AL24" t="n">
-        <v>2.119225761858706</v>
+        <v>2.248135239783347</v>
       </c>
       <c r="AM24" t="n">
-        <v>10.26924726152474</v>
+        <v>4.843054508089177</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.333030015089874</v>
+        <v>1.938091963934371</v>
       </c>
       <c r="AO24" t="n">
-        <v>4.784119159125074</v>
+        <v>0.7391115013171002</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.218040968642781</v>
+        <v>6.364048728745936</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2.114876185553401</v>
+        <v>2.91849749358703</v>
       </c>
       <c r="AR24" t="n">
-        <v>2.133582779634679</v>
+        <v>1.889997973554729</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.5832386874201606</v>
+        <v>1.670902079693561</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.34140894780234</v>
+        <v>2.093636507724873</v>
       </c>
       <c r="AU24" t="n">
-        <v>3.220946372324938</v>
+        <v>2.284179574614059</v>
       </c>
       <c r="AV24" t="n">
-        <v>1.9863314461326</v>
+        <v>4.303800524228988</v>
       </c>
       <c r="AW24" t="n">
-        <v>1.218379877405146</v>
+        <v>6.368460113913443</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.4890030330216356</v>
+        <v>0.868641807066045</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>9.130415842916058</v>
+        <v>3.233000329898811</v>
       </c>
       <c r="D25" t="n">
-        <v>32.70003593956076</v>
+        <v>19.28952098884385</v>
       </c>
       <c r="E25" t="n">
-        <v>10.61986916652852</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>14.97734934383496</v>
+        <v>4.639477824992564</v>
       </c>
       <c r="G25" t="n">
-        <v>2.4934481768416</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>25.66946227067625</v>
+        <v>55.83053719192927</v>
       </c>
       <c r="I25" t="n">
-        <v>3.640209690970231</v>
+        <v>43.91213260405794</v>
       </c>
       <c r="J25" t="n">
-        <v>2.867833000711598</v>
+        <v>22.87121048115781</v>
       </c>
       <c r="K25" t="n">
-        <v>10.35699769715962</v>
+        <v>39.9909837735846</v>
       </c>
       <c r="L25" t="n">
-        <v>44.35257662022836</v>
+        <v>32.83914160064551</v>
       </c>
       <c r="M25" t="n">
-        <v>14.13188064225961</v>
+        <v>125.1759705109777</v>
       </c>
       <c r="N25" t="n">
-        <v>45.83750262334046</v>
+        <v>17.9074808967906</v>
       </c>
       <c r="O25" t="n">
-        <v>41.05072260943379</v>
+        <v>75.77124974924219</v>
       </c>
       <c r="P25" t="n">
-        <v>26.46953414836273</v>
+        <v>30.70436157027016</v>
       </c>
       <c r="Q25" t="n">
-        <v>146.6165384520174</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.29947668368918</v>
+        <v>65.66783879588979</v>
       </c>
       <c r="S25" t="n">
-        <v>5.978947629215003</v>
+        <v>16.45823865723701</v>
       </c>
       <c r="T25" t="n">
-        <v>26.46966483698549</v>
+        <v>47.00232381868853</v>
       </c>
       <c r="U25" t="n">
-        <v>32.49613227280609</v>
+        <v>84.10999438066821</v>
       </c>
       <c r="V25" t="n">
-        <v>11.31721504442</v>
+        <v>23.5377598455682</v>
       </c>
       <c r="W25" t="n">
-        <v>19.44745464441307</v>
+        <v>43.54245722330854</v>
       </c>
       <c r="X25" t="n">
-        <v>7.491949554996642</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>16.26411389673017</v>
+        <v>24.51108458862918</v>
       </c>
       <c r="Z25" t="n">
-        <v>4.104896983358137</v>
+        <v>8.050926825974289</v>
       </c>
       <c r="AA25" t="n">
-        <v>23.23855058946898</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.617258708223036</v>
+        <v>17.25019654835226</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.853983660006412</v>
+        <v>9.257304579938904</v>
       </c>
       <c r="AD25" t="n">
-        <v>1.657277521749564</v>
+        <v>1.407672954439125</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.5486248479765884</v>
+        <v>27.84734443240987</v>
       </c>
       <c r="AF25" t="n">
-        <v>15.24452431288125</v>
+        <v>8.335846365204262</v>
       </c>
       <c r="AG25" t="n">
-        <v>2.810333276259925</v>
+        <v>8.123139727386182</v>
       </c>
       <c r="AH25" t="n">
-        <v>2.570831576562228</v>
+        <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>13.04062219440526</v>
+        <v>3.104104371582321</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5.392725091702974</v>
+        <v>1.631832954750386</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.3086186401901301</v>
+        <v>3.175428276775723</v>
       </c>
       <c r="AL25" t="n">
-        <v>2.516410943197668</v>
+        <v>0.2239271560918583</v>
       </c>
       <c r="AM25" t="n">
-        <v>10.83343339145586</v>
+        <v>11.89669643100887</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.3315656314244901</v>
+        <v>1.435638318809979</v>
       </c>
       <c r="AO25" t="n">
-        <v>8.788605999554729</v>
+        <v>6.60993498265098</v>
       </c>
       <c r="AP25" t="n">
-        <v>4.879565142257608</v>
+        <v>3.288135553092837</v>
       </c>
       <c r="AQ25" t="n">
-        <v>3.210641965238001</v>
+        <v>5.555212143599007</v>
       </c>
       <c r="AR25" t="n">
-        <v>16.17824502744074</v>
+        <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.792933906983404</v>
+        <v>2.522860883691453</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.225391826171695</v>
+        <v>6.259425155937032</v>
       </c>
       <c r="AU25" t="n">
-        <v>6.410064169147859</v>
+        <v>7.286600551627229</v>
       </c>
       <c r="AV25" t="n">
-        <v>11.78126928521107</v>
+        <v>5.889183212017942</v>
       </c>
       <c r="AW25" t="n">
-        <v>24.39151932458547</v>
+        <v>0</v>
       </c>
       <c r="AX25" t="n">
-        <v>4.924589185515742</v>
+        <v>13.19106813955721</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.46286857772494</v>
+        <v>23.80248880057973</v>
       </c>
       <c r="D26" t="n">
-        <v>12.13530230934771</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>16.65367746294607</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>14.92635109072862</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>70.03915666179313</v>
+        <v>98.3628862748686</v>
       </c>
       <c r="H26" t="n">
-        <v>20.28181384435632</v>
+        <v>29.72465936337883</v>
       </c>
       <c r="I26" t="n">
-        <v>5.55873850552467</v>
+        <v>66.45809993229501</v>
       </c>
       <c r="J26" t="n">
-        <v>49.26926718786927</v>
+        <v>76.96955109739757</v>
       </c>
       <c r="K26" t="n">
-        <v>56.22497900176971</v>
+        <v>40.87812758386265</v>
       </c>
       <c r="L26" t="n">
-        <v>27.83132505121124</v>
+        <v>29.93861723229433</v>
       </c>
       <c r="M26" t="n">
-        <v>8.890703168066004</v>
+        <v>84.4759854917552</v>
       </c>
       <c r="N26" t="n">
-        <v>49.5301694012427</v>
+        <v>95.06155289819193</v>
       </c>
       <c r="O26" t="n">
-        <v>35.74597009567722</v>
+        <v>121.8813468175075</v>
       </c>
       <c r="P26" t="n">
-        <v>110.2991899133187</v>
+        <v>29.41014640652686</v>
       </c>
       <c r="Q26" t="n">
-        <v>60.50800609198635</v>
+        <v>33.1068382407886</v>
       </c>
       <c r="R26" t="n">
-        <v>67.56499410600895</v>
+        <v>54.1147106216881</v>
       </c>
       <c r="S26" t="n">
-        <v>84.76312867258879</v>
+        <v>58.39398253981324</v>
       </c>
       <c r="T26" t="n">
-        <v>72.18765619913026</v>
+        <v>119.2584089941959</v>
       </c>
       <c r="U26" t="n">
-        <v>51.56002869652082</v>
+        <v>54.80190750890051</v>
       </c>
       <c r="V26" t="n">
-        <v>49.98114900503889</v>
+        <v>38.07483318021179</v>
       </c>
       <c r="W26" t="n">
-        <v>72.87644180104535</v>
+        <v>54.91747598636366</v>
       </c>
       <c r="X26" t="n">
-        <v>113.3146167278951</v>
+        <v>24.26820047751664</v>
       </c>
       <c r="Y26" t="n">
-        <v>53.4274310405938</v>
+        <v>44.02318702064327</v>
       </c>
       <c r="Z26" t="n">
-        <v>66.39490742735062</v>
+        <v>57.03114492205876</v>
       </c>
       <c r="AA26" t="n">
-        <v>109.0922154168535</v>
+        <v>119.9873379973825</v>
       </c>
       <c r="AB26" t="n">
-        <v>95.71643990569281</v>
+        <v>100.4953592349519</v>
       </c>
       <c r="AC26" t="n">
-        <v>98.2295738278976</v>
+        <v>134.1946354102785</v>
       </c>
       <c r="AD26" t="n">
-        <v>131.6342906895838</v>
+        <v>87.05182275136654</v>
       </c>
       <c r="AE26" t="n">
-        <v>142.5861496280161</v>
+        <v>152.3362574223005</v>
       </c>
       <c r="AF26" t="n">
-        <v>364.0876803849287</v>
+        <v>104.8735399917327</v>
       </c>
       <c r="AG26" t="n">
-        <v>68.99395388708787</v>
+        <v>74.97513968916215</v>
       </c>
       <c r="AH26" t="n">
-        <v>56.95701097135061</v>
+        <v>107.6267506741821</v>
       </c>
       <c r="AI26" t="n">
-        <v>78.6361065678278</v>
+        <v>37.95710698927413</v>
       </c>
       <c r="AJ26" t="n">
-        <v>27.64621538269985</v>
+        <v>117.8370707146244</v>
       </c>
       <c r="AK26" t="n">
-        <v>90.96141034003391</v>
+        <v>138.9609079508335</v>
       </c>
       <c r="AL26" t="n">
-        <v>23.45351420993146</v>
+        <v>41.0896212957082</v>
       </c>
       <c r="AM26" t="n">
-        <v>29.19435234160703</v>
+        <v>66.9427473529547</v>
       </c>
       <c r="AN26" t="n">
-        <v>15.22819245010832</v>
+        <v>17.62429312423467</v>
       </c>
       <c r="AO26" t="n">
-        <v>62.91790389587796</v>
+        <v>20.82676806791309</v>
       </c>
       <c r="AP26" t="n">
-        <v>47.6368339323105</v>
+        <v>38.72318456756366</v>
       </c>
       <c r="AQ26" t="n">
-        <v>16.0059080922883</v>
+        <v>27.75002331675157</v>
       </c>
       <c r="AR26" t="n">
-        <v>16.37162192262852</v>
+        <v>63.79577701351756</v>
       </c>
       <c r="AS26" t="n">
-        <v>25.8500562478602</v>
+        <v>15.7469925643115</v>
       </c>
       <c r="AT26" t="n">
-        <v>16.60097032855141</v>
+        <v>21.56777241424015</v>
       </c>
       <c r="AU26" t="n">
-        <v>11.95702634666511</v>
+        <v>26.21388115472544</v>
       </c>
       <c r="AV26" t="n">
-        <v>26.74106347395156</v>
+        <v>20.86305179614142</v>
       </c>
       <c r="AW26" t="n">
-        <v>12.28308659006526</v>
+        <v>18.99529413152102</v>
       </c>
       <c r="AX26" t="n">
-        <v>18.23025160960675</v>
+        <v>24.59361496974342</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>14.95332228691951</v>
+        <v>2.278925209156674</v>
       </c>
       <c r="D27" t="n">
-        <v>8.846325835319998</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1.773197438122201</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>13.6285801490439</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.632958608012568</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2087564629216619</v>
+        <v>4.090867344930853</v>
       </c>
       <c r="I27" t="n">
-        <v>3.586346605415398</v>
+        <v>7.147913525440992</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4511257562462583</v>
+        <v>6.110968566246365</v>
       </c>
       <c r="K27" t="n">
-        <v>0.8715895999096445</v>
+        <v>5.153852654613169</v>
       </c>
       <c r="L27" t="n">
-        <v>9.45058364117531</v>
+        <v>11.63967263383947</v>
       </c>
       <c r="M27" t="n">
-        <v>3.474858801648015</v>
+        <v>2.146143006021042</v>
       </c>
       <c r="N27" t="n">
-        <v>1.518021859558747</v>
+        <v>3.595849026196401</v>
       </c>
       <c r="O27" t="n">
-        <v>2.585277261770514</v>
+        <v>2.314841431702793</v>
       </c>
       <c r="P27" t="n">
-        <v>3.227573220941131</v>
+        <v>1.297918634107325</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.570736524655514</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.939786093363642</v>
+        <v>2.849681941396011</v>
       </c>
       <c r="S27" t="n">
-        <v>7.689870563636709</v>
+        <v>4.254349712630355</v>
       </c>
       <c r="T27" t="n">
-        <v>7.801574922131588</v>
+        <v>5.244392235684912</v>
       </c>
       <c r="U27" t="n">
-        <v>4.646406781409975</v>
+        <v>3.30407773315999</v>
       </c>
       <c r="V27" t="n">
-        <v>4.095177215153061</v>
+        <v>3.365313813120644</v>
       </c>
       <c r="W27" t="n">
-        <v>7.212991643701621</v>
+        <v>2.506932370716965</v>
       </c>
       <c r="X27" t="n">
-        <v>3.705620141536672</v>
+        <v>3.029200069149297</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.697912642899719</v>
+        <v>3.833629210553107</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.392617088177419</v>
+        <v>3.548756922349682</v>
       </c>
       <c r="AA27" t="n">
-        <v>2.505425656337084</v>
+        <v>5.749689327751415</v>
       </c>
       <c r="AB27" t="n">
-        <v>5.89561230182682</v>
+        <v>3.70447772634124</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.991070835062251</v>
+        <v>6.839248747944894</v>
       </c>
       <c r="AD27" t="n">
-        <v>4.260281090689364</v>
+        <v>7.78378381179974</v>
       </c>
       <c r="AE27" t="n">
-        <v>6.230575922115363</v>
+        <v>7.482916391120424</v>
       </c>
       <c r="AF27" t="n">
-        <v>6.940219321456649</v>
+        <v>5.823890030031995</v>
       </c>
       <c r="AG27" t="n">
-        <v>4.243662444579104</v>
+        <v>5.139348217262161</v>
       </c>
       <c r="AH27" t="n">
-        <v>2.915600540259592</v>
+        <v>5.327702924779198</v>
       </c>
       <c r="AI27" t="n">
-        <v>14.90516729644919</v>
+        <v>6.319104959514345</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8.653343788487932</v>
+        <v>4.820746706796535</v>
       </c>
       <c r="AK27" t="n">
-        <v>3.310511399586573</v>
+        <v>5.788684375813736</v>
       </c>
       <c r="AL27" t="n">
-        <v>3.172333053828916</v>
+        <v>6.17625528235763</v>
       </c>
       <c r="AM27" t="n">
-        <v>4.201482229668752</v>
+        <v>5.799334286586988</v>
       </c>
       <c r="AN27" t="n">
-        <v>5.45861172419158</v>
+        <v>2.893517985373756</v>
       </c>
       <c r="AO27" t="n">
-        <v>2.764833483179451</v>
+        <v>4.501330081763273</v>
       </c>
       <c r="AP27" t="n">
-        <v>6.942490242675566</v>
+        <v>4.863967901262678</v>
       </c>
       <c r="AQ27" t="n">
-        <v>4.703644274524715</v>
+        <v>5.647575487920924</v>
       </c>
       <c r="AR27" t="n">
-        <v>5.164805015767383</v>
+        <v>4.097313224226197</v>
       </c>
       <c r="AS27" t="n">
-        <v>6.366509724941532</v>
+        <v>3.125481029178371</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.167387615355938</v>
+        <v>3.382618836212627</v>
       </c>
       <c r="AU27" t="n">
-        <v>8.094165943256366</v>
+        <v>4.963954986172425</v>
       </c>
       <c r="AV27" t="n">
-        <v>4.566878804204728</v>
+        <v>0.6926868447706023</v>
       </c>
       <c r="AW27" t="n">
-        <v>2.027738502193807</v>
+        <v>3.240546873991408</v>
       </c>
       <c r="AX27" t="n">
-        <v>12.67527073303605</v>
+        <v>2.258938334689583</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>12.15200424731199</v>
+        <v>10.11633808371327</v>
       </c>
       <c r="D28" t="n">
-        <v>6.01979935743838</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>7.014292557572711</v>
+        <v>35.69974439817033</v>
       </c>
       <c r="F28" t="n">
-        <v>46.49021463050548</v>
+        <v>33.04266626502851</v>
       </c>
       <c r="G28" t="n">
-        <v>5.518816073974164</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>28.93462108226404</v>
+        <v>25.12534466159961</v>
       </c>
       <c r="I28" t="n">
-        <v>20.90010350534046</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.86711767788408</v>
+        <v>13.57870593931446</v>
       </c>
       <c r="K28" t="n">
-        <v>34.4318289969268</v>
+        <v>30.53070293774258</v>
       </c>
       <c r="L28" t="n">
-        <v>179.8810463827414</v>
+        <v>18.11792042054384</v>
       </c>
       <c r="M28" t="n">
-        <v>58.69084998002729</v>
+        <v>49.63050509717474</v>
       </c>
       <c r="N28" t="n">
-        <v>88.76652189997264</v>
+        <v>116.7842694181223</v>
       </c>
       <c r="O28" t="n">
-        <v>94.53075240701151</v>
+        <v>69.58711963579776</v>
       </c>
       <c r="P28" t="n">
-        <v>35.86255319340458</v>
+        <v>33.43453713457462</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.30479160338501</v>
+        <v>47.64085964122837</v>
       </c>
       <c r="R28" t="n">
-        <v>48.98762004767508</v>
+        <v>39.41450331895553</v>
       </c>
       <c r="S28" t="n">
-        <v>156.1546750132205</v>
+        <v>54.26070037786184</v>
       </c>
       <c r="T28" t="n">
-        <v>106.8385127396183</v>
+        <v>41.4034484482714</v>
       </c>
       <c r="U28" t="n">
-        <v>38.40195323582623</v>
+        <v>97.81096917628527</v>
       </c>
       <c r="V28" t="n">
-        <v>129.823417487114</v>
+        <v>74.34249941628894</v>
       </c>
       <c r="W28" t="n">
-        <v>26.39963649801773</v>
+        <v>46.18882654094444</v>
       </c>
       <c r="X28" t="n">
-        <v>78.86835413210441</v>
+        <v>32.65871562499876</v>
       </c>
       <c r="Y28" t="n">
-        <v>77.98521715299636</v>
+        <v>66.66921628326993</v>
       </c>
       <c r="Z28" t="n">
-        <v>39.06861006076909</v>
+        <v>65.6629117430885</v>
       </c>
       <c r="AA28" t="n">
-        <v>60.79420774520646</v>
+        <v>52.90470262589493</v>
       </c>
       <c r="AB28" t="n">
-        <v>54.46731390994974</v>
+        <v>44.6045714454835</v>
       </c>
       <c r="AC28" t="n">
-        <v>72.49982409457544</v>
+        <v>86.27894732222407</v>
       </c>
       <c r="AD28" t="n">
-        <v>62.49429988440011</v>
+        <v>64.18871613755088</v>
       </c>
       <c r="AE28" t="n">
-        <v>40.77271202373995</v>
+        <v>84.50331099381076</v>
       </c>
       <c r="AF28" t="n">
-        <v>37.77267889397167</v>
+        <v>76.51078397514502</v>
       </c>
       <c r="AG28" t="n">
-        <v>72.46328334365195</v>
+        <v>52.23959272599488</v>
       </c>
       <c r="AH28" t="n">
-        <v>50.09608514805964</v>
+        <v>73.07954319901025</v>
       </c>
       <c r="AI28" t="n">
-        <v>35.97657762841489</v>
+        <v>51.38738644925273</v>
       </c>
       <c r="AJ28" t="n">
-        <v>87.50708962828506</v>
+        <v>32.65800949839609</v>
       </c>
       <c r="AK28" t="n">
-        <v>67.5683838380284</v>
+        <v>51.39835643687306</v>
       </c>
       <c r="AL28" t="n">
-        <v>45.60477300411051</v>
+        <v>16.7868689460487</v>
       </c>
       <c r="AM28" t="n">
-        <v>37.54462553713675</v>
+        <v>14.21165061167028</v>
       </c>
       <c r="AN28" t="n">
-        <v>25.86191277553422</v>
+        <v>21.12240751190705</v>
       </c>
       <c r="AO28" t="n">
-        <v>8.208527225349068</v>
+        <v>15.82399840949784</v>
       </c>
       <c r="AP28" t="n">
-        <v>13.09087350833215</v>
+        <v>18.53748656968395</v>
       </c>
       <c r="AQ28" t="n">
-        <v>29.30942932993092</v>
+        <v>23.93718434429629</v>
       </c>
       <c r="AR28" t="n">
-        <v>16.62311682171751</v>
+        <v>4.559261337874712</v>
       </c>
       <c r="AS28" t="n">
-        <v>21.27943364253466</v>
+        <v>14.47621811202518</v>
       </c>
       <c r="AT28" t="n">
-        <v>15.74700395852286</v>
+        <v>17.40687820081641</v>
       </c>
       <c r="AU28" t="n">
-        <v>7.73003479216745</v>
+        <v>9.64822067158639</v>
       </c>
       <c r="AV28" t="n">
-        <v>17.91664957767006</v>
+        <v>16.24348527560463</v>
       </c>
       <c r="AW28" t="n">
-        <v>7.027489345637692</v>
+        <v>4.352503242181912</v>
       </c>
       <c r="AX28" t="n">
-        <v>9.093220713975617</v>
+        <v>17.77523321472601</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>7.766760907386234</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6.412931542759696</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>7.854803212997092</v>
+        <v>6.975774091021473</v>
       </c>
       <c r="F29" t="n">
-        <v>26.87201094476868</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>8.888811171211952</v>
+        <v>4.21774453980818</v>
       </c>
       <c r="H29" t="n">
-        <v>18.62832889821924</v>
+        <v>15.584595323417</v>
       </c>
       <c r="I29" t="n">
-        <v>14.07458377786284</v>
+        <v>20.77647734405135</v>
       </c>
       <c r="J29" t="n">
-        <v>27.00837695895351</v>
+        <v>58.73124359420691</v>
       </c>
       <c r="K29" t="n">
-        <v>52.00071706067425</v>
+        <v>7.302169830316491</v>
       </c>
       <c r="L29" t="n">
-        <v>31.65335153195173</v>
+        <v>17.01415673773302</v>
       </c>
       <c r="M29" t="n">
-        <v>9.138327183827977</v>
+        <v>208.5144186043044</v>
       </c>
       <c r="N29" t="n">
-        <v>27.28417629709426</v>
+        <v>44.24578258145552</v>
       </c>
       <c r="O29" t="n">
-        <v>91.26490418359953</v>
+        <v>90.88895765706013</v>
       </c>
       <c r="P29" t="n">
-        <v>50.90506567017454</v>
+        <v>38.13375011759712</v>
       </c>
       <c r="Q29" t="n">
-        <v>57.90491762672729</v>
+        <v>162.6601580747101</v>
       </c>
       <c r="R29" t="n">
-        <v>19.50935790665724</v>
+        <v>54.50320292669509</v>
       </c>
       <c r="S29" t="n">
-        <v>32.38087568018268</v>
+        <v>49.07899017798444</v>
       </c>
       <c r="T29" t="n">
-        <v>147.7834545779057</v>
+        <v>80.78481248216046</v>
       </c>
       <c r="U29" t="n">
-        <v>58.5424138195166</v>
+        <v>66.75809775116215</v>
       </c>
       <c r="V29" t="n">
-        <v>49.01234006249946</v>
+        <v>14.29293594792005</v>
       </c>
       <c r="W29" t="n">
-        <v>37.60651766591435</v>
+        <v>35.41500555952132</v>
       </c>
       <c r="X29" t="n">
-        <v>43.99491321171338</v>
+        <v>112.1259981121756</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.80088592207058</v>
+        <v>42.84945491616878</v>
       </c>
       <c r="Z29" t="n">
-        <v>15.49165959774461</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.02341707092566</v>
+        <v>22.14510949669305</v>
       </c>
       <c r="AB29" t="n">
-        <v>10.12390453248422</v>
+        <v>22.5516062724371</v>
       </c>
       <c r="AC29" t="n">
-        <v>24.92391549961857</v>
+        <v>62.60549821257077</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.697778286989954</v>
+        <v>30.01478583754426</v>
       </c>
       <c r="AE29" t="n">
-        <v>81.54501712442145</v>
+        <v>74.65973251833829</v>
       </c>
       <c r="AF29" t="n">
-        <v>18.24898853754845</v>
+        <v>22.66147826437532</v>
       </c>
       <c r="AG29" t="n">
-        <v>11.49615844600766</v>
+        <v>46.1815701493389</v>
       </c>
       <c r="AH29" t="n">
-        <v>14.95091509271869</v>
+        <v>29.86824545655202</v>
       </c>
       <c r="AI29" t="n">
-        <v>25.89274659004171</v>
+        <v>11.41373694744644</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22.41845702881512</v>
+        <v>26.96971380891586</v>
       </c>
       <c r="AK29" t="n">
-        <v>14.08397896860774</v>
+        <v>14.42020659230813</v>
       </c>
       <c r="AL29" t="n">
-        <v>6.512534120734241</v>
+        <v>26.58806365330443</v>
       </c>
       <c r="AM29" t="n">
-        <v>153.1613358936939</v>
+        <v>25.41212174744818</v>
       </c>
       <c r="AN29" t="n">
-        <v>21.74739018382737</v>
+        <v>22.29457069557183</v>
       </c>
       <c r="AO29" t="n">
-        <v>63.16628517059171</v>
+        <v>32.96799425226843</v>
       </c>
       <c r="AP29" t="n">
-        <v>39.2398224001491</v>
+        <v>23.99956206489584</v>
       </c>
       <c r="AQ29" t="n">
-        <v>13.85330180324264</v>
+        <v>18.10915848119032</v>
       </c>
       <c r="AR29" t="n">
-        <v>16.90536567434298</v>
+        <v>27.97317607512516</v>
       </c>
       <c r="AS29" t="n">
-        <v>16.46860063543741</v>
+        <v>21.36855388874672</v>
       </c>
       <c r="AT29" t="n">
-        <v>16.96131222991754</v>
+        <v>27.67764764484969</v>
       </c>
       <c r="AU29" t="n">
-        <v>7.02761178851955</v>
+        <v>14.9813614020425</v>
       </c>
       <c r="AV29" t="n">
-        <v>24.07834479766034</v>
+        <v>37.60141395380727</v>
       </c>
       <c r="AW29" t="n">
-        <v>23.89243964945597</v>
+        <v>12.06958574937956</v>
       </c>
       <c r="AX29" t="n">
-        <v>27.17634198204063</v>
+        <v>23.67119545886377</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>1.546849693904757</v>
+        <v>2.279320402724223</v>
       </c>
       <c r="D30" t="n">
-        <v>7.710712918461243</v>
+        <v>2.649679092581698</v>
       </c>
       <c r="E30" t="n">
-        <v>5.395053160138265</v>
+        <v>10.2909114532283</v>
       </c>
       <c r="F30" t="n">
-        <v>3.648005122212469</v>
+        <v>1.956507318183083</v>
       </c>
       <c r="G30" t="n">
-        <v>2.672409415530906</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>11.08069816139301</v>
+        <v>7.382334113832966</v>
       </c>
       <c r="I30" t="n">
-        <v>10.72421748290007</v>
+        <v>21.12155335007214</v>
       </c>
       <c r="J30" t="n">
-        <v>3.263046520683035</v>
+        <v>7.198178224629145</v>
       </c>
       <c r="K30" t="n">
-        <v>31.96519045740356</v>
+        <v>31.09714824130801</v>
       </c>
       <c r="L30" t="n">
-        <v>14.15468247251668</v>
+        <v>12.16190127033381</v>
       </c>
       <c r="M30" t="n">
-        <v>34.70142957563417</v>
+        <v>16.62103068474275</v>
       </c>
       <c r="N30" t="n">
-        <v>30.43705623340819</v>
+        <v>83.90127386414727</v>
       </c>
       <c r="O30" t="n">
-        <v>33.89536735633173</v>
+        <v>16.88349501081942</v>
       </c>
       <c r="P30" t="n">
-        <v>51.63805650056933</v>
+        <v>47.70324781681403</v>
       </c>
       <c r="Q30" t="n">
-        <v>15.98015930316835</v>
+        <v>26.16881831718035</v>
       </c>
       <c r="R30" t="n">
-        <v>57.59675041082038</v>
+        <v>23.75696068118426</v>
       </c>
       <c r="S30" t="n">
-        <v>31.71620269545474</v>
+        <v>49.85129099444526</v>
       </c>
       <c r="T30" t="n">
-        <v>60.87017752058986</v>
+        <v>21.94777302318958</v>
       </c>
       <c r="U30" t="n">
-        <v>11.65499259059141</v>
+        <v>15.80538006294271</v>
       </c>
       <c r="V30" t="n">
-        <v>7.273320773027635</v>
+        <v>128.5506564809175</v>
       </c>
       <c r="W30" t="n">
-        <v>22.04063780747846</v>
+        <v>23.32438719708454</v>
       </c>
       <c r="X30" t="n">
-        <v>36.64075717358062</v>
+        <v>10.78746654167164</v>
       </c>
       <c r="Y30" t="n">
-        <v>39.31414885282951</v>
+        <v>14.37032654014822</v>
       </c>
       <c r="Z30" t="n">
-        <v>25.2518027478592</v>
+        <v>15.58071545633791</v>
       </c>
       <c r="AA30" t="n">
-        <v>28.16459000326603</v>
+        <v>12.67436363678478</v>
       </c>
       <c r="AB30" t="n">
-        <v>21.69486010160956</v>
+        <v>45.91440365788052</v>
       </c>
       <c r="AC30" t="n">
-        <v>32.11864983678614</v>
+        <v>19.70455666177445</v>
       </c>
       <c r="AD30" t="n">
-        <v>16.24333731436133</v>
+        <v>13.26852457919496</v>
       </c>
       <c r="AE30" t="n">
-        <v>19.61819283175211</v>
+        <v>15.96974187127462</v>
       </c>
       <c r="AF30" t="n">
-        <v>10.26163809980629</v>
+        <v>16.56851795562099</v>
       </c>
       <c r="AG30" t="n">
-        <v>10.35346177829675</v>
+        <v>10.7164883953096</v>
       </c>
       <c r="AH30" t="n">
-        <v>22.30204723395764</v>
+        <v>20.28358338550776</v>
       </c>
       <c r="AI30" t="n">
-        <v>5.551933604382087</v>
+        <v>9.344700339202793</v>
       </c>
       <c r="AJ30" t="n">
-        <v>6.079680534500884</v>
+        <v>11.15752203777918</v>
       </c>
       <c r="AK30" t="n">
-        <v>6.43367614617651</v>
+        <v>7.308817931800981</v>
       </c>
       <c r="AL30" t="n">
-        <v>11.76498422557631</v>
+        <v>2.708049890342027</v>
       </c>
       <c r="AM30" t="n">
-        <v>5.430017674402912</v>
+        <v>9.853514493610032</v>
       </c>
       <c r="AN30" t="n">
-        <v>2.866378422280003</v>
+        <v>5.459863643171476</v>
       </c>
       <c r="AO30" t="n">
-        <v>2.603539767274268</v>
+        <v>4.695950409797727</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.912372958782568</v>
+        <v>2.594426832686164</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.69275290747924</v>
+        <v>5.629821911102299</v>
       </c>
       <c r="AR30" t="n">
-        <v>2.088956524249469</v>
+        <v>1.892368868495778</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.18255813461643</v>
+        <v>2.00109195447958</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.037039024809613</v>
+        <v>4.378842676044795</v>
       </c>
       <c r="AU30" t="n">
-        <v>2.302795739724919</v>
+        <v>1.291590097662781</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.4471013555619562</v>
+        <v>3.779385799351455</v>
       </c>
       <c r="AW30" t="n">
-        <v>1.082374691582445</v>
+        <v>2.105519481317232</v>
       </c>
       <c r="AX30" t="n">
-        <v>10.2953424187053</v>
+        <v>0.9884170557790105</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>4.553505806357873</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>5.244220913461827</v>
+        <v>3.960913114639578</v>
       </c>
       <c r="E31" t="n">
-        <v>8.514761718449421</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>23.8916920935999</v>
+        <v>18.93002763794336</v>
       </c>
       <c r="G31" t="n">
-        <v>25.84552467036138</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>16.52217245518697</v>
+        <v>14.91904294224118</v>
       </c>
       <c r="I31" t="n">
-        <v>37.9851679551441</v>
+        <v>21.17712996828432</v>
       </c>
       <c r="J31" t="n">
-        <v>7.163919276542805</v>
+        <v>45.86959047399026</v>
       </c>
       <c r="K31" t="n">
-        <v>6.241262071952473</v>
+        <v>40.43891750332902</v>
       </c>
       <c r="L31" t="n">
-        <v>13.0265294572694</v>
+        <v>20.63393204613227</v>
       </c>
       <c r="M31" t="n">
-        <v>7.232582120038474</v>
+        <v>80.26821363523928</v>
       </c>
       <c r="N31" t="n">
-        <v>17.84407851818049</v>
+        <v>63.54343605010758</v>
       </c>
       <c r="O31" t="n">
-        <v>51.18258048340363</v>
+        <v>53.72349847652672</v>
       </c>
       <c r="P31" t="n">
-        <v>7.747605432261725</v>
+        <v>7.781916281040947</v>
       </c>
       <c r="Q31" t="n">
-        <v>51.37469619234178</v>
+        <v>1.692298702228648</v>
       </c>
       <c r="R31" t="n">
-        <v>82.53698438097602</v>
+        <v>124.1074689976796</v>
       </c>
       <c r="S31" t="n">
-        <v>35.92173501443468</v>
+        <v>35.97053076208162</v>
       </c>
       <c r="T31" t="n">
-        <v>18.25573909383064</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>13.64358484212727</v>
+        <v>36.06711586820344</v>
       </c>
       <c r="V31" t="n">
-        <v>4.440511716038269</v>
+        <v>46.18742683352819</v>
       </c>
       <c r="W31" t="n">
-        <v>11.37663493140191</v>
+        <v>13.89057968063949</v>
       </c>
       <c r="X31" t="n">
-        <v>2.991493800740401</v>
+        <v>11.18620123600786</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.47851673665806</v>
+        <v>4.815264197427874</v>
       </c>
       <c r="Z31" t="n">
-        <v>45.46527403031345</v>
+        <v>22.64574719226264</v>
       </c>
       <c r="AA31" t="n">
-        <v>31.06132537072683</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.833339095901982</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.145101760572749</v>
+        <v>12.06404369635086</v>
       </c>
       <c r="AD31" t="n">
-        <v>45.63366156906495</v>
+        <v>49.72771575933132</v>
       </c>
       <c r="AE31" t="n">
-        <v>14.03213493437999</v>
+        <v>8.73053969700722</v>
       </c>
       <c r="AF31" t="n">
-        <v>7.803505958798149</v>
+        <v>3.646630673647926</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.23722976728808</v>
+        <v>17.14903692946653</v>
       </c>
       <c r="AH31" t="n">
-        <v>6.653885034716311</v>
+        <v>0.8551417752439538</v>
       </c>
       <c r="AI31" t="n">
-        <v>38.75788249568195</v>
+        <v>14.04746719198189</v>
       </c>
       <c r="AJ31" t="n">
-        <v>5.954139306580215</v>
+        <v>2.600219735345432</v>
       </c>
       <c r="AK31" t="n">
-        <v>4.242698906895382</v>
+        <v>6.074230247043368</v>
       </c>
       <c r="AL31" t="n">
-        <v>15.38366667510249</v>
+        <v>6.655265858855095</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.2017107072066116</v>
+        <v>3.715221147015519</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.745872859208851</v>
+        <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>7.491189109321977</v>
+        <v>4.10346027940743</v>
       </c>
       <c r="AP31" t="n">
-        <v>4.758653446574058</v>
+        <v>3.002394502284256</v>
       </c>
       <c r="AQ31" t="n">
-        <v>2.23924971831232</v>
+        <v>8.403809225333134</v>
       </c>
       <c r="AR31" t="n">
-        <v>12.43184328233606</v>
+        <v>7.959236576407356</v>
       </c>
       <c r="AS31" t="n">
-        <v>3.872886038420552</v>
+        <v>2.198850369395077</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.004547821868389</v>
+        <v>12.29674716045732</v>
       </c>
       <c r="AU31" t="n">
-        <v>5.751648057627708</v>
+        <v>0</v>
       </c>
       <c r="AV31" t="n">
-        <v>5.759437926343257</v>
+        <v>15.01387249680196</v>
       </c>
       <c r="AW31" t="n">
-        <v>1.489438990417317</v>
+        <v>7.207195024760031</v>
       </c>
       <c r="AX31" t="n">
-        <v>2.144531628211022</v>
+        <v>17.31396522012873</v>
       </c>
     </row>
   </sheetData>
